--- a/data/all_in_one.xlsx
+++ b/data/all_in_one.xlsx
@@ -665,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC340"/>
+  <dimension ref="A1:AC344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28658,6 +28658,352 @@
       <c r="AB340" t="s"/>
       <c r="AC340" t="s"/>
     </row>
+    <row r="341" spans="1:29">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>28</v>
+      </c>
+      <c r="C341" t="s">
+        <v>34</v>
+      </c>
+      <c r="D341" t="s">
+        <v>30</v>
+      </c>
+      <c r="E341" t="n">
+        <v>504653.1888824402</v>
+      </c>
+      <c r="F341" t="n">
+        <v>16121.75146707938</v>
+      </c>
+      <c r="G341" t="n">
+        <v>2579480.234732701</v>
+      </c>
+      <c r="H341" t="n">
+        <v>5046108.209195848</v>
+      </c>
+      <c r="I341" t="n">
+        <v>5046108.209195848</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>5046108.209195848</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0</v>
+      </c>
+      <c r="O341" t="n">
+        <v>2755897.59554814</v>
+      </c>
+      <c r="P341" t="n">
+        <v>764022.3593160097</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>4814684</v>
+      </c>
+      <c r="R341" t="n">
+        <v>6351926</v>
+      </c>
+      <c r="S341" t="n">
+        <v>63136358.12420253</v>
+      </c>
+      <c r="T341" t="n">
+        <v>60364677.56497066</v>
+      </c>
+      <c r="U341" t="n">
+        <v>11</v>
+      </c>
+      <c r="V341" t="n">
+        <v>12</v>
+      </c>
+      <c r="W341" t="n">
+        <v>0</v>
+      </c>
+      <c r="X341" t="s"/>
+      <c r="Y341" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>11932872.98360656</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>42351496.90609522</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>28</v>
+      </c>
+      <c r="C342" t="s">
+        <v>34</v>
+      </c>
+      <c r="D342" t="s">
+        <v>31</v>
+      </c>
+      <c r="E342" t="n">
+        <v>942879.1900432063</v>
+      </c>
+      <c r="F342" t="n">
+        <v>16121.75146707938</v>
+      </c>
+      <c r="G342" t="n">
+        <v>2579480.234732701</v>
+      </c>
+      <c r="H342" t="n">
+        <v>9428000.257948024</v>
+      </c>
+      <c r="I342" t="n">
+        <v>9428000.257948024</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>9428000.257948024</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0</v>
+      </c>
+      <c r="O342" t="n">
+        <v>2455221.719561488</v>
+      </c>
+      <c r="P342" t="n">
+        <v>1426851.958320716</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>17043517</v>
+      </c>
+      <c r="R342" t="n">
+        <v>28397506</v>
+      </c>
+      <c r="S342" t="n">
+        <v>65411808.06437584</v>
+      </c>
+      <c r="T342" t="n">
+        <v>62619609.24421229</v>
+      </c>
+      <c r="U342" t="n">
+        <v>8</v>
+      </c>
+      <c r="V342" t="n">
+        <v>7</v>
+      </c>
+      <c r="W342" t="n">
+        <v>0</v>
+      </c>
+      <c r="X342" t="n">
+        <v>875</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>23738.90163934425</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>26811630.04297515</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>28</v>
+      </c>
+      <c r="C343" t="s">
+        <v>34</v>
+      </c>
+      <c r="D343" t="s">
+        <v>32</v>
+      </c>
+      <c r="E343" t="n">
+        <v>322964.6449990327</v>
+      </c>
+      <c r="F343" t="n">
+        <v>16121.75146707938</v>
+      </c>
+      <c r="G343" t="n">
+        <v>2579480.234732701</v>
+      </c>
+      <c r="H343" t="n">
+        <v>3229375.285355001</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3229375.285355001</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>3229375.285355001</v>
+      </c>
+      <c r="N343" t="n">
+        <v>0</v>
+      </c>
+      <c r="O343" t="s"/>
+      <c r="P343" t="s"/>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="n">
+        <v>9787349</v>
+      </c>
+      <c r="S343" t="n">
+        <v>20024435.17669093</v>
+      </c>
+      <c r="T343" t="n">
+        <v>19989468.28851486</v>
+      </c>
+      <c r="U343" t="n">
+        <v>0</v>
+      </c>
+      <c r="V343" t="n">
+        <v>38</v>
+      </c>
+      <c r="W343" t="n">
+        <v>0</v>
+      </c>
+      <c r="X343" t="s"/>
+      <c r="Y343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>28</v>
+      </c>
+      <c r="C344" t="s">
+        <v>34</v>
+      </c>
+      <c r="D344" t="s">
+        <v>33</v>
+      </c>
+      <c r="E344" t="n">
+        <v>112241.4167795189</v>
+      </c>
+      <c r="F344" t="n">
+        <v>16121.75146707938</v>
+      </c>
+      <c r="G344" t="n">
+        <v>2579480.234732701</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1111000</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1111000</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>1111000</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0</v>
+      </c>
+      <c r="O344" t="n">
+        <v>126998.4047359257</v>
+      </c>
+      <c r="P344" t="n">
+        <v>39534.6277334805</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="n">
+        <v>136000</v>
+      </c>
+      <c r="S344" t="n">
+        <v>13961141.68599544</v>
+      </c>
+      <c r="T344" t="n">
+        <v>13348961.19816857</v>
+      </c>
+      <c r="U344" t="n">
+        <v>0</v>
+      </c>
+      <c r="V344" t="n">
+        <v>24</v>
+      </c>
+      <c r="W344" t="n">
+        <v>0</v>
+      </c>
+      <c r="X344" t="s"/>
+      <c r="Y344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/all_in_one.xlsx
+++ b/data/all_in_one.xlsx
@@ -665,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC344"/>
+  <dimension ref="A1:AC340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28658,352 +28658,6 @@
       <c r="AB340" t="s"/>
       <c r="AC340" t="s"/>
     </row>
-    <row r="341" spans="1:29">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="s">
-        <v>28</v>
-      </c>
-      <c r="C341" t="s">
-        <v>34</v>
-      </c>
-      <c r="D341" t="s">
-        <v>30</v>
-      </c>
-      <c r="E341" t="n">
-        <v>504653.1888824402</v>
-      </c>
-      <c r="F341" t="n">
-        <v>16121.75146707938</v>
-      </c>
-      <c r="G341" t="n">
-        <v>2579480.234732701</v>
-      </c>
-      <c r="H341" t="n">
-        <v>5046108.209195848</v>
-      </c>
-      <c r="I341" t="n">
-        <v>5046108.209195848</v>
-      </c>
-      <c r="J341" t="n">
-        <v>0</v>
-      </c>
-      <c r="K341" t="n">
-        <v>0</v>
-      </c>
-      <c r="L341" t="n">
-        <v>0</v>
-      </c>
-      <c r="M341" t="n">
-        <v>5046108.209195848</v>
-      </c>
-      <c r="N341" t="n">
-        <v>0</v>
-      </c>
-      <c r="O341" t="n">
-        <v>2755897.59554814</v>
-      </c>
-      <c r="P341" t="n">
-        <v>764022.3593160097</v>
-      </c>
-      <c r="Q341" t="n">
-        <v>4814684</v>
-      </c>
-      <c r="R341" t="n">
-        <v>6351926</v>
-      </c>
-      <c r="S341" t="n">
-        <v>63136358.12420253</v>
-      </c>
-      <c r="T341" t="n">
-        <v>60364677.56497066</v>
-      </c>
-      <c r="U341" t="n">
-        <v>11</v>
-      </c>
-      <c r="V341" t="n">
-        <v>12</v>
-      </c>
-      <c r="W341" t="n">
-        <v>0</v>
-      </c>
-      <c r="X341" t="s"/>
-      <c r="Y341" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z341" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA341" t="n">
-        <v>11932872.98360656</v>
-      </c>
-      <c r="AB341" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC341" t="n">
-        <v>42351496.90609522</v>
-      </c>
-    </row>
-    <row r="342" spans="1:29">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>28</v>
-      </c>
-      <c r="C342" t="s">
-        <v>34</v>
-      </c>
-      <c r="D342" t="s">
-        <v>31</v>
-      </c>
-      <c r="E342" t="n">
-        <v>942879.1900432063</v>
-      </c>
-      <c r="F342" t="n">
-        <v>16121.75146707938</v>
-      </c>
-      <c r="G342" t="n">
-        <v>2579480.234732701</v>
-      </c>
-      <c r="H342" t="n">
-        <v>9428000.257948024</v>
-      </c>
-      <c r="I342" t="n">
-        <v>9428000.257948024</v>
-      </c>
-      <c r="J342" t="n">
-        <v>0</v>
-      </c>
-      <c r="K342" t="n">
-        <v>0</v>
-      </c>
-      <c r="L342" t="n">
-        <v>0</v>
-      </c>
-      <c r="M342" t="n">
-        <v>9428000.257948024</v>
-      </c>
-      <c r="N342" t="n">
-        <v>0</v>
-      </c>
-      <c r="O342" t="n">
-        <v>2455221.719561488</v>
-      </c>
-      <c r="P342" t="n">
-        <v>1426851.958320716</v>
-      </c>
-      <c r="Q342" t="n">
-        <v>17043517</v>
-      </c>
-      <c r="R342" t="n">
-        <v>28397506</v>
-      </c>
-      <c r="S342" t="n">
-        <v>65411808.06437584</v>
-      </c>
-      <c r="T342" t="n">
-        <v>62619609.24421229</v>
-      </c>
-      <c r="U342" t="n">
-        <v>8</v>
-      </c>
-      <c r="V342" t="n">
-        <v>7</v>
-      </c>
-      <c r="W342" t="n">
-        <v>0</v>
-      </c>
-      <c r="X342" t="n">
-        <v>875</v>
-      </c>
-      <c r="Y342" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z342" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA342" t="n">
-        <v>23738.90163934425</v>
-      </c>
-      <c r="AB342" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC342" t="n">
-        <v>26811630.04297515</v>
-      </c>
-    </row>
-    <row r="343" spans="1:29">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="s">
-        <v>28</v>
-      </c>
-      <c r="C343" t="s">
-        <v>34</v>
-      </c>
-      <c r="D343" t="s">
-        <v>32</v>
-      </c>
-      <c r="E343" t="n">
-        <v>322964.6449990327</v>
-      </c>
-      <c r="F343" t="n">
-        <v>16121.75146707938</v>
-      </c>
-      <c r="G343" t="n">
-        <v>2579480.234732701</v>
-      </c>
-      <c r="H343" t="n">
-        <v>3229375.285355001</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3229375.285355001</v>
-      </c>
-      <c r="J343" t="n">
-        <v>0</v>
-      </c>
-      <c r="K343" t="n">
-        <v>0</v>
-      </c>
-      <c r="L343" t="n">
-        <v>0</v>
-      </c>
-      <c r="M343" t="n">
-        <v>3229375.285355001</v>
-      </c>
-      <c r="N343" t="n">
-        <v>0</v>
-      </c>
-      <c r="O343" t="s"/>
-      <c r="P343" t="s"/>
-      <c r="Q343" t="n">
-        <v>0</v>
-      </c>
-      <c r="R343" t="n">
-        <v>9787349</v>
-      </c>
-      <c r="S343" t="n">
-        <v>20024435.17669093</v>
-      </c>
-      <c r="T343" t="n">
-        <v>19989468.28851486</v>
-      </c>
-      <c r="U343" t="n">
-        <v>0</v>
-      </c>
-      <c r="V343" t="n">
-        <v>38</v>
-      </c>
-      <c r="W343" t="n">
-        <v>0</v>
-      </c>
-      <c r="X343" t="s"/>
-      <c r="Y343" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z343" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA343" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB343" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC343" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:29">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="s">
-        <v>28</v>
-      </c>
-      <c r="C344" t="s">
-        <v>34</v>
-      </c>
-      <c r="D344" t="s">
-        <v>33</v>
-      </c>
-      <c r="E344" t="n">
-        <v>112241.4167795189</v>
-      </c>
-      <c r="F344" t="n">
-        <v>16121.75146707938</v>
-      </c>
-      <c r="G344" t="n">
-        <v>2579480.234732701</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1111000</v>
-      </c>
-      <c r="I344" t="n">
-        <v>1111000</v>
-      </c>
-      <c r="J344" t="n">
-        <v>0</v>
-      </c>
-      <c r="K344" t="n">
-        <v>0</v>
-      </c>
-      <c r="L344" t="n">
-        <v>0</v>
-      </c>
-      <c r="M344" t="n">
-        <v>1111000</v>
-      </c>
-      <c r="N344" t="n">
-        <v>0</v>
-      </c>
-      <c r="O344" t="n">
-        <v>126998.4047359257</v>
-      </c>
-      <c r="P344" t="n">
-        <v>39534.6277334805</v>
-      </c>
-      <c r="Q344" t="n">
-        <v>0</v>
-      </c>
-      <c r="R344" t="n">
-        <v>136000</v>
-      </c>
-      <c r="S344" t="n">
-        <v>13961141.68599544</v>
-      </c>
-      <c r="T344" t="n">
-        <v>13348961.19816857</v>
-      </c>
-      <c r="U344" t="n">
-        <v>0</v>
-      </c>
-      <c r="V344" t="n">
-        <v>24</v>
-      </c>
-      <c r="W344" t="n">
-        <v>0</v>
-      </c>
-      <c r="X344" t="s"/>
-      <c r="Y344" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z344" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA344" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB344" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC344" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/all_in_one.xlsx
+++ b/data/all_in_one.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>CCP</t>
   </si>
@@ -131,6 +131,18 @@
     <t>Q2-2018</t>
   </si>
   <si>
+    <t xml:space="preserve">   N/A   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 -    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       -    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             -    </t>
+  </si>
+  <si>
     <t>Q3-2017</t>
   </si>
   <si>
@@ -138,6 +150,18 @@
   </si>
   <si>
     <t>Q1-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N/A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               -  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     -  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           -  </t>
   </si>
   <si>
     <t>Kdpw</t>
@@ -159,6 +183,9 @@
   </si>
   <si>
     <t>F&amp;O</t>
+  </si>
+  <si>
+    <t>Not available</t>
   </si>
   <si>
     <t>CDS</t>
@@ -185,6 +212,9 @@
     <t>financial derivatives</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>repo</t>
   </si>
   <si>
@@ -203,10 +233,19 @@
     <t>aggregated</t>
   </si>
   <si>
+    <t>For additional information regarding participants commitment to replenish the default fund, please see OMIClear Instruction B07-2014.</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
     <t>LCHLTD</t>
   </si>
   <si>
     <t>commodities</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>equities</t>
@@ -222,6 +261,20 @@
   </si>
   <si>
     <t>ICE CLEAR NETHERLANDS</t>
+  </si>
+  <si>
+    <t>See ICNL Rulebook paragraph 7.6 and 7.7: 
+https://www.theice.com/publicdocs/Clear_Netherlands_Rulebook.pdf</t>
+  </si>
+  <si>
+    <t>See ICNL Rulebook - Rules 908 and 909.  https://www.theice.com/publicdocs/ICNL_Clearing_Rules.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available </t>
+  </si>
+  <si>
+    <t>See ICNL Rulebook - Rules 908 and 909 
+https://www.theice.com/publicdocs/ICNL_Clearing_Rules.pdf</t>
   </si>
   <si>
     <t>LCHSA</t>
@@ -612,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC340"/>
+  <dimension ref="A1:AC336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2005,20 +2058,30 @@
       <c r="F18" t="n">
         <v>15216</v>
       </c>
-      <c r="G18" t="s"/>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" t="n">
         <v>7054169</v>
       </c>
       <c r="I18" t="n">
         <v>7054169</v>
       </c>
-      <c r="J18" t="s"/>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
       <c r="M18" t="n">
         <v>7054169</v>
       </c>
-      <c r="N18" t="s"/>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
       <c r="O18" t="n">
         <v>8258874.623493609</v>
       </c>
@@ -2082,20 +2145,30 @@
       <c r="F19" t="n">
         <v>15216</v>
       </c>
-      <c r="G19" t="s"/>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
       <c r="H19" t="n">
         <v>6107730</v>
       </c>
       <c r="I19" t="n">
         <v>6107730</v>
       </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
       <c r="M19" t="n">
         <v>6107730</v>
       </c>
-      <c r="N19" t="s"/>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
       <c r="O19" t="n">
         <v>6525260.574391357</v>
       </c>
@@ -2161,20 +2234,30 @@
       <c r="F20" t="n">
         <v>15216</v>
       </c>
-      <c r="G20" t="s"/>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
       <c r="H20" t="n">
         <v>2562132</v>
       </c>
       <c r="I20" t="n">
         <v>2562132</v>
       </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
       <c r="M20" t="n">
         <v>2562132</v>
       </c>
-      <c r="N20" t="s"/>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2234,20 +2317,30 @@
       <c r="F21" t="n">
         <v>17000</v>
       </c>
-      <c r="G21" t="s"/>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
       <c r="H21" t="n">
         <v>1000000</v>
       </c>
       <c r="I21" t="n">
         <v>1000000</v>
       </c>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
       <c r="M21" t="n">
         <v>1000000</v>
       </c>
-      <c r="N21" t="s"/>
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
       <c r="O21" t="n">
         <v>371461.1054473524</v>
       </c>
@@ -2300,7 +2393,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -2385,7 +2478,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -2472,7 +2565,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -2553,7 +2646,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2638,7 +2731,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -2717,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -2798,7 +2891,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -2873,7 +2966,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -2952,7 +3045,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
@@ -2963,20 +3056,30 @@
       <c r="F30" t="n">
         <v>15997</v>
       </c>
-      <c r="G30" t="s"/>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
       <c r="H30" t="n">
         <v>8094705</v>
       </c>
       <c r="I30" t="n">
         <v>8094705</v>
       </c>
-      <c r="J30" t="s"/>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
       <c r="M30" t="n">
         <v>8094705</v>
       </c>
-      <c r="N30" t="s"/>
+      <c r="N30" t="s">
+        <v>47</v>
+      </c>
       <c r="O30" t="n">
         <v>8682982.566885298</v>
       </c>
@@ -3029,7 +3132,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -3040,20 +3143,30 @@
       <c r="F31" t="n">
         <v>15997</v>
       </c>
-      <c r="G31" t="s"/>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
       <c r="H31" t="n">
         <v>6981283</v>
       </c>
       <c r="I31" t="n">
         <v>6981283</v>
       </c>
-      <c r="J31" t="s"/>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
       <c r="M31" t="n">
         <v>6981283</v>
       </c>
-      <c r="N31" t="s"/>
+      <c r="N31" t="s">
+        <v>47</v>
+      </c>
       <c r="O31" t="n">
         <v>6900994.765653496</v>
       </c>
@@ -3108,7 +3221,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
@@ -3119,20 +3232,30 @@
       <c r="F32" t="n">
         <v>15997</v>
       </c>
-      <c r="G32" t="s"/>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
       <c r="H32" t="n">
         <v>2775282</v>
       </c>
       <c r="I32" t="n">
         <v>2775282</v>
       </c>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" t="s">
+        <v>48</v>
+      </c>
       <c r="M32" t="n">
         <v>2775282</v>
       </c>
-      <c r="N32" t="s"/>
+      <c r="N32" t="s">
+        <v>47</v>
+      </c>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3181,7 +3304,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -3192,20 +3315,30 @@
       <c r="F33" t="n">
         <v>17000</v>
       </c>
-      <c r="G33" t="s"/>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
       <c r="H33" t="n">
         <v>1000000</v>
       </c>
       <c r="I33" t="n">
         <v>1000000</v>
       </c>
-      <c r="J33" t="s"/>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
       <c r="M33" t="n">
         <v>1000000</v>
       </c>
-      <c r="N33" t="s"/>
+      <c r="N33" t="s">
+        <v>47</v>
+      </c>
       <c r="O33" t="n">
         <v>390536.2957926731</v>
       </c>
@@ -3255,13 +3388,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
         <v>2196319</v>
@@ -3340,13 +3473,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E35" t="n">
         <v>734377</v>
@@ -3421,13 +3554,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E36" t="n">
         <v>1753632</v>
@@ -3506,13 +3639,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E37" t="n">
         <v>1334408</v>
@@ -3591,13 +3724,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E38" t="n">
         <v>2152656</v>
@@ -3676,13 +3809,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E39" t="n">
         <v>899578</v>
@@ -3757,13 +3890,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E40" t="n">
         <v>1635548</v>
@@ -3842,13 +3975,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E41" t="n">
         <v>1382581</v>
@@ -3923,13 +4056,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E42" t="n">
         <v>1844467</v>
@@ -4008,13 +4141,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E43" t="n">
         <v>1275017</v>
@@ -4089,13 +4222,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E44" t="n">
         <v>1509481</v>
@@ -4174,13 +4307,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E45" t="n">
         <v>1464406</v>
@@ -4259,13 +4392,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
         <v>1984154</v>
@@ -4344,13 +4477,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E47" t="n">
         <v>966603</v>
@@ -4425,13 +4558,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E48" t="n">
         <v>2017930</v>
@@ -4510,13 +4643,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E49" t="n">
         <v>1060583</v>
@@ -4591,13 +4724,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E50" t="n">
         <v>2360715</v>
@@ -4676,13 +4809,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E51" t="n">
         <v>649200</v>
@@ -4757,13 +4890,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E52" t="n">
         <v>1845891</v>
@@ -4842,13 +4975,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E53" t="n">
         <v>1232601</v>
@@ -4923,13 +5056,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E54" t="n">
         <v>81162243</v>
@@ -4986,7 +5119,9 @@
       <c r="W54" t="n">
         <v>0</v>
       </c>
-      <c r="X54" t="s"/>
+      <c r="X54" t="s">
+        <v>56</v>
+      </c>
       <c r="Y54" t="n">
         <v>63</v>
       </c>
@@ -5008,13 +5143,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E55" t="n">
         <v>40571243</v>
@@ -5071,7 +5206,9 @@
       <c r="W55" t="n">
         <v>0</v>
       </c>
-      <c r="X55" t="s"/>
+      <c r="X55" t="s">
+        <v>56</v>
+      </c>
       <c r="Y55" t="n">
         <v>13</v>
       </c>
@@ -5091,13 +5228,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E56" t="n">
         <v>94867659</v>
@@ -5154,7 +5291,9 @@
       <c r="W56" t="n">
         <v>0</v>
       </c>
-      <c r="X56" t="s"/>
+      <c r="X56" t="s">
+        <v>56</v>
+      </c>
       <c r="Y56" t="n">
         <v>64</v>
       </c>
@@ -5176,13 +5315,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E57" t="n">
         <v>23773297</v>
@@ -5239,7 +5378,9 @@
       <c r="W57" t="n">
         <v>0</v>
       </c>
-      <c r="X57" t="s"/>
+      <c r="X57" t="s">
+        <v>56</v>
+      </c>
       <c r="Y57" t="n">
         <v>9</v>
       </c>
@@ -5259,13 +5400,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E58" t="n">
         <v>93536619</v>
@@ -5322,7 +5463,9 @@
       <c r="W58" t="n">
         <v>0</v>
       </c>
-      <c r="X58" t="s"/>
+      <c r="X58" t="s">
+        <v>56</v>
+      </c>
       <c r="Y58" t="n">
         <v>64</v>
       </c>
@@ -5344,13 +5487,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E59" t="n">
         <v>30977189</v>
@@ -5407,7 +5550,9 @@
       <c r="W59" t="n">
         <v>0</v>
       </c>
-      <c r="X59" t="s"/>
+      <c r="X59" t="s">
+        <v>56</v>
+      </c>
       <c r="Y59" t="n">
         <v>10</v>
       </c>
@@ -5427,13 +5572,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E60" t="n">
         <v>83381972</v>
@@ -5490,7 +5635,9 @@
       <c r="W60" t="n">
         <v>0</v>
       </c>
-      <c r="X60" t="s"/>
+      <c r="X60" t="s">
+        <v>56</v>
+      </c>
       <c r="Y60" t="n">
         <v>63</v>
       </c>
@@ -5512,13 +5659,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E61" t="n">
         <v>41656252</v>
@@ -5575,7 +5722,9 @@
       <c r="W61" t="n">
         <v>0</v>
       </c>
-      <c r="X61" t="s"/>
+      <c r="X61" t="s">
+        <v>56</v>
+      </c>
       <c r="Y61" t="n">
         <v>13</v>
       </c>
@@ -5595,13 +5744,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E62" t="n">
         <v>89597706</v>
@@ -5654,7 +5803,9 @@
       <c r="W62" t="n">
         <v>0</v>
       </c>
-      <c r="X62" t="s"/>
+      <c r="X62" t="s">
+        <v>56</v>
+      </c>
       <c r="Y62" t="n">
         <v>64</v>
       </c>
@@ -5676,13 +5827,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
         <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E63" t="n">
         <v>22245951</v>
@@ -5735,7 +5886,9 @@
       <c r="W63" t="n">
         <v>0</v>
       </c>
-      <c r="X63" t="s"/>
+      <c r="X63" t="s">
+        <v>56</v>
+      </c>
       <c r="Y63" t="n">
         <v>8</v>
       </c>
@@ -5755,13 +5908,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E64" t="n">
         <v>84702693</v>
@@ -5818,7 +5971,9 @@
       <c r="W64" t="n">
         <v>0</v>
       </c>
-      <c r="X64" t="s"/>
+      <c r="X64" t="s">
+        <v>56</v>
+      </c>
       <c r="Y64" t="n">
         <v>63</v>
       </c>
@@ -5840,13 +5995,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E65" t="n">
         <v>42326250</v>
@@ -5903,7 +6058,9 @@
       <c r="W65" t="n">
         <v>0</v>
       </c>
-      <c r="X65" t="s"/>
+      <c r="X65" t="s">
+        <v>56</v>
+      </c>
       <c r="Y65" t="n">
         <v>13</v>
       </c>
@@ -5923,13 +6080,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E66" t="n">
         <v>87627059</v>
@@ -5986,7 +6143,9 @@
       <c r="W66" t="n">
         <v>0</v>
       </c>
-      <c r="X66" t="s"/>
+      <c r="X66" t="s">
+        <v>56</v>
+      </c>
       <c r="Y66" t="n">
         <v>64</v>
       </c>
@@ -6008,13 +6167,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E67" t="n">
         <v>28881498</v>
@@ -6071,7 +6230,9 @@
       <c r="W67" t="n">
         <v>0</v>
       </c>
-      <c r="X67" t="s"/>
+      <c r="X67" t="s">
+        <v>56</v>
+      </c>
       <c r="Y67" t="n">
         <v>12</v>
       </c>
@@ -6091,13 +6252,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E68" t="n">
         <v>133813690</v>
@@ -6154,7 +6315,9 @@
       <c r="W68" t="n">
         <v>0</v>
       </c>
-      <c r="X68" t="s"/>
+      <c r="X68" t="s">
+        <v>56</v>
+      </c>
       <c r="Y68" t="n">
         <v>63</v>
       </c>
@@ -6176,13 +6339,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E69" t="n">
         <v>42793563</v>
@@ -6239,7 +6402,9 @@
       <c r="W69" t="n">
         <v>0</v>
       </c>
-      <c r="X69" t="s"/>
+      <c r="X69" t="s">
+        <v>56</v>
+      </c>
       <c r="Y69" t="n">
         <v>13</v>
       </c>
@@ -6259,13 +6424,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E70" t="n">
         <v>9845579</v>
@@ -6348,13 +6513,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E71" t="n">
         <v>4338089</v>
@@ -6437,13 +6602,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E72" t="n">
         <v>481915</v>
@@ -6520,13 +6685,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E73" t="n">
         <v>10373659</v>
@@ -6609,13 +6774,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E74" t="n">
         <v>5717255</v>
@@ -6698,13 +6863,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E75" t="n">
         <v>518809</v>
@@ -6781,13 +6946,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E76" t="n">
         <v>8751203</v>
@@ -6870,13 +7035,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E77" t="n">
         <v>4731398</v>
@@ -6959,13 +7124,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E78" t="n">
         <v>473375</v>
@@ -7042,13 +7207,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E79" t="n">
         <v>10490757</v>
@@ -7131,13 +7296,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D80" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E80" t="n">
         <v>5759600</v>
@@ -7220,13 +7385,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E81" t="n">
         <v>524626</v>
@@ -7303,13 +7468,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
         <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E82" t="n">
         <v>8609968</v>
@@ -7392,13 +7557,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E83" t="n">
         <v>4731399</v>
@@ -7481,13 +7646,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E84" t="n">
         <v>481611</v>
@@ -7560,13 +7725,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D85" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E85" t="n">
         <v>11426084</v>
@@ -7643,13 +7808,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E86" t="n">
         <v>7641921</v>
@@ -7726,13 +7891,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E87" t="n">
         <v>542365</v>
@@ -7809,13 +7974,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E88" t="n">
         <v>9650744</v>
@@ -7898,13 +8063,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E89" t="n">
         <v>4598264</v>
@@ -7987,13 +8152,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E90" t="n">
         <v>497371</v>
@@ -8070,13 +8235,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E91" t="n">
         <v>10610980</v>
@@ -8159,13 +8324,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E92" t="n">
         <v>7965326</v>
@@ -8248,13 +8413,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E93" t="n">
         <v>534312</v>
@@ -8331,13 +8496,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E94" t="n">
         <v>11381743</v>
@@ -8418,13 +8583,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E95" t="n">
         <v>7575757</v>
@@ -8507,13 +8672,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E96" t="n">
         <v>541934</v>
@@ -8590,13 +8755,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
         <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E97" t="n">
         <v>8315143</v>
@@ -8679,13 +8844,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
         <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E98" t="n">
         <v>7803071</v>
@@ -8768,13 +8933,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
         <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E99" t="n">
         <v>522780</v>
@@ -8851,13 +9016,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
         <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E100" t="n">
         <v>10468463</v>
@@ -8940,13 +9105,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E101" t="n">
         <v>5739929</v>
@@ -9029,13 +9194,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E102" t="n">
         <v>517038</v>
@@ -9112,26 +9277,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E103" t="n">
         <v>2000000</v>
       </c>
-      <c r="F103" t="s"/>
-      <c r="G103" t="s"/>
+      <c r="F103" t="s">
+        <v>65</v>
+      </c>
+      <c r="G103" t="s">
+        <v>65</v>
+      </c>
       <c r="H103" t="n">
         <v>84400000</v>
       </c>
       <c r="I103" t="n">
         <v>84400000</v>
       </c>
-      <c r="J103" t="s"/>
+      <c r="J103" t="s">
+        <v>65</v>
+      </c>
       <c r="K103" t="n">
         <v>4000000</v>
       </c>
@@ -9141,7 +9312,9 @@
       <c r="M103" t="n">
         <v>168800000</v>
       </c>
-      <c r="N103" t="s"/>
+      <c r="N103" t="s">
+        <v>65</v>
+      </c>
       <c r="O103" t="n">
         <v>231750180.03</v>
       </c>
@@ -9166,7 +9339,9 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
+      <c r="W103" t="s">
+        <v>65</v>
+      </c>
       <c r="X103" t="n">
         <v>77215</v>
       </c>
@@ -9191,26 +9366,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E104" t="n">
         <v>1000000</v>
       </c>
-      <c r="F104" t="s"/>
-      <c r="G104" t="s"/>
+      <c r="F104" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" t="s">
+        <v>65</v>
+      </c>
       <c r="H104" t="n">
         <v>29000000</v>
       </c>
       <c r="I104" t="n">
         <v>29000000</v>
       </c>
-      <c r="J104" t="s"/>
+      <c r="J104" t="s">
+        <v>65</v>
+      </c>
       <c r="K104" t="n">
         <v>2000000</v>
       </c>
@@ -9220,7 +9401,9 @@
       <c r="M104" t="n">
         <v>58000000</v>
       </c>
-      <c r="N104" t="s"/>
+      <c r="N104" t="s">
+        <v>65</v>
+      </c>
       <c r="O104" t="n">
         <v>83624817.23</v>
       </c>
@@ -9245,7 +9428,9 @@
       <c r="V104" t="n">
         <v>29</v>
       </c>
-      <c r="W104" t="s"/>
+      <c r="W104" t="s">
+        <v>65</v>
+      </c>
       <c r="X104" t="n">
         <v>0</v>
       </c>
@@ -9270,26 +9455,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E105" t="n">
         <v>500000</v>
       </c>
-      <c r="F105" t="s"/>
-      <c r="G105" t="s"/>
+      <c r="F105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" t="s">
+        <v>65</v>
+      </c>
       <c r="H105" t="n">
         <v>10750000</v>
       </c>
       <c r="I105" t="n">
         <v>10750000</v>
       </c>
-      <c r="J105" t="s"/>
+      <c r="J105" t="s">
+        <v>65</v>
+      </c>
       <c r="K105" t="n">
         <v>1000000</v>
       </c>
@@ -9299,7 +9490,9 @@
       <c r="M105" t="n">
         <v>21500000</v>
       </c>
-      <c r="N105" t="s"/>
+      <c r="N105" t="s">
+        <v>65</v>
+      </c>
       <c r="O105" t="n">
         <v>21539150.61</v>
       </c>
@@ -9324,7 +9517,9 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
-      <c r="W105" t="s"/>
+      <c r="W105" t="s">
+        <v>65</v>
+      </c>
       <c r="X105" t="n">
         <v>140</v>
       </c>
@@ -9349,26 +9544,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E106" t="n">
         <v>1000000</v>
       </c>
-      <c r="F106" t="s"/>
-      <c r="G106" t="s"/>
+      <c r="F106" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" t="s">
+        <v>65</v>
+      </c>
       <c r="H106" t="n">
         <v>9000000</v>
       </c>
       <c r="I106" t="n">
         <v>9000000</v>
       </c>
-      <c r="J106" t="s"/>
+      <c r="J106" t="s">
+        <v>65</v>
+      </c>
       <c r="K106" t="n">
         <v>2000000</v>
       </c>
@@ -9378,7 +9579,9 @@
       <c r="M106" t="n">
         <v>18000000</v>
       </c>
-      <c r="N106" t="s"/>
+      <c r="N106" t="s">
+        <v>65</v>
+      </c>
       <c r="O106" t="n">
         <v>25102366</v>
       </c>
@@ -9403,7 +9606,9 @@
       <c r="V106" t="n">
         <v>9</v>
       </c>
-      <c r="W106" t="s"/>
+      <c r="W106" t="s">
+        <v>65</v>
+      </c>
       <c r="X106" t="n">
         <v>0</v>
       </c>
@@ -9428,19 +9633,23 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E107" t="n">
         <v>1500000</v>
       </c>
-      <c r="F107" t="s"/>
-      <c r="G107" t="s"/>
+      <c r="F107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" t="s">
+        <v>65</v>
+      </c>
       <c r="H107" t="n">
         <v>92200000</v>
       </c>
@@ -9457,7 +9666,9 @@
       <c r="M107" t="n">
         <v>184400000</v>
       </c>
-      <c r="N107" t="s"/>
+      <c r="N107" t="s">
+        <v>65</v>
+      </c>
       <c r="O107" t="n">
         <v>651254256.75</v>
       </c>
@@ -9482,7 +9693,9 @@
       <c r="V107" t="n">
         <v>0</v>
       </c>
-      <c r="W107" t="s"/>
+      <c r="W107" t="s">
+        <v>65</v>
+      </c>
       <c r="X107" t="n">
         <v>264</v>
       </c>
@@ -9507,26 +9720,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
         <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E108" t="n">
         <v>2500000</v>
       </c>
-      <c r="F108" t="s"/>
-      <c r="G108" t="s"/>
+      <c r="F108" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" t="s">
+        <v>65</v>
+      </c>
       <c r="H108" t="n">
         <v>295200000</v>
       </c>
       <c r="I108" t="n">
         <v>295200000</v>
       </c>
-      <c r="J108" t="s"/>
+      <c r="J108" t="s">
+        <v>65</v>
+      </c>
       <c r="K108" t="n">
         <v>4000000</v>
       </c>
@@ -9590,26 +9809,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
         <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E109" t="n">
         <v>1000000</v>
       </c>
-      <c r="F109" t="s"/>
-      <c r="G109" t="s"/>
+      <c r="F109" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" t="s">
+        <v>65</v>
+      </c>
       <c r="H109" t="n">
         <v>26000000</v>
       </c>
       <c r="I109" t="n">
         <v>26000000</v>
       </c>
-      <c r="J109" t="s"/>
+      <c r="J109" t="s">
+        <v>65</v>
+      </c>
       <c r="K109" t="n">
         <v>2000000</v>
       </c>
@@ -9673,26 +9898,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
         <v>37</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E110" t="n">
         <v>500000</v>
       </c>
-      <c r="F110" t="s"/>
-      <c r="G110" t="s"/>
+      <c r="F110" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" t="s">
+        <v>65</v>
+      </c>
       <c r="H110" t="n">
         <v>12250000</v>
       </c>
       <c r="I110" t="n">
         <v>12250000</v>
       </c>
-      <c r="J110" t="s"/>
+      <c r="J110" t="s">
+        <v>65</v>
+      </c>
       <c r="K110" t="n">
         <v>1000000</v>
       </c>
@@ -9756,26 +9987,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
         <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E111" t="n">
         <v>1000000</v>
       </c>
-      <c r="F111" t="s"/>
-      <c r="G111" t="s"/>
+      <c r="F111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>65</v>
+      </c>
       <c r="H111" t="n">
         <v>8000000</v>
       </c>
       <c r="I111" t="n">
         <v>8000000</v>
       </c>
-      <c r="J111" t="s"/>
+      <c r="J111" t="s">
+        <v>65</v>
+      </c>
       <c r="K111" t="n">
         <v>2000000</v>
       </c>
@@ -9839,26 +10076,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C112" t="s">
         <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E112" t="n">
         <v>1000000</v>
       </c>
-      <c r="F112" t="s"/>
-      <c r="G112" t="s"/>
+      <c r="F112" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" t="s">
+        <v>65</v>
+      </c>
       <c r="H112" t="n">
         <v>113850000</v>
       </c>
       <c r="I112" t="n">
         <v>113850000</v>
       </c>
-      <c r="J112" t="s"/>
+      <c r="J112" t="s">
+        <v>65</v>
+      </c>
       <c r="K112" t="n">
         <v>3000000</v>
       </c>
@@ -9922,26 +10165,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E113" t="n">
         <v>2000000</v>
       </c>
-      <c r="F113" t="s"/>
-      <c r="G113" t="s"/>
+      <c r="F113" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" t="s">
+        <v>65</v>
+      </c>
       <c r="H113" t="n">
         <v>212300000</v>
       </c>
       <c r="I113" t="n">
         <v>212300000</v>
       </c>
-      <c r="J113" t="s"/>
+      <c r="J113" t="s">
+        <v>65</v>
+      </c>
       <c r="K113" t="n">
         <v>4000000</v>
       </c>
@@ -10005,26 +10254,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D114" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E114" t="n">
         <v>1000000</v>
       </c>
-      <c r="F114" t="s"/>
-      <c r="G114" t="s"/>
+      <c r="F114" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" t="s">
+        <v>65</v>
+      </c>
       <c r="H114" t="n">
         <v>28000000</v>
       </c>
       <c r="I114" t="n">
         <v>28000000</v>
       </c>
-      <c r="J114" t="s"/>
+      <c r="J114" t="s">
+        <v>65</v>
+      </c>
       <c r="K114" t="n">
         <v>2000000</v>
       </c>
@@ -10088,26 +10343,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E115" t="n">
         <v>500000</v>
       </c>
-      <c r="F115" t="s"/>
-      <c r="G115" t="s"/>
+      <c r="F115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
       <c r="H115" t="n">
         <v>6050000</v>
       </c>
       <c r="I115" t="n">
         <v>6050000</v>
       </c>
-      <c r="J115" t="s"/>
+      <c r="J115" t="s">
+        <v>65</v>
+      </c>
       <c r="K115" t="n">
         <v>1000000</v>
       </c>
@@ -10171,26 +10432,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E116" t="n">
         <v>1000000</v>
       </c>
-      <c r="F116" t="s"/>
-      <c r="G116" t="s"/>
+      <c r="F116" t="s">
+        <v>65</v>
+      </c>
+      <c r="G116" t="s">
+        <v>65</v>
+      </c>
       <c r="H116" t="n">
         <v>9000000</v>
       </c>
       <c r="I116" t="n">
         <v>9000000</v>
       </c>
-      <c r="J116" t="s"/>
+      <c r="J116" t="s">
+        <v>65</v>
+      </c>
       <c r="K116" t="n">
         <v>2000000</v>
       </c>
@@ -10254,26 +10521,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D117" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E117" t="n">
         <v>1500000</v>
       </c>
-      <c r="F117" t="s"/>
-      <c r="G117" t="s"/>
+      <c r="F117" t="s">
+        <v>65</v>
+      </c>
+      <c r="G117" t="s">
+        <v>65</v>
+      </c>
       <c r="H117" t="n">
         <v>111000000</v>
       </c>
       <c r="I117" t="n">
         <v>111000000</v>
       </c>
-      <c r="J117" t="s"/>
+      <c r="J117" t="s">
+        <v>65</v>
+      </c>
       <c r="K117" t="n">
         <v>3000000</v>
       </c>
@@ -10337,26 +10610,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E118" t="n">
         <v>2000000</v>
       </c>
-      <c r="F118" t="s"/>
-      <c r="G118" t="s"/>
+      <c r="F118" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" t="s">
+        <v>65</v>
+      </c>
       <c r="H118" t="n">
         <v>139650000</v>
       </c>
       <c r="I118" t="n">
         <v>139650000</v>
       </c>
-      <c r="J118" t="s"/>
+      <c r="J118" t="s">
+        <v>65</v>
+      </c>
       <c r="K118" t="n">
         <v>4000000</v>
       </c>
@@ -10366,7 +10645,9 @@
       <c r="M118" t="n">
         <v>279300000</v>
       </c>
-      <c r="N118" t="s"/>
+      <c r="N118" t="s">
+        <v>65</v>
+      </c>
       <c r="O118" t="n">
         <v>322802264.66</v>
       </c>
@@ -10391,7 +10672,9 @@
       <c r="V118" t="n">
         <v>0</v>
       </c>
-      <c r="W118" t="s"/>
+      <c r="W118" t="s">
+        <v>65</v>
+      </c>
       <c r="X118" t="n">
         <v>77355</v>
       </c>
@@ -10416,26 +10699,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E119" t="n">
         <v>1000000</v>
       </c>
-      <c r="F119" t="s"/>
-      <c r="G119" t="s"/>
+      <c r="F119" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
       <c r="H119" t="n">
         <v>29000000</v>
       </c>
       <c r="I119" t="n">
         <v>29000000</v>
       </c>
-      <c r="J119" t="s"/>
+      <c r="J119" t="s">
+        <v>65</v>
+      </c>
       <c r="K119" t="n">
         <v>2000000</v>
       </c>
@@ -10445,7 +10734,9 @@
       <c r="M119" t="n">
         <v>58000000</v>
       </c>
-      <c r="N119" t="s"/>
+      <c r="N119" t="s">
+        <v>65</v>
+      </c>
       <c r="O119" t="n">
         <v>83624817.22999999</v>
       </c>
@@ -10470,7 +10761,9 @@
       <c r="V119" t="n">
         <v>29</v>
       </c>
-      <c r="W119" t="s"/>
+      <c r="W119" t="s">
+        <v>65</v>
+      </c>
       <c r="X119" t="n">
         <v>0</v>
       </c>
@@ -10495,26 +10788,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E120" t="n">
         <v>500000</v>
       </c>
-      <c r="F120" t="s"/>
-      <c r="G120" t="s"/>
+      <c r="F120" t="s">
+        <v>65</v>
+      </c>
+      <c r="G120" t="s">
+        <v>65</v>
+      </c>
       <c r="H120" t="n">
         <v>6950000</v>
       </c>
       <c r="I120" t="n">
         <v>6950000</v>
       </c>
-      <c r="J120" t="s"/>
+      <c r="J120" t="s">
+        <v>65</v>
+      </c>
       <c r="K120" t="n">
         <v>1000000</v>
       </c>
@@ -10524,7 +10823,9 @@
       <c r="M120" t="n">
         <v>13900000</v>
       </c>
-      <c r="N120" t="s"/>
+      <c r="N120" t="s">
+        <v>65</v>
+      </c>
       <c r="O120" t="n">
         <v>21539150.61</v>
       </c>
@@ -10549,7 +10850,9 @@
       <c r="V120" t="n">
         <v>0</v>
       </c>
-      <c r="W120" t="s"/>
+      <c r="W120" t="s">
+        <v>65</v>
+      </c>
       <c r="X120" t="n">
         <v>150</v>
       </c>
@@ -10574,26 +10877,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E121" t="n">
         <v>1000000</v>
       </c>
-      <c r="F121" t="s"/>
-      <c r="G121" t="s"/>
+      <c r="F121" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121" t="s">
+        <v>65</v>
+      </c>
       <c r="H121" t="n">
         <v>9000000</v>
       </c>
       <c r="I121" t="n">
         <v>9000000</v>
       </c>
-      <c r="J121" t="s"/>
+      <c r="J121" t="s">
+        <v>65</v>
+      </c>
       <c r="K121" t="n">
         <v>2000000</v>
       </c>
@@ -10603,7 +10912,9 @@
       <c r="M121" t="n">
         <v>18000000</v>
       </c>
-      <c r="N121" t="s"/>
+      <c r="N121" t="s">
+        <v>65</v>
+      </c>
       <c r="O121" t="n">
         <v>25102366</v>
       </c>
@@ -10628,7 +10939,9 @@
       <c r="V121" t="n">
         <v>9</v>
       </c>
-      <c r="W121" t="s"/>
+      <c r="W121" t="s">
+        <v>65</v>
+      </c>
       <c r="X121" t="n">
         <v>0</v>
       </c>
@@ -10653,26 +10966,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E122" t="n">
         <v>1500000</v>
       </c>
-      <c r="F122" t="s"/>
-      <c r="G122" t="s"/>
+      <c r="F122" t="s">
+        <v>65</v>
+      </c>
+      <c r="G122" t="s">
+        <v>65</v>
+      </c>
       <c r="H122" t="n">
         <v>108550000</v>
       </c>
       <c r="I122" t="n">
         <v>108550000</v>
       </c>
-      <c r="J122" t="s"/>
+      <c r="J122" t="s">
+        <v>65</v>
+      </c>
       <c r="K122" t="n">
         <v>3000000</v>
       </c>
@@ -10682,7 +11001,9 @@
       <c r="M122" t="n">
         <v>217100000</v>
       </c>
-      <c r="N122" t="s"/>
+      <c r="N122" t="s">
+        <v>65</v>
+      </c>
       <c r="O122" t="n">
         <v>749432256</v>
       </c>
@@ -10707,7 +11028,9 @@
       <c r="V122" t="n">
         <v>0</v>
       </c>
-      <c r="W122" t="s"/>
+      <c r="W122" t="s">
+        <v>65</v>
+      </c>
       <c r="X122" t="n">
         <v>260</v>
       </c>
@@ -10732,26 +11055,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E123" t="n">
         <v>2000000</v>
       </c>
-      <c r="F123" t="s"/>
-      <c r="G123" t="s"/>
+      <c r="F123" t="s">
+        <v>65</v>
+      </c>
+      <c r="G123" t="s">
+        <v>65</v>
+      </c>
       <c r="H123" t="n">
         <v>47450000</v>
       </c>
       <c r="I123" t="n">
         <v>47450000</v>
       </c>
-      <c r="J123" t="s"/>
+      <c r="J123" t="s">
+        <v>65</v>
+      </c>
       <c r="K123" t="n">
         <v>4000000</v>
       </c>
@@ -10761,7 +11090,9 @@
       <c r="M123" t="n">
         <v>94900000</v>
       </c>
-      <c r="N123" t="s"/>
+      <c r="N123" t="s">
+        <v>65</v>
+      </c>
       <c r="O123" t="n">
         <v>222980816.82</v>
       </c>
@@ -10786,7 +11117,9 @@
       <c r="V123" t="n">
         <v>0</v>
       </c>
-      <c r="W123" t="s"/>
+      <c r="W123" t="s">
+        <v>65</v>
+      </c>
       <c r="X123" t="n">
         <v>60212</v>
       </c>
@@ -10811,26 +11144,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E124" t="n">
         <v>1000000</v>
       </c>
-      <c r="F124" t="s"/>
-      <c r="G124" t="s"/>
+      <c r="F124" t="s">
+        <v>65</v>
+      </c>
+      <c r="G124" t="s">
+        <v>65</v>
+      </c>
       <c r="H124" t="n">
         <v>30000000</v>
       </c>
       <c r="I124" t="n">
         <v>30000000</v>
       </c>
-      <c r="J124" t="s"/>
+      <c r="J124" t="s">
+        <v>65</v>
+      </c>
       <c r="K124" t="n">
         <v>2000000</v>
       </c>
@@ -10840,7 +11179,9 @@
       <c r="M124" t="n">
         <v>60000000</v>
       </c>
-      <c r="N124" t="s"/>
+      <c r="N124" t="s">
+        <v>65</v>
+      </c>
       <c r="O124" t="n">
         <v>88422424.87</v>
       </c>
@@ -10865,7 +11206,9 @@
       <c r="V124" t="n">
         <v>30</v>
       </c>
-      <c r="W124" t="s"/>
+      <c r="W124" t="s">
+        <v>65</v>
+      </c>
       <c r="X124" t="n">
         <v>0</v>
       </c>
@@ -10890,26 +11233,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E125" t="n">
         <v>500000</v>
       </c>
-      <c r="F125" t="s"/>
-      <c r="G125" t="s"/>
+      <c r="F125" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" t="s">
+        <v>65</v>
+      </c>
       <c r="H125" t="n">
         <v>7300000</v>
       </c>
       <c r="I125" t="n">
         <v>7300000</v>
       </c>
-      <c r="J125" t="s"/>
+      <c r="J125" t="s">
+        <v>65</v>
+      </c>
       <c r="K125" t="n">
         <v>1000000</v>
       </c>
@@ -10919,7 +11268,9 @@
       <c r="M125" t="n">
         <v>14600000</v>
       </c>
-      <c r="N125" t="s"/>
+      <c r="N125" t="s">
+        <v>65</v>
+      </c>
       <c r="O125" t="n">
         <v>14042467.11</v>
       </c>
@@ -10944,7 +11295,9 @@
       <c r="V125" t="n">
         <v>0</v>
       </c>
-      <c r="W125" t="s"/>
+      <c r="W125" t="s">
+        <v>65</v>
+      </c>
       <c r="X125" t="n">
         <v>103</v>
       </c>
@@ -10969,26 +11322,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
         <v>36</v>
       </c>
       <c r="D126" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E126" t="n">
         <v>1000000</v>
       </c>
-      <c r="F126" t="s"/>
-      <c r="G126" t="s"/>
+      <c r="F126" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
       <c r="H126" t="n">
         <v>9000000</v>
       </c>
       <c r="I126" t="n">
         <v>9000000</v>
       </c>
-      <c r="J126" t="s"/>
+      <c r="J126" t="s">
+        <v>65</v>
+      </c>
       <c r="K126" t="n">
         <v>2000000</v>
       </c>
@@ -10998,7 +11357,9 @@
       <c r="M126" t="n">
         <v>18000000</v>
       </c>
-      <c r="N126" t="s"/>
+      <c r="N126" t="s">
+        <v>65</v>
+      </c>
       <c r="O126" t="n">
         <v>6475475.2</v>
       </c>
@@ -11023,7 +11384,9 @@
       <c r="V126" t="n">
         <v>9</v>
       </c>
-      <c r="W126" t="s"/>
+      <c r="W126" t="s">
+        <v>65</v>
+      </c>
       <c r="X126" t="n">
         <v>0</v>
       </c>
@@ -11048,19 +11411,23 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C127" t="s">
         <v>36</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E127" t="n">
         <v>1500000</v>
       </c>
-      <c r="F127" t="s"/>
-      <c r="G127" t="s"/>
+      <c r="F127" t="s">
+        <v>65</v>
+      </c>
+      <c r="G127" t="s">
+        <v>65</v>
+      </c>
       <c r="H127" t="n">
         <v>68350000</v>
       </c>
@@ -11077,7 +11444,9 @@
       <c r="M127" t="n">
         <v>136700000</v>
       </c>
-      <c r="N127" t="s"/>
+      <c r="N127" t="s">
+        <v>65</v>
+      </c>
       <c r="O127" t="n">
         <v>346262310.92</v>
       </c>
@@ -11102,7 +11471,9 @@
       <c r="V127" t="n">
         <v>12</v>
       </c>
-      <c r="W127" t="s"/>
+      <c r="W127" t="s">
+        <v>65</v>
+      </c>
       <c r="X127" t="n">
         <v>166</v>
       </c>
@@ -11127,26 +11498,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D128" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E128" t="n">
         <v>2000000</v>
       </c>
-      <c r="F128" t="s"/>
-      <c r="G128" t="s"/>
+      <c r="F128" t="s">
+        <v>65</v>
+      </c>
+      <c r="G128" t="s">
+        <v>65</v>
+      </c>
       <c r="H128" t="n">
         <v>341050000</v>
       </c>
       <c r="I128" t="n">
         <v>341050000</v>
       </c>
-      <c r="J128" t="s"/>
+      <c r="J128" t="s">
+        <v>65</v>
+      </c>
       <c r="K128" t="n">
         <v>4000000</v>
       </c>
@@ -11210,26 +11587,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D129" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E129" t="n">
         <v>1000000</v>
       </c>
-      <c r="F129" t="s"/>
-      <c r="G129" t="s"/>
+      <c r="F129" t="s">
+        <v>65</v>
+      </c>
+      <c r="G129" t="s">
+        <v>65</v>
+      </c>
       <c r="H129" t="n">
         <v>28000000</v>
       </c>
       <c r="I129" t="n">
         <v>28000000</v>
       </c>
-      <c r="J129" t="s"/>
+      <c r="J129" t="s">
+        <v>65</v>
+      </c>
       <c r="K129" t="n">
         <v>2000000</v>
       </c>
@@ -11293,26 +11676,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D130" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E130" t="n">
         <v>500000</v>
       </c>
-      <c r="F130" t="s"/>
-      <c r="G130" t="s"/>
+      <c r="F130" t="s">
+        <v>65</v>
+      </c>
+      <c r="G130" t="s">
+        <v>65</v>
+      </c>
       <c r="H130" t="n">
         <v>13200000</v>
       </c>
       <c r="I130" t="n">
         <v>13200000</v>
       </c>
-      <c r="J130" t="s"/>
+      <c r="J130" t="s">
+        <v>65</v>
+      </c>
       <c r="K130" t="n">
         <v>1000000</v>
       </c>
@@ -11376,26 +11765,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D131" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E131" t="n">
         <v>1000000</v>
       </c>
-      <c r="F131" t="s"/>
-      <c r="G131" t="s"/>
+      <c r="F131" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131" t="s">
+        <v>65</v>
+      </c>
       <c r="H131" t="n">
         <v>8000000</v>
       </c>
       <c r="I131" t="n">
         <v>8000000</v>
       </c>
-      <c r="J131" t="s"/>
+      <c r="J131" t="s">
+        <v>65</v>
+      </c>
       <c r="K131" t="n">
         <v>2000000</v>
       </c>
@@ -11459,26 +11854,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E132" t="n">
         <v>1500000</v>
       </c>
-      <c r="F132" t="s"/>
-      <c r="G132" t="s"/>
+      <c r="F132" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" t="s">
+        <v>65</v>
+      </c>
       <c r="H132" t="n">
         <v>88250000</v>
       </c>
       <c r="I132" t="n">
         <v>88250000</v>
       </c>
-      <c r="J132" t="s"/>
+      <c r="J132" t="s">
+        <v>65</v>
+      </c>
       <c r="K132" t="n">
         <v>3000000</v>
       </c>
@@ -11542,26 +11943,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E133" t="n">
         <v>2000000</v>
       </c>
-      <c r="F133" t="s"/>
-      <c r="G133" t="s"/>
+      <c r="F133" t="s">
+        <v>65</v>
+      </c>
+      <c r="G133" t="s">
+        <v>65</v>
+      </c>
       <c r="H133" t="n">
         <v>65250000</v>
       </c>
       <c r="I133" t="n">
         <v>65250000</v>
       </c>
-      <c r="J133" t="s"/>
+      <c r="J133" t="s">
+        <v>65</v>
+      </c>
       <c r="K133" t="n">
         <v>4000000</v>
       </c>
@@ -11571,7 +11978,9 @@
       <c r="M133" t="n">
         <v>130500000</v>
       </c>
-      <c r="N133" t="s"/>
+      <c r="N133" t="s">
+        <v>65</v>
+      </c>
       <c r="O133" t="n">
         <v>128575078.3</v>
       </c>
@@ -11596,7 +12005,9 @@
       <c r="V133" t="n">
         <v>0</v>
       </c>
-      <c r="W133" t="s"/>
+      <c r="W133" t="s">
+        <v>65</v>
+      </c>
       <c r="X133" t="n">
         <v>76593</v>
       </c>
@@ -11621,26 +12032,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
         <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E134" t="n">
         <v>1000000</v>
       </c>
-      <c r="F134" t="s"/>
-      <c r="G134" t="s"/>
+      <c r="F134" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" t="s">
+        <v>65</v>
+      </c>
       <c r="H134" t="n">
         <v>29000000</v>
       </c>
       <c r="I134" t="n">
         <v>29000000</v>
       </c>
-      <c r="J134" t="s"/>
+      <c r="J134" t="s">
+        <v>65</v>
+      </c>
       <c r="K134" t="n">
         <v>2000000</v>
       </c>
@@ -11650,7 +12067,9 @@
       <c r="M134" t="n">
         <v>58000000</v>
       </c>
-      <c r="N134" t="s"/>
+      <c r="N134" t="s">
+        <v>65</v>
+      </c>
       <c r="O134" t="n">
         <v>77564196.22</v>
       </c>
@@ -11675,7 +12094,9 @@
       <c r="V134" t="n">
         <v>29</v>
       </c>
-      <c r="W134" t="s"/>
+      <c r="W134" t="s">
+        <v>65</v>
+      </c>
       <c r="X134" t="n">
         <v>0</v>
       </c>
@@ -11700,26 +12121,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E135" t="n">
         <v>500000</v>
       </c>
-      <c r="F135" t="s"/>
-      <c r="G135" t="s"/>
+      <c r="F135" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" t="s">
+        <v>65</v>
+      </c>
       <c r="H135" t="n">
         <v>10000000</v>
       </c>
       <c r="I135" t="n">
         <v>10000000</v>
       </c>
-      <c r="J135" t="s"/>
+      <c r="J135" t="s">
+        <v>65</v>
+      </c>
       <c r="K135" t="n">
         <v>1000000</v>
       </c>
@@ -11729,7 +12156,9 @@
       <c r="M135" t="n">
         <v>20000000</v>
       </c>
-      <c r="N135" t="s"/>
+      <c r="N135" t="s">
+        <v>65</v>
+      </c>
       <c r="O135" t="n">
         <v>21539150.61</v>
       </c>
@@ -11754,7 +12183,9 @@
       <c r="V135" t="n">
         <v>0</v>
       </c>
-      <c r="W135" t="s"/>
+      <c r="W135" t="s">
+        <v>65</v>
+      </c>
       <c r="X135" t="n">
         <v>140</v>
       </c>
@@ -11779,26 +12210,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E136" t="n">
         <v>1000000</v>
       </c>
-      <c r="F136" t="s"/>
-      <c r="G136" t="s"/>
+      <c r="F136" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136" t="s">
+        <v>65</v>
+      </c>
       <c r="H136" t="n">
         <v>19700000</v>
       </c>
       <c r="I136" t="n">
         <v>19700000</v>
       </c>
-      <c r="J136" t="s"/>
+      <c r="J136" t="s">
+        <v>65</v>
+      </c>
       <c r="K136" t="n">
         <v>2000000</v>
       </c>
@@ -11808,7 +12245,9 @@
       <c r="M136" t="n">
         <v>39400000</v>
       </c>
-      <c r="N136" t="s"/>
+      <c r="N136" t="s">
+        <v>65</v>
+      </c>
       <c r="O136" t="n">
         <v>25102366</v>
       </c>
@@ -11833,7 +12272,9 @@
       <c r="V136" t="n">
         <v>9</v>
       </c>
-      <c r="W136" t="s"/>
+      <c r="W136" t="s">
+        <v>65</v>
+      </c>
       <c r="X136" t="n">
         <v>0</v>
       </c>
@@ -11858,19 +12299,23 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
       </c>
       <c r="D137" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E137" t="n">
         <v>1500000</v>
       </c>
-      <c r="F137" t="s"/>
-      <c r="G137" t="s"/>
+      <c r="F137" t="s">
+        <v>65</v>
+      </c>
+      <c r="G137" t="s">
+        <v>65</v>
+      </c>
       <c r="H137" t="n">
         <v>43500000</v>
       </c>
@@ -11887,7 +12332,9 @@
       <c r="M137" t="n">
         <v>87000000</v>
       </c>
-      <c r="N137" t="s"/>
+      <c r="N137" t="s">
+        <v>65</v>
+      </c>
       <c r="O137" t="n">
         <v>346262310.92</v>
       </c>
@@ -11912,7 +12359,9 @@
       <c r="V137" t="n">
         <v>0</v>
       </c>
-      <c r="W137" t="s"/>
+      <c r="W137" t="s">
+        <v>65</v>
+      </c>
       <c r="X137" t="n">
         <v>261</v>
       </c>
@@ -11937,26 +12386,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C138" t="s">
         <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E138" t="n">
         <v>2000000</v>
       </c>
-      <c r="F138" t="s"/>
-      <c r="G138" t="s"/>
+      <c r="F138" t="s">
+        <v>65</v>
+      </c>
+      <c r="G138" t="s">
+        <v>65</v>
+      </c>
       <c r="H138" t="n">
         <v>76800000</v>
       </c>
       <c r="I138" t="n">
         <v>76800000</v>
       </c>
-      <c r="J138" t="s"/>
+      <c r="J138" t="s">
+        <v>65</v>
+      </c>
       <c r="K138" t="n">
         <v>4000000</v>
       </c>
@@ -11966,7 +12421,9 @@
       <c r="M138" t="n">
         <v>153600000</v>
       </c>
-      <c r="N138" t="s"/>
+      <c r="N138" t="s">
+        <v>65</v>
+      </c>
       <c r="O138" t="n">
         <v>150506505.58</v>
       </c>
@@ -11991,7 +12448,9 @@
       <c r="V138" t="n">
         <v>0</v>
       </c>
-      <c r="W138" t="s"/>
+      <c r="W138" t="s">
+        <v>65</v>
+      </c>
       <c r="X138" t="n">
         <v>76222</v>
       </c>
@@ -12016,26 +12475,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C139" t="s">
         <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E139" t="n">
         <v>1000000</v>
       </c>
-      <c r="F139" t="s"/>
-      <c r="G139" t="s"/>
+      <c r="F139" t="s">
+        <v>65</v>
+      </c>
+      <c r="G139" t="s">
+        <v>65</v>
+      </c>
       <c r="H139" t="n">
         <v>29000000</v>
       </c>
       <c r="I139" t="n">
         <v>29000000</v>
       </c>
-      <c r="J139" t="s"/>
+      <c r="J139" t="s">
+        <v>65</v>
+      </c>
       <c r="K139" t="n">
         <v>2000000</v>
       </c>
@@ -12045,7 +12510,9 @@
       <c r="M139" t="n">
         <v>58000000</v>
       </c>
-      <c r="N139" t="s"/>
+      <c r="N139" t="s">
+        <v>65</v>
+      </c>
       <c r="O139" t="n">
         <v>88422424.87</v>
       </c>
@@ -12070,7 +12537,9 @@
       <c r="V139" t="n">
         <v>30</v>
       </c>
-      <c r="W139" t="s"/>
+      <c r="W139" t="s">
+        <v>65</v>
+      </c>
       <c r="X139" t="n">
         <v>0</v>
       </c>
@@ -12095,26 +12564,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C140" t="s">
         <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E140" t="n">
         <v>500000</v>
       </c>
-      <c r="F140" t="s"/>
-      <c r="G140" t="s"/>
+      <c r="F140" t="s">
+        <v>65</v>
+      </c>
+      <c r="G140" t="s">
+        <v>65</v>
+      </c>
       <c r="H140" t="n">
         <v>11000000</v>
       </c>
       <c r="I140" t="n">
         <v>11000000</v>
       </c>
-      <c r="J140" t="s"/>
+      <c r="J140" t="s">
+        <v>65</v>
+      </c>
       <c r="K140" t="n">
         <v>1000000</v>
       </c>
@@ -12124,7 +12599,9 @@
       <c r="M140" t="n">
         <v>22000000</v>
       </c>
-      <c r="N140" t="s"/>
+      <c r="N140" t="s">
+        <v>65</v>
+      </c>
       <c r="O140" t="n">
         <v>14280575.65</v>
       </c>
@@ -12149,7 +12626,9 @@
       <c r="V140" t="n">
         <v>0</v>
       </c>
-      <c r="W140" t="s"/>
+      <c r="W140" t="s">
+        <v>65</v>
+      </c>
       <c r="X140" t="n">
         <v>130</v>
       </c>
@@ -12174,26 +12653,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C141" t="s">
         <v>34</v>
       </c>
       <c r="D141" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E141" t="n">
         <v>1000000</v>
       </c>
-      <c r="F141" t="s"/>
-      <c r="G141" t="s"/>
+      <c r="F141" t="s">
+        <v>65</v>
+      </c>
+      <c r="G141" t="s">
+        <v>65</v>
+      </c>
       <c r="H141" t="n">
         <v>13050000</v>
       </c>
       <c r="I141" t="n">
         <v>13050000</v>
       </c>
-      <c r="J141" t="s"/>
+      <c r="J141" t="s">
+        <v>65</v>
+      </c>
       <c r="K141" t="n">
         <v>2000000</v>
       </c>
@@ -12203,7 +12688,9 @@
       <c r="M141" t="n">
         <v>26100000</v>
       </c>
-      <c r="N141" t="s"/>
+      <c r="N141" t="s">
+        <v>65</v>
+      </c>
       <c r="O141" t="n">
         <v>25102366</v>
       </c>
@@ -12228,7 +12715,9 @@
       <c r="V141" t="n">
         <v>9</v>
       </c>
-      <c r="W141" t="s"/>
+      <c r="W141" t="s">
+        <v>65</v>
+      </c>
       <c r="X141" t="n">
         <v>0</v>
       </c>
@@ -12253,19 +12742,23 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C142" t="s">
         <v>34</v>
       </c>
       <c r="D142" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E142" t="n">
         <v>1500000</v>
       </c>
-      <c r="F142" t="s"/>
-      <c r="G142" t="s"/>
+      <c r="F142" t="s">
+        <v>65</v>
+      </c>
+      <c r="G142" t="s">
+        <v>65</v>
+      </c>
       <c r="H142" t="n">
         <v>81950000</v>
       </c>
@@ -12282,7 +12775,9 @@
       <c r="M142" t="n">
         <v>163900000</v>
       </c>
-      <c r="N142" t="s"/>
+      <c r="N142" t="s">
+        <v>65</v>
+      </c>
       <c r="O142" t="n">
         <v>346262310.92</v>
       </c>
@@ -12307,7 +12802,9 @@
       <c r="V142" t="n">
         <v>12</v>
       </c>
-      <c r="W142" t="s"/>
+      <c r="W142" t="s">
+        <v>65</v>
+      </c>
       <c r="X142" t="n">
         <v>214</v>
       </c>
@@ -12332,26 +12829,32 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C143" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E143" t="n">
         <v>2000000</v>
       </c>
-      <c r="F143" t="s"/>
-      <c r="G143" t="s"/>
+      <c r="F143" t="s">
+        <v>65</v>
+      </c>
+      <c r="G143" t="s">
+        <v>65</v>
+      </c>
       <c r="H143" t="n">
         <v>384150000</v>
       </c>
       <c r="I143" t="n">
         <v>384150000</v>
       </c>
-      <c r="J143" t="s"/>
+      <c r="J143" t="s">
+        <v>65</v>
+      </c>
       <c r="K143" t="n">
         <v>4000000</v>
       </c>
@@ -12415,26 +12918,32 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D144" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E144" t="n">
         <v>1000000</v>
       </c>
-      <c r="F144" t="s"/>
-      <c r="G144" t="s"/>
+      <c r="F144" t="s">
+        <v>65</v>
+      </c>
+      <c r="G144" t="s">
+        <v>65</v>
+      </c>
       <c r="H144" t="n">
         <v>27000000</v>
       </c>
       <c r="I144" t="n">
         <v>27000000</v>
       </c>
-      <c r="J144" t="s"/>
+      <c r="J144" t="s">
+        <v>65</v>
+      </c>
       <c r="K144" t="n">
         <v>2000000</v>
       </c>
@@ -12498,26 +13007,32 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C145" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D145" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E145" t="n">
         <v>500000</v>
       </c>
-      <c r="F145" t="s"/>
-      <c r="G145" t="s"/>
+      <c r="F145" t="s">
+        <v>65</v>
+      </c>
+      <c r="G145" t="s">
+        <v>65</v>
+      </c>
       <c r="H145" t="n">
         <v>11600000</v>
       </c>
       <c r="I145" t="n">
         <v>11600000</v>
       </c>
-      <c r="J145" t="s"/>
+      <c r="J145" t="s">
+        <v>65</v>
+      </c>
       <c r="K145" t="n">
         <v>1000000</v>
       </c>
@@ -12581,26 +13096,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D146" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E146" t="n">
         <v>1000000</v>
       </c>
-      <c r="F146" t="s"/>
-      <c r="G146" t="s"/>
+      <c r="F146" t="s">
+        <v>65</v>
+      </c>
+      <c r="G146" t="s">
+        <v>65</v>
+      </c>
       <c r="H146" t="n">
         <v>8000000</v>
       </c>
       <c r="I146" t="n">
         <v>8000000</v>
       </c>
-      <c r="J146" t="s"/>
+      <c r="J146" t="s">
+        <v>65</v>
+      </c>
       <c r="K146" t="n">
         <v>2000000</v>
       </c>
@@ -12664,26 +13185,32 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D147" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E147" t="n">
         <v>1500000</v>
       </c>
-      <c r="F147" t="s"/>
-      <c r="G147" t="s"/>
+      <c r="F147" t="s">
+        <v>65</v>
+      </c>
+      <c r="G147" t="s">
+        <v>65</v>
+      </c>
       <c r="H147" t="n">
         <v>93250000</v>
       </c>
       <c r="I147" t="n">
         <v>93250000</v>
       </c>
-      <c r="J147" t="s"/>
+      <c r="J147" t="s">
+        <v>65</v>
+      </c>
       <c r="K147" t="n">
         <v>3000000</v>
       </c>
@@ -12747,13 +13274,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E148" t="n">
         <v>1941895.15</v>
@@ -12779,7 +13306,9 @@
       <c r="L148" t="n">
         <v>51146453.95</v>
       </c>
-      <c r="M148" t="s"/>
+      <c r="M148" t="s">
+        <v>72</v>
+      </c>
       <c r="N148" t="n">
         <v>0</v>
       </c>
@@ -12807,7 +13336,9 @@
       <c r="V148" t="n">
         <v>10</v>
       </c>
-      <c r="W148" t="s"/>
+      <c r="W148" t="s">
+        <v>73</v>
+      </c>
       <c r="X148" t="n">
         <v>75</v>
       </c>
@@ -12832,13 +13363,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E149" t="n">
         <v>1941895.15</v>
@@ -12864,7 +13395,9 @@
       <c r="L149" t="n">
         <v>47621912.91</v>
       </c>
-      <c r="M149" t="s"/>
+      <c r="M149" t="s">
+        <v>72</v>
+      </c>
       <c r="N149" t="n">
         <v>0</v>
       </c>
@@ -12892,7 +13425,9 @@
       <c r="V149" t="n">
         <v>10</v>
       </c>
-      <c r="W149" t="s"/>
+      <c r="W149" t="s">
+        <v>73</v>
+      </c>
       <c r="X149" t="n">
         <v>74</v>
       </c>
@@ -12917,13 +13452,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C150" t="s">
         <v>37</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E150" t="n">
         <v>1941895.15</v>
@@ -12949,7 +13484,9 @@
       <c r="L150" t="n">
         <v>47186200.06</v>
       </c>
-      <c r="M150" t="s"/>
+      <c r="M150" t="s">
+        <v>72</v>
+      </c>
       <c r="N150" t="n">
         <v>0</v>
       </c>
@@ -12977,7 +13514,9 @@
       <c r="V150" t="n">
         <v>9</v>
       </c>
-      <c r="W150" t="s"/>
+      <c r="W150" t="s">
+        <v>73</v>
+      </c>
       <c r="X150" t="n">
         <v>54</v>
       </c>
@@ -13002,13 +13541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E151" t="n">
         <v>1941895.15</v>
@@ -13034,7 +13573,9 @@
       <c r="L151" t="n">
         <v>53576822.39</v>
       </c>
-      <c r="M151" t="s"/>
+      <c r="M151" t="s">
+        <v>72</v>
+      </c>
       <c r="N151" t="n">
         <v>0</v>
       </c>
@@ -13062,7 +13603,9 @@
       <c r="V151" t="n">
         <v>10</v>
       </c>
-      <c r="W151" t="s"/>
+      <c r="W151" t="s">
+        <v>73</v>
+      </c>
       <c r="X151" t="n">
         <v>70</v>
       </c>
@@ -13087,13 +13630,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E152" t="n">
         <v>1941895.15</v>
@@ -13119,7 +13662,9 @@
       <c r="L152" t="n">
         <v>54345021.05</v>
       </c>
-      <c r="M152" t="s"/>
+      <c r="M152" t="s">
+        <v>72</v>
+      </c>
       <c r="N152" t="n">
         <v>0</v>
       </c>
@@ -13147,7 +13692,9 @@
       <c r="V152" t="n">
         <v>10</v>
       </c>
-      <c r="W152" t="s"/>
+      <c r="W152" t="s">
+        <v>73</v>
+      </c>
       <c r="X152" t="n">
         <v>74</v>
       </c>
@@ -13172,13 +13719,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E153" t="n">
         <v>1941895.15</v>
@@ -13204,7 +13751,9 @@
       <c r="L153" t="n">
         <v>50754864.5</v>
       </c>
-      <c r="M153" t="s"/>
+      <c r="M153" t="s">
+        <v>72</v>
+      </c>
       <c r="N153" t="n">
         <v>0</v>
       </c>
@@ -13232,7 +13781,9 @@
       <c r="V153" t="n">
         <v>10</v>
       </c>
-      <c r="W153" t="s"/>
+      <c r="W153" t="s">
+        <v>73</v>
+      </c>
       <c r="X153" t="n">
         <v>73</v>
       </c>
@@ -13257,13 +13808,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C154" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D154" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E154" t="n">
         <v>1941895.15</v>
@@ -13289,7 +13840,9 @@
       <c r="L154" t="n">
         <v>44493767.98</v>
       </c>
-      <c r="M154" t="s"/>
+      <c r="M154" t="s">
+        <v>72</v>
+      </c>
       <c r="N154" t="n">
         <v>0</v>
       </c>
@@ -13317,7 +13870,9 @@
       <c r="V154" t="n">
         <v>10</v>
       </c>
-      <c r="W154" t="s"/>
+      <c r="W154" t="s">
+        <v>73</v>
+      </c>
       <c r="X154" t="n">
         <v>68</v>
       </c>
@@ -13342,13 +13897,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C155" t="s">
         <v>36</v>
       </c>
       <c r="D155" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E155" t="n">
         <v>1941895.15</v>
@@ -13374,7 +13929,9 @@
       <c r="L155" t="n">
         <v>46405850.09</v>
       </c>
-      <c r="M155" t="s"/>
+      <c r="M155" t="s">
+        <v>72</v>
+      </c>
       <c r="N155" t="n">
         <v>0</v>
       </c>
@@ -13402,7 +13959,9 @@
       <c r="V155" t="n">
         <v>10</v>
       </c>
-      <c r="W155" t="s"/>
+      <c r="W155" t="s">
+        <v>73</v>
+      </c>
       <c r="X155" t="n">
         <v>71</v>
       </c>
@@ -13427,13 +13986,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C156" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D156" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E156" t="n">
         <v>1941895.15</v>
@@ -13459,7 +14018,9 @@
       <c r="L156" t="n">
         <v>44473268.59999999</v>
       </c>
-      <c r="M156" t="s"/>
+      <c r="M156" t="s">
+        <v>72</v>
+      </c>
       <c r="N156" t="n">
         <v>0</v>
       </c>
@@ -13487,7 +14048,9 @@
       <c r="V156" t="n">
         <v>10</v>
       </c>
-      <c r="W156" t="s"/>
+      <c r="W156" t="s">
+        <v>73</v>
+      </c>
       <c r="X156" t="n">
         <v>70</v>
       </c>
@@ -13512,13 +14075,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C157" t="s">
         <v>34</v>
       </c>
       <c r="D157" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E157" t="n">
         <v>1941895.15</v>
@@ -13544,7 +14107,9 @@
       <c r="L157" t="n">
         <v>48940315.55</v>
       </c>
-      <c r="M157" t="s"/>
+      <c r="M157" t="s">
+        <v>72</v>
+      </c>
       <c r="N157" t="n">
         <v>0</v>
       </c>
@@ -13572,7 +14137,9 @@
       <c r="V157" t="n">
         <v>10</v>
       </c>
-      <c r="W157" t="s"/>
+      <c r="W157" t="s">
+        <v>73</v>
+      </c>
       <c r="X157" t="n">
         <v>73</v>
       </c>
@@ -13597,13 +14164,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D158" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E158" t="n">
         <v>193236</v>
@@ -13662,7 +14229,9 @@
       <c r="W158" t="n">
         <v>0</v>
       </c>
-      <c r="X158" t="s"/>
+      <c r="X158" t="s">
+        <v>76</v>
+      </c>
       <c r="Y158" t="n">
         <v>21</v>
       </c>
@@ -13676,13 +14245,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D159" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E159" t="n">
         <v>3739498</v>
@@ -13741,7 +14310,9 @@
       <c r="W159" t="n">
         <v>2</v>
       </c>
-      <c r="X159" t="s"/>
+      <c r="X159" t="s">
+        <v>76</v>
+      </c>
       <c r="Y159" t="n">
         <v>24</v>
       </c>
@@ -13759,13 +14330,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D160" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E160" t="n">
         <v>12600000</v>
@@ -13840,13 +14411,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D161" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E161" t="n">
         <v>492704</v>
@@ -13905,7 +14476,9 @@
       <c r="W161" t="n">
         <v>0</v>
       </c>
-      <c r="X161" t="s"/>
+      <c r="X161" t="s">
+        <v>76</v>
+      </c>
       <c r="Y161" t="n">
         <v>11</v>
       </c>
@@ -13927,13 +14500,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C162" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D162" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E162" t="n">
         <v>3276240</v>
@@ -14016,13 +14589,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C163" t="s">
         <v>37</v>
       </c>
       <c r="D163" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E163" t="n">
         <v>2178206</v>
@@ -14097,13 +14670,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C164" t="s">
         <v>37</v>
       </c>
       <c r="D164" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E164" t="n">
         <v>10170000</v>
@@ -14182,13 +14755,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C165" t="s">
         <v>37</v>
       </c>
       <c r="D165" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E165" t="n">
         <v>13158346</v>
@@ -14263,13 +14836,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C166" t="s">
         <v>37</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E166" t="n">
         <v>48405846</v>
@@ -14352,13 +14925,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C167" t="s">
         <v>37</v>
       </c>
       <c r="D167" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E167" t="s"/>
       <c r="F167" t="s"/>
@@ -14405,13 +14978,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C168" t="s">
         <v>36</v>
       </c>
       <c r="D168" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E168" t="n">
         <v>171140</v>
@@ -14470,7 +15043,9 @@
       <c r="W168" t="n">
         <v>0</v>
       </c>
-      <c r="X168" t="s"/>
+      <c r="X168" t="s">
+        <v>76</v>
+      </c>
       <c r="Y168" t="n">
         <v>20</v>
       </c>
@@ -14484,13 +15059,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C169" t="s">
         <v>36</v>
       </c>
       <c r="D169" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E169" t="n">
         <v>3508771</v>
@@ -14549,7 +15124,9 @@
       <c r="W169" t="n">
         <v>2</v>
       </c>
-      <c r="X169" t="s"/>
+      <c r="X169" t="s">
+        <v>76</v>
+      </c>
       <c r="Y169" t="n">
         <v>25</v>
       </c>
@@ -14567,13 +15144,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C170" t="s">
         <v>36</v>
       </c>
       <c r="D170" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E170" t="n">
         <v>10810000</v>
@@ -14648,13 +15225,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C171" t="s">
         <v>36</v>
       </c>
       <c r="D171" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E171" t="n">
         <v>4836966</v>
@@ -14737,13 +15314,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C172" t="s">
         <v>36</v>
       </c>
       <c r="D172" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E172" t="n">
         <v>57192982</v>
@@ -14826,13 +15403,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
       </c>
       <c r="D173" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E173" t="n">
         <v>132814</v>
@@ -14891,7 +15468,9 @@
       <c r="W173" t="n">
         <v>0</v>
       </c>
-      <c r="X173" t="s"/>
+      <c r="X173" t="s">
+        <v>76</v>
+      </c>
       <c r="Y173" t="n">
         <v>19</v>
       </c>
@@ -14905,13 +15484,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
       </c>
       <c r="D174" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E174" t="n">
         <v>992781</v>
@@ -14970,7 +15549,9 @@
       <c r="W174" t="n">
         <v>2</v>
       </c>
-      <c r="X174" t="s"/>
+      <c r="X174" t="s">
+        <v>76</v>
+      </c>
       <c r="Y174" t="n">
         <v>23</v>
       </c>
@@ -14988,13 +15569,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C175" t="s">
         <v>35</v>
       </c>
       <c r="D175" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E175" t="n">
         <v>11660000</v>
@@ -15069,13 +15650,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C176" t="s">
         <v>35</v>
       </c>
       <c r="D176" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E176" t="n">
         <v>9477279</v>
@@ -15158,13 +15739,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C177" t="s">
         <v>35</v>
       </c>
       <c r="D177" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E177" t="n">
         <v>53493424</v>
@@ -15247,13 +15828,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D178" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E178" t="n">
         <v>200116</v>
@@ -15312,7 +15893,9 @@
       <c r="W178" t="n">
         <v>0</v>
       </c>
-      <c r="X178" t="s"/>
+      <c r="X178" t="s">
+        <v>76</v>
+      </c>
       <c r="Y178" t="n">
         <v>19</v>
       </c>
@@ -15326,13 +15909,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D179" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E179" t="n">
         <v>2209122</v>
@@ -15391,7 +15974,9 @@
       <c r="W179" t="n">
         <v>2</v>
       </c>
-      <c r="X179" t="s"/>
+      <c r="X179" t="s">
+        <v>76</v>
+      </c>
       <c r="Y179" t="n">
         <v>22</v>
       </c>
@@ -15413,13 +15998,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D180" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E180" t="n">
         <v>10110000</v>
@@ -15494,13 +16079,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D181" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E181" t="n">
         <v>12307179</v>
@@ -15583,13 +16168,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E182" t="n">
         <v>49198065</v>
@@ -15672,13 +16257,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C183" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D183" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E183" t="n">
         <v>196426</v>
@@ -15737,7 +16322,9 @@
       <c r="W183" t="n">
         <v>0</v>
       </c>
-      <c r="X183" t="s"/>
+      <c r="X183" t="s">
+        <v>76</v>
+      </c>
       <c r="Y183" t="n">
         <v>19</v>
       </c>
@@ -15751,13 +16338,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C184" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E184" t="n">
         <v>1835119</v>
@@ -15816,7 +16403,9 @@
       <c r="W184" t="n">
         <v>2</v>
       </c>
-      <c r="X184" t="s"/>
+      <c r="X184" t="s">
+        <v>76</v>
+      </c>
       <c r="Y184" t="n">
         <v>23</v>
       </c>
@@ -15834,13 +16423,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C185" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D185" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E185" t="n">
         <v>10610000</v>
@@ -15915,13 +16504,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C186" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E186" t="n">
         <v>13141895</v>
@@ -16004,13 +16593,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C187" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D187" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E187" t="n">
         <v>47736490</v>
@@ -16093,13 +16682,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C188" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D188" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E188" t="n">
         <v>2011658</v>
@@ -16174,13 +16763,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C189" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D189" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E189" t="n">
         <v>11260000</v>
@@ -16263,13 +16852,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C190" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D190" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E190" t="n">
         <v>15932148</v>
@@ -16344,13 +16933,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C191" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D191" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E191" t="n">
         <v>44862269</v>
@@ -16433,13 +17022,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C192" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D192" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E192" t="s"/>
       <c r="F192" t="s"/>
@@ -16486,13 +17075,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
       </c>
       <c r="D193" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E193" t="n">
         <v>184016</v>
@@ -16551,7 +17140,9 @@
       <c r="W193" t="n">
         <v>0</v>
       </c>
-      <c r="X193" t="s"/>
+      <c r="X193" t="s">
+        <v>76</v>
+      </c>
       <c r="Y193" t="n">
         <v>19</v>
       </c>
@@ -16565,13 +17156,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
       </c>
       <c r="D194" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E194" t="n">
         <v>1921917</v>
@@ -16630,7 +17221,9 @@
       <c r="W194" t="n">
         <v>2</v>
       </c>
-      <c r="X194" t="s"/>
+      <c r="X194" t="s">
+        <v>76</v>
+      </c>
       <c r="Y194" t="n">
         <v>22</v>
       </c>
@@ -16648,13 +17241,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
       </c>
       <c r="D195" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E195" t="n">
         <v>8460000</v>
@@ -16729,13 +17322,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
       </c>
       <c r="D196" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E196" t="n">
         <v>20399579</v>
@@ -16818,13 +17411,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
       </c>
       <c r="D197" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E197" t="n">
         <v>42896296</v>
@@ -16907,13 +17500,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D198" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E198" t="n">
         <v>135524</v>
@@ -16972,7 +17565,9 @@
       <c r="W198" t="n">
         <v>0</v>
       </c>
-      <c r="X198" t="s"/>
+      <c r="X198" t="s">
+        <v>76</v>
+      </c>
       <c r="Y198" t="n">
         <v>19</v>
       </c>
@@ -16986,13 +17581,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D199" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E199" t="n">
         <v>1530994</v>
@@ -17051,7 +17646,9 @@
       <c r="W199" t="n">
         <v>2</v>
       </c>
-      <c r="X199" t="s"/>
+      <c r="X199" t="s">
+        <v>76</v>
+      </c>
       <c r="Y199" t="n">
         <v>22</v>
       </c>
@@ -17069,13 +17666,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C200" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D200" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E200" t="n">
         <v>9610000</v>
@@ -17150,13 +17747,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D201" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E201" t="n">
         <v>12764695</v>
@@ -17239,13 +17836,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C202" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D202" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E202" t="n">
         <v>49967111</v>
@@ -17328,13 +17925,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C203" t="s">
         <v>34</v>
       </c>
       <c r="D203" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E203" t="n">
         <v>161275</v>
@@ -17393,7 +17990,9 @@
       <c r="W203" t="n">
         <v>0</v>
       </c>
-      <c r="X203" t="s"/>
+      <c r="X203" t="s">
+        <v>76</v>
+      </c>
       <c r="Y203" t="n">
         <v>21</v>
       </c>
@@ -17407,13 +18006,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C204" t="s">
         <v>34</v>
       </c>
       <c r="D204" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E204" t="n">
         <v>2961569</v>
@@ -17472,7 +18071,9 @@
       <c r="W204" t="n">
         <v>2</v>
       </c>
-      <c r="X204" t="s"/>
+      <c r="X204" t="s">
+        <v>76</v>
+      </c>
       <c r="Y204" t="n">
         <v>24</v>
       </c>
@@ -17490,13 +18091,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C205" t="s">
         <v>34</v>
       </c>
       <c r="D205" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E205" t="n">
         <v>7550000</v>
@@ -17571,13 +18172,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C206" t="s">
         <v>34</v>
       </c>
       <c r="D206" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E206" t="n">
         <v>5124988</v>
@@ -17660,13 +18261,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C207" t="s">
         <v>34</v>
       </c>
       <c r="D207" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E207" t="n">
         <v>57210550</v>
@@ -17749,13 +18350,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C208" t="s">
         <v>34</v>
       </c>
       <c r="D208" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E208" t="n">
         <v>1875000</v>
@@ -17781,7 +18382,9 @@
       <c r="L208" t="n">
         <v>101100000</v>
       </c>
-      <c r="M208" t="s"/>
+      <c r="M208" t="s">
+        <v>82</v>
+      </c>
       <c r="N208" t="n">
         <v>0</v>
       </c>
@@ -17830,13 +18433,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C209" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D209" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E209" t="n">
         <v>1875000</v>
@@ -17862,7 +18465,9 @@
       <c r="L209" t="n">
         <v>134000000</v>
       </c>
-      <c r="M209" t="s"/>
+      <c r="M209" t="s">
+        <v>82</v>
+      </c>
       <c r="N209" t="n">
         <v>0</v>
       </c>
@@ -17911,13 +18516,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C210" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D210" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E210" t="n">
         <v>1875000</v>
@@ -17943,7 +18548,9 @@
       <c r="L210" t="n">
         <v>6000000</v>
       </c>
-      <c r="M210" t="s"/>
+      <c r="M210" t="s">
+        <v>83</v>
+      </c>
       <c r="N210" t="n">
         <v>0</v>
       </c>
@@ -17994,13 +18601,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
       </c>
       <c r="D211" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E211" t="n">
         <v>1875000</v>
@@ -18026,7 +18633,9 @@
       <c r="L211" t="n">
         <v>21000000</v>
       </c>
-      <c r="M211" t="s"/>
+      <c r="M211" t="s">
+        <v>82</v>
+      </c>
       <c r="N211" t="n">
         <v>0</v>
       </c>
@@ -18075,13 +18684,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C212" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D212" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E212" t="n">
         <v>1875000</v>
@@ -18107,7 +18716,9 @@
       <c r="L212" t="n">
         <v>198700000</v>
       </c>
-      <c r="M212" t="s"/>
+      <c r="M212" t="s">
+        <v>82</v>
+      </c>
       <c r="N212" t="n">
         <v>0</v>
       </c>
@@ -18134,7 +18745,9 @@
       <c r="W212" t="n">
         <v>0</v>
       </c>
-      <c r="X212" t="s"/>
+      <c r="X212" t="s">
+        <v>84</v>
+      </c>
       <c r="Y212" t="n">
         <v>1</v>
       </c>
@@ -18156,13 +18769,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C213" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D213" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E213" t="n">
         <v>1875000</v>
@@ -18188,7 +18801,9 @@
       <c r="L213" t="n">
         <v>6000000</v>
       </c>
-      <c r="M213" t="s"/>
+      <c r="M213" t="s">
+        <v>83</v>
+      </c>
       <c r="N213" t="n">
         <v>0</v>
       </c>
@@ -18239,13 +18854,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D214" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E214" t="n">
         <v>1875000</v>
@@ -18271,7 +18886,9 @@
       <c r="L214" t="n">
         <v>6000000</v>
       </c>
-      <c r="M214" t="s"/>
+      <c r="M214" t="s">
+        <v>82</v>
+      </c>
       <c r="N214" t="n">
         <v>0</v>
       </c>
@@ -18320,13 +18937,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C215" t="s">
         <v>35</v>
       </c>
       <c r="D215" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E215" t="n">
         <v>1875000</v>
@@ -18352,7 +18969,9 @@
       <c r="L215" t="n">
         <v>169300000</v>
       </c>
-      <c r="M215" t="s"/>
+      <c r="M215" t="s">
+        <v>82</v>
+      </c>
       <c r="N215" t="n">
         <v>0</v>
       </c>
@@ -18401,13 +19020,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C216" t="s">
         <v>37</v>
       </c>
       <c r="D216" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E216" t="n">
         <v>1875000</v>
@@ -18433,7 +19052,9 @@
       <c r="L216" t="n">
         <v>6000000</v>
       </c>
-      <c r="M216" t="s"/>
+      <c r="M216" t="s">
+        <v>85</v>
+      </c>
       <c r="N216" t="n">
         <v>0</v>
       </c>
@@ -18482,13 +19103,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C217" t="s">
         <v>36</v>
       </c>
       <c r="D217" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E217" t="n">
         <v>1875000</v>
@@ -18514,7 +19135,9 @@
       <c r="L217" t="n">
         <v>135900000</v>
       </c>
-      <c r="M217" t="s"/>
+      <c r="M217" t="s">
+        <v>82</v>
+      </c>
       <c r="N217" t="n">
         <v>0</v>
       </c>
@@ -18567,13 +19190,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C218" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D218" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E218" t="n">
         <v>11760000</v>
@@ -18648,13 +19271,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C219" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D219" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E219" t="n">
         <v>12590000</v>
@@ -18729,13 +19352,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C220" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D220" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E220" t="n">
         <v>20000000</v>
@@ -18818,13 +19441,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D221" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E221" t="n">
         <v>1240000</v>
@@ -18895,13 +19518,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C222" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D222" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E222" t="s"/>
       <c r="F222" t="s"/>
@@ -18944,13 +19567,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C223" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D223" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E223" t="s"/>
       <c r="F223" t="s"/>
@@ -18995,34 +19618,44 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C224" t="s">
         <v>34</v>
       </c>
       <c r="D224" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E224" t="n">
         <v>12300000</v>
       </c>
-      <c r="F224" t="s"/>
-      <c r="G224" t="s"/>
+      <c r="F224" t="s">
+        <v>65</v>
+      </c>
+      <c r="G224" t="s">
+        <v>65</v>
+      </c>
       <c r="H224" t="n">
         <v>1087720000</v>
       </c>
       <c r="I224" t="n">
         <v>1087720000</v>
       </c>
-      <c r="J224" t="s"/>
-      <c r="K224" t="s"/>
+      <c r="J224" t="s">
+        <v>65</v>
+      </c>
+      <c r="K224" t="s">
+        <v>65</v>
+      </c>
       <c r="L224" t="n">
         <v>1087720000</v>
       </c>
       <c r="M224" t="n">
         <v>1087720000</v>
       </c>
-      <c r="N224" t="s"/>
+      <c r="N224" t="s">
+        <v>65</v>
+      </c>
       <c r="O224" t="n">
         <v>-385250000</v>
       </c>
@@ -19066,34 +19699,44 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C225" t="s">
         <v>34</v>
       </c>
       <c r="D225" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E225" t="n">
         <v>9900000</v>
       </c>
-      <c r="F225" t="s"/>
-      <c r="G225" t="s"/>
+      <c r="F225" t="s">
+        <v>65</v>
+      </c>
+      <c r="G225" t="s">
+        <v>65</v>
+      </c>
       <c r="H225" t="n">
         <v>902890000</v>
       </c>
       <c r="I225" t="n">
         <v>902890000</v>
       </c>
-      <c r="J225" t="s"/>
-      <c r="K225" t="s"/>
+      <c r="J225" t="s">
+        <v>65</v>
+      </c>
+      <c r="K225" t="s">
+        <v>65</v>
+      </c>
       <c r="L225" t="n">
         <v>902890000</v>
       </c>
       <c r="M225" t="n">
         <v>902890000</v>
       </c>
-      <c r="N225" t="s"/>
+      <c r="N225" t="s">
+        <v>65</v>
+      </c>
       <c r="O225" t="n">
         <v>-401260000</v>
       </c>
@@ -19137,34 +19780,44 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C226" t="s">
         <v>34</v>
       </c>
       <c r="D226" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E226" t="n">
         <v>20000000</v>
       </c>
-      <c r="F226" t="s"/>
-      <c r="G226" t="s"/>
+      <c r="F226" t="s">
+        <v>65</v>
+      </c>
+      <c r="G226" t="s">
+        <v>65</v>
+      </c>
       <c r="H226" t="n">
         <v>530330000.0000001</v>
       </c>
       <c r="I226" t="n">
         <v>530330000.0000001</v>
       </c>
-      <c r="J226" t="s"/>
-      <c r="K226" t="s"/>
+      <c r="J226" t="s">
+        <v>65</v>
+      </c>
+      <c r="K226" t="s">
+        <v>65</v>
+      </c>
       <c r="L226" t="n">
         <v>530330000.0000001</v>
       </c>
       <c r="M226" t="n">
         <v>530330000.0000001</v>
       </c>
-      <c r="N226" t="s"/>
+      <c r="N226" t="s">
+        <v>65</v>
+      </c>
       <c r="O226" t="n">
         <v>-404530000</v>
       </c>
@@ -19216,34 +19869,44 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C227" t="s">
         <v>34</v>
       </c>
       <c r="D227" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E227" t="n">
         <v>1900000</v>
       </c>
-      <c r="F227" t="s"/>
-      <c r="G227" t="s"/>
+      <c r="F227" t="s">
+        <v>65</v>
+      </c>
+      <c r="G227" t="s">
+        <v>65</v>
+      </c>
       <c r="H227" t="n">
         <v>175270000</v>
       </c>
       <c r="I227" t="n">
         <v>175270000</v>
       </c>
-      <c r="J227" t="s"/>
-      <c r="K227" t="s"/>
+      <c r="J227" t="s">
+        <v>65</v>
+      </c>
+      <c r="K227" t="s">
+        <v>65</v>
+      </c>
       <c r="L227" t="n">
         <v>175270000</v>
       </c>
       <c r="M227" t="n">
         <v>175270000</v>
       </c>
-      <c r="N227" t="s"/>
+      <c r="N227" t="s">
+        <v>65</v>
+      </c>
       <c r="O227" t="n">
         <v>-159340000</v>
       </c>
@@ -19283,13 +19946,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C228" t="s">
         <v>34</v>
       </c>
       <c r="D228" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E228" t="s"/>
       <c r="F228" t="s"/>
@@ -19332,13 +19995,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C229" t="s">
         <v>34</v>
       </c>
       <c r="D229" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E229" t="s"/>
       <c r="F229" t="s"/>
@@ -19383,13 +20046,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C230" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D230" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E230" t="n">
         <v>9300000</v>
@@ -19464,13 +20127,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C231" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D231" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E231" t="n">
         <v>11200000</v>
@@ -19545,13 +20208,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C232" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D232" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E232" t="n">
         <v>20000000</v>
@@ -19634,13 +20297,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C233" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D233" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E233" t="n">
         <v>1700000</v>
@@ -19711,13 +20374,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C234" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D234" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E234" t="s"/>
       <c r="F234" t="s"/>
@@ -19760,13 +20423,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C235" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D235" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E235" t="s"/>
       <c r="F235" t="s"/>
@@ -19811,34 +20474,44 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C236" t="s">
         <v>35</v>
       </c>
       <c r="D236" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E236" t="n">
         <v>12360000</v>
       </c>
-      <c r="F236" t="s"/>
-      <c r="G236" t="s"/>
+      <c r="F236" t="s">
+        <v>65</v>
+      </c>
+      <c r="G236" t="s">
+        <v>65</v>
+      </c>
       <c r="H236" t="n">
         <v>1341680000</v>
       </c>
       <c r="I236" t="n">
         <v>1341680000</v>
       </c>
-      <c r="J236" t="s"/>
-      <c r="K236" t="s"/>
+      <c r="J236" t="s">
+        <v>65</v>
+      </c>
+      <c r="K236" t="s">
+        <v>65</v>
+      </c>
       <c r="L236" t="n">
         <v>1341680000</v>
       </c>
       <c r="M236" t="n">
         <v>1341680000</v>
       </c>
-      <c r="N236" t="s"/>
+      <c r="N236" t="s">
+        <v>65</v>
+      </c>
       <c r="O236" t="n">
         <v>-512919999.9999999</v>
       </c>
@@ -19882,34 +20555,44 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
       </c>
       <c r="D237" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E237" t="n">
         <v>11250000</v>
       </c>
-      <c r="F237" t="s"/>
-      <c r="G237" t="s"/>
+      <c r="F237" t="s">
+        <v>65</v>
+      </c>
+      <c r="G237" t="s">
+        <v>65</v>
+      </c>
       <c r="H237" t="n">
         <v>1221130000</v>
       </c>
       <c r="I237" t="n">
         <v>1221130000</v>
       </c>
-      <c r="J237" t="s"/>
-      <c r="K237" t="s"/>
+      <c r="J237" t="s">
+        <v>65</v>
+      </c>
+      <c r="K237" t="s">
+        <v>65</v>
+      </c>
       <c r="L237" t="n">
         <v>1221130000</v>
       </c>
       <c r="M237" t="n">
         <v>1221130000</v>
       </c>
-      <c r="N237" t="s"/>
+      <c r="N237" t="s">
+        <v>65</v>
+      </c>
       <c r="O237" t="n">
         <v>-317740000</v>
       </c>
@@ -19953,34 +20636,44 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C238" t="s">
         <v>35</v>
       </c>
       <c r="D238" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E238" t="n">
         <v>20000000</v>
       </c>
-      <c r="F238" t="s"/>
-      <c r="G238" t="s"/>
+      <c r="F238" t="s">
+        <v>65</v>
+      </c>
+      <c r="G238" t="s">
+        <v>65</v>
+      </c>
       <c r="H238" t="n">
         <v>502660000</v>
       </c>
       <c r="I238" t="n">
         <v>502660000</v>
       </c>
-      <c r="J238" t="s"/>
-      <c r="K238" t="s"/>
+      <c r="J238" t="s">
+        <v>65</v>
+      </c>
+      <c r="K238" t="s">
+        <v>65</v>
+      </c>
       <c r="L238" t="n">
         <v>502660000</v>
       </c>
       <c r="M238" t="n">
         <v>502660000</v>
       </c>
-      <c r="N238" t="s"/>
+      <c r="N238" t="s">
+        <v>65</v>
+      </c>
       <c r="O238" t="n">
         <v>-404530000</v>
       </c>
@@ -20032,34 +20725,44 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C239" t="s">
         <v>35</v>
       </c>
       <c r="D239" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E239" t="n">
         <v>1750000</v>
       </c>
-      <c r="F239" t="s"/>
-      <c r="G239" t="s"/>
+      <c r="F239" t="s">
+        <v>65</v>
+      </c>
+      <c r="G239" t="s">
+        <v>65</v>
+      </c>
       <c r="H239" t="n">
         <v>190020000</v>
       </c>
       <c r="I239" t="n">
         <v>190020000</v>
       </c>
-      <c r="J239" t="s"/>
-      <c r="K239" t="s"/>
+      <c r="J239" t="s">
+        <v>65</v>
+      </c>
+      <c r="K239" t="s">
+        <v>65</v>
+      </c>
       <c r="L239" t="n">
         <v>190020000</v>
       </c>
       <c r="M239" t="n">
         <v>190020000</v>
       </c>
-      <c r="N239" t="s"/>
+      <c r="N239" t="s">
+        <v>65</v>
+      </c>
       <c r="O239" t="n">
         <v>-159340000</v>
       </c>
@@ -20099,13 +20802,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C240" t="s">
         <v>35</v>
       </c>
       <c r="D240" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E240" t="s"/>
       <c r="F240" t="s"/>
@@ -20148,13 +20851,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C241" t="s">
         <v>35</v>
       </c>
       <c r="D241" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E241" t="s"/>
       <c r="F241" t="s"/>
@@ -20199,13 +20902,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C242" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D242" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E242" t="n">
         <v>12630000</v>
@@ -20280,13 +20983,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C243" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D243" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E243" t="n">
         <v>8830000</v>
@@ -20361,13 +21064,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C244" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D244" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E244" t="n">
         <v>20000000</v>
@@ -20450,13 +21153,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D245" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E245" t="n">
         <v>840000</v>
@@ -20527,13 +21230,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D246" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E246" t="s"/>
       <c r="F246" t="s"/>
@@ -20576,13 +21279,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D247" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E247" t="s"/>
       <c r="F247" t="s"/>
@@ -20627,13 +21330,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C248" t="s">
         <v>37</v>
       </c>
       <c r="D248" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E248" t="n">
         <v>11490000</v>
@@ -20708,13 +21411,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C249" t="s">
         <v>37</v>
       </c>
       <c r="D249" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E249" t="n">
         <v>6910000</v>
@@ -20789,13 +21492,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C250" t="s">
         <v>37</v>
       </c>
       <c r="D250" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E250" t="n">
         <v>20000000</v>
@@ -20878,13 +21581,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C251" t="s">
         <v>37</v>
       </c>
       <c r="D251" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E251" t="n">
         <v>880000</v>
@@ -20955,13 +21658,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C252" t="s">
         <v>37</v>
       </c>
       <c r="D252" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E252" t="s"/>
       <c r="F252" t="s"/>
@@ -21002,13 +21705,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C253" t="s">
         <v>37</v>
       </c>
       <c r="D253" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E253" t="s"/>
       <c r="F253" t="s"/>
@@ -21053,13 +21756,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C254" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D254" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E254" t="n">
         <v>13140000</v>
@@ -21134,13 +21837,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C255" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D255" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E255" t="n">
         <v>10220000</v>
@@ -21215,13 +21918,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C256" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D256" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E256" t="n">
         <v>20000000</v>
@@ -21304,13 +22007,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C257" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D257" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E257" t="n">
         <v>680000</v>
@@ -21381,13 +22084,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C258" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D258" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E258" t="s"/>
       <c r="F258" t="s"/>
@@ -21430,13 +22133,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C259" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D259" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E259" t="s"/>
       <c r="F259" t="s"/>
@@ -21481,13 +22184,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
       </c>
       <c r="D260" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E260" t="n">
         <v>11990000</v>
@@ -21562,13 +22265,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
       </c>
       <c r="D261" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E261" t="n">
         <v>11080000</v>
@@ -21643,13 +22346,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
       </c>
       <c r="D262" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E262" t="n">
         <v>20000000</v>
@@ -21732,13 +22435,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
       </c>
       <c r="D263" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E263" t="n">
         <v>720000</v>
@@ -21809,13 +22512,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
       </c>
       <c r="D264" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E264" t="s"/>
       <c r="F264" t="s"/>
@@ -21860,13 +22563,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
       </c>
       <c r="D265" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E265" t="s"/>
       <c r="F265" t="s"/>
@@ -21911,13 +22614,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C266" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D266" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E266" t="n">
         <v>13020000</v>
@@ -21992,13 +22695,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C267" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D267" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E267" t="n">
         <v>8180000</v>
@@ -22073,13 +22776,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C268" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D268" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E268" t="n">
         <v>20000000</v>
@@ -22162,13 +22865,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C269" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D269" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E269" t="n">
         <v>1090000</v>
@@ -22239,13 +22942,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C270" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D270" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E270" t="s"/>
       <c r="F270" t="s"/>
@@ -22286,13 +22989,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C271" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D271" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E271" t="s"/>
       <c r="F271" t="s"/>
@@ -22337,13 +23040,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C272" t="s">
         <v>37</v>
       </c>
       <c r="D272" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E272" t="s"/>
       <c r="F272" t="n">
@@ -22392,13 +23095,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
       </c>
       <c r="D273" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E273" t="n">
         <v>16298633</v>
@@ -22477,13 +23180,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C274" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D274" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E274" t="n">
         <v>15754700</v>
@@ -22562,13 +23265,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C275" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D275" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E275" t="n">
         <v>16926540</v>
@@ -22647,13 +23350,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C276" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D276" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E276" t="n">
         <v>16475934</v>
@@ -22732,13 +23435,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C277" t="s">
         <v>36</v>
       </c>
       <c r="D277" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E277" t="n">
         <v>3846685</v>
@@ -22777,10 +23480,10 @@
         <v>30313530</v>
       </c>
       <c r="Q277" t="n">
-        <v>236487798</v>
+        <v>239794537</v>
       </c>
       <c r="R277" t="n">
-        <v>1043910600</v>
+        <v>1047217339</v>
       </c>
       <c r="S277" t="n">
         <v>1836192948</v>
@@ -22821,13 +23524,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C278" t="s">
         <v>34</v>
       </c>
       <c r="D278" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E278" t="n">
         <v>3846685</v>
@@ -22866,10 +23569,10 @@
         <v>14954318</v>
       </c>
       <c r="Q278" t="n">
-        <v>131800590</v>
+        <v>133556420</v>
       </c>
       <c r="R278" t="n">
-        <v>673856397</v>
+        <v>675612227</v>
       </c>
       <c r="S278" t="n">
         <v>1067298594</v>
@@ -22910,13 +23613,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C279" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D279" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E279" t="n">
         <v>3846685</v>
@@ -22955,10 +23658,10 @@
         <v>33325334</v>
       </c>
       <c r="Q279" t="n">
-        <v>176493863</v>
+        <v>178762698</v>
       </c>
       <c r="R279" t="n">
-        <v>801500737</v>
+        <v>803769572</v>
       </c>
       <c r="S279" t="n">
         <v>1063077923</v>
@@ -22999,13 +23702,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C280" t="s">
         <v>37</v>
       </c>
       <c r="D280" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E280" t="n">
         <v>4744190</v>
@@ -23088,13 +23791,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C281" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D281" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E281" t="n">
         <v>2769512</v>
@@ -23133,10 +23836,10 @@
         <v>37541836</v>
       </c>
       <c r="Q281" t="n">
-        <v>82986327</v>
+        <v>83881525</v>
       </c>
       <c r="R281" t="n">
-        <v>293962091</v>
+        <v>294857289</v>
       </c>
       <c r="S281" t="n">
         <v>802068450</v>
@@ -23177,13 +23880,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C282" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D282" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E282" t="n">
         <v>4744190</v>
@@ -23266,13 +23969,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C283" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D283" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E283" t="n">
         <v>4335767</v>
@@ -23355,13 +24058,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C284" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D284" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E284" t="n">
         <v>4335767</v>
@@ -23440,13 +24143,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C285" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D285" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E285" t="n">
         <v>4335767</v>
@@ -23529,13 +24232,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
       </c>
       <c r="D286" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E286" t="n">
         <v>4335767</v>
@@ -23618,13 +24321,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C287" t="s">
         <v>35</v>
       </c>
       <c r="D287" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E287" t="n">
         <v>3846685</v>
@@ -23663,9 +24366,11 @@
         <v>20892864</v>
       </c>
       <c r="Q287" t="n">
-        <v>92118685</v>
-      </c>
-      <c r="R287" t="s"/>
+        <v>93251388</v>
+      </c>
+      <c r="R287" t="n">
+        <v>373136740</v>
+      </c>
       <c r="S287" t="n">
         <v>812792061</v>
       </c>
@@ -23705,13 +24410,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C288" t="s">
         <v>35</v>
       </c>
       <c r="D288" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E288" t="n">
         <v>3222184.32</v>
@@ -23786,13 +24491,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C289" t="s">
         <v>35</v>
       </c>
       <c r="D289" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E289" t="n">
         <v>13443302.56</v>
@@ -23867,13 +24572,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C290" t="s">
         <v>35</v>
       </c>
       <c r="D290" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E290" t="n">
         <v>31871.23</v>
@@ -23948,13 +24653,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C291" t="s">
         <v>35</v>
       </c>
       <c r="D291" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E291" t="n">
         <v>736.15</v>
@@ -24029,13 +24734,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C292" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D292" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E292" t="n">
         <v>4085555.22</v>
@@ -24110,13 +24815,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C293" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D293" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E293" t="n">
         <v>14951253.5</v>
@@ -24191,13 +24896,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C294" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D294" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E294" t="n">
         <v>42652.52</v>
@@ -24272,13 +24977,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C295" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D295" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E295" t="n">
         <v>1199.76</v>
@@ -24353,13 +25058,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C296" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D296" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E296" t="n">
         <v>4801123.36</v>
@@ -24434,13 +25139,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C297" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D297" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E297" t="n">
         <v>14015047.07</v>
@@ -24511,13 +25216,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C298" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D298" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E298" t="n">
         <v>42108.29</v>
@@ -24588,13 +25293,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D299" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E299" t="n">
         <v>976.86</v>
@@ -24665,13 +25370,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C300" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D300" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E300" t="n">
         <v>4759052.62</v>
@@ -24746,13 +25451,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C301" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D301" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E301" t="n">
         <v>14242093.48</v>
@@ -24823,13 +25528,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C302" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D302" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E302" t="n">
         <v>9883.969999999999</v>
@@ -24900,13 +25605,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C303" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D303" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E303" t="n">
         <v>790.72</v>
@@ -24977,13 +25682,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C304" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D304" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E304" t="n">
         <v>3332823.04</v>
@@ -25058,13 +25763,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C305" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D305" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E305" t="n">
         <v>13308367.81</v>
@@ -25139,13 +25844,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C306" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D306" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E306" t="n">
         <v>37622.78</v>
@@ -25220,13 +25925,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C307" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D307" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E307" t="n">
         <v>825.3200000000001</v>
@@ -25301,13 +26006,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
       </c>
       <c r="D308" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E308" t="n">
         <v>5417882.97</v>
@@ -25382,13 +26087,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
       </c>
       <c r="D309" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E309" t="n">
         <v>13222922.53</v>
@@ -25463,13 +26168,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
       </c>
       <c r="D310" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E310" t="n">
         <v>38919.7</v>
@@ -25544,13 +26249,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
       </c>
       <c r="D311" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E311" t="n">
         <v>751.46</v>
@@ -25625,13 +26330,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C312" t="s">
         <v>37</v>
       </c>
       <c r="D312" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E312" t="n">
         <v>6297295</v>
@@ -25706,13 +26411,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C313" t="s">
         <v>37</v>
       </c>
       <c r="D313" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E313" t="n">
         <v>12877592</v>
@@ -25787,13 +26492,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C314" t="s">
         <v>37</v>
       </c>
       <c r="D314" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E314" t="n">
         <v>8674</v>
@@ -25868,13 +26573,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C315" t="s">
         <v>37</v>
       </c>
       <c r="D315" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E315" t="n">
         <v>602</v>
@@ -25949,13 +26654,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C316" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D316" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E316" t="n">
         <v>1875000</v>
@@ -26036,13 +26741,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C317" t="s">
         <v>34</v>
       </c>
       <c r="D317" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E317" t="n">
         <v>1875000</v>
@@ -26123,13 +26828,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C318" t="s">
         <v>35</v>
       </c>
       <c r="D318" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E318" t="n">
         <v>1875000</v>
@@ -26210,13 +26915,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C319" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D319" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E319" t="n">
         <v>1875000</v>
@@ -26297,13 +27002,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C320" t="s">
         <v>36</v>
       </c>
       <c r="D320" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E320" t="n">
         <v>1875000</v>
@@ -26384,13 +27089,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C321" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D321" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E321" t="n">
         <v>1875000</v>
@@ -26471,13 +27176,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C322" t="s">
         <v>37</v>
       </c>
       <c r="D322" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E322" t="n">
         <v>1875000</v>
@@ -26558,13 +27263,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C323" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D323" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E323" t="n">
         <v>1875000</v>
@@ -26645,13 +27350,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C324" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D324" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E324" t="n">
         <v>1875000</v>
@@ -26732,13 +27437,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C325" t="s">
         <v>29</v>
       </c>
       <c r="D325" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E325" t="n">
         <v>1875000</v>
@@ -26819,13 +27524,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C326" t="s">
         <v>36</v>
       </c>
       <c r="D326" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E326" t="n">
         <v>100000000</v>
@@ -26890,13 +27595,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C327" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D327" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E327" t="n">
         <v>150000000</v>
@@ -26963,13 +27668,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C328" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D328" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E328" t="n">
         <v>150000000</v>
@@ -27036,13 +27741,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C329" t="s">
         <v>37</v>
       </c>
       <c r="D329" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E329" t="n">
         <v>150000000</v>
@@ -27109,13 +27814,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
       </c>
       <c r="D330" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E330" t="n">
         <v>150000000</v>
@@ -27182,13 +27887,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C331" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D331" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E331" t="n">
         <v>150000000</v>
@@ -27255,13 +27960,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C332" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D332" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E332" t="n">
         <v>50000000</v>
@@ -27326,13 +28031,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C333" t="s">
         <v>34</v>
       </c>
       <c r="D333" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E333" t="n">
         <v>100000000</v>
@@ -27397,13 +28102,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C334" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D334" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E334" t="n">
         <v>50000000</v>
@@ -27468,13 +28173,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C335" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D335" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E335" t="n">
         <v>150000000</v>
@@ -27541,13 +28246,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C336" t="s">
         <v>35</v>
       </c>
       <c r="D336" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E336" t="n">
         <v>100000000</v>
@@ -27609,344 +28314,6 @@
       <c r="AB336" t="s"/>
       <c r="AC336" t="s"/>
     </row>
-    <row r="337" spans="1:29">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="s">
-        <v>28</v>
-      </c>
-      <c r="C337" t="s">
-        <v>45</v>
-      </c>
-      <c r="D337" t="s">
-        <v>30</v>
-      </c>
-      <c r="E337" t="n">
-        <v>504653.1888824402</v>
-      </c>
-      <c r="F337" t="n">
-        <v>16188.04027584421</v>
-      </c>
-      <c r="G337" t="s"/>
-      <c r="H337" t="n">
-        <v>5046108.209195848</v>
-      </c>
-      <c r="I337" t="n">
-        <v>5046108.209195848</v>
-      </c>
-      <c r="J337" t="n">
-        <v>0</v>
-      </c>
-      <c r="K337" t="n">
-        <v>0</v>
-      </c>
-      <c r="L337" t="n">
-        <v>0</v>
-      </c>
-      <c r="M337" t="n">
-        <v>6293910.059248228</v>
-      </c>
-      <c r="N337" t="n">
-        <v>0</v>
-      </c>
-      <c r="O337" t="n">
-        <v>2755897.59554814</v>
-      </c>
-      <c r="P337" t="n">
-        <v>764022.3593160097</v>
-      </c>
-      <c r="Q337" t="n">
-        <v>4814684</v>
-      </c>
-      <c r="R337" t="n">
-        <v>6351926</v>
-      </c>
-      <c r="S337" t="n">
-        <v>63136358.12420253</v>
-      </c>
-      <c r="T337" t="n">
-        <v>60364677.56497066</v>
-      </c>
-      <c r="U337" t="n">
-        <v>11</v>
-      </c>
-      <c r="V337" t="n">
-        <v>12</v>
-      </c>
-      <c r="W337" t="n">
-        <v>0</v>
-      </c>
-      <c r="X337" t="s"/>
-      <c r="Y337" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z337" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA337" t="n">
-        <v>11932872.98360656</v>
-      </c>
-      <c r="AB337" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC337" t="n">
-        <v>42351496.90609522</v>
-      </c>
-    </row>
-    <row r="338" spans="1:29">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="s">
-        <v>28</v>
-      </c>
-      <c r="C338" t="s">
-        <v>45</v>
-      </c>
-      <c r="D338" t="s">
-        <v>31</v>
-      </c>
-      <c r="E338" t="n">
-        <v>942879.1900432063</v>
-      </c>
-      <c r="F338" t="n">
-        <v>16188.04027584421</v>
-      </c>
-      <c r="G338" t="s"/>
-      <c r="H338" t="n">
-        <v>9428000.257948024</v>
-      </c>
-      <c r="I338" t="n">
-        <v>9428000.257948024</v>
-      </c>
-      <c r="J338" t="n">
-        <v>0</v>
-      </c>
-      <c r="K338" t="n">
-        <v>0</v>
-      </c>
-      <c r="L338" t="n">
-        <v>0</v>
-      </c>
-      <c r="M338" t="n">
-        <v>6782788.875578722</v>
-      </c>
-      <c r="N338" t="n">
-        <v>0</v>
-      </c>
-      <c r="O338" t="n">
-        <v>2455221.719561488</v>
-      </c>
-      <c r="P338" t="n">
-        <v>1426851.958320716</v>
-      </c>
-      <c r="Q338" t="n">
-        <v>17043517</v>
-      </c>
-      <c r="R338" t="n">
-        <v>28397506</v>
-      </c>
-      <c r="S338" t="n">
-        <v>65411808.06437584</v>
-      </c>
-      <c r="T338" t="n">
-        <v>62619609.24421229</v>
-      </c>
-      <c r="U338" t="n">
-        <v>8</v>
-      </c>
-      <c r="V338" t="n">
-        <v>7</v>
-      </c>
-      <c r="W338" t="n">
-        <v>0</v>
-      </c>
-      <c r="X338" t="n">
-        <v>1160</v>
-      </c>
-      <c r="Y338" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z338" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA338" t="n">
-        <v>23738.90163934425</v>
-      </c>
-      <c r="AB338" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC338" t="n">
-        <v>26811630.04297515</v>
-      </c>
-    </row>
-    <row r="339" spans="1:29">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="s">
-        <v>28</v>
-      </c>
-      <c r="C339" t="s">
-        <v>45</v>
-      </c>
-      <c r="D339" t="s">
-        <v>32</v>
-      </c>
-      <c r="E339" t="n">
-        <v>322964.6449990327</v>
-      </c>
-      <c r="F339" t="n">
-        <v>16188.04027584421</v>
-      </c>
-      <c r="G339" t="s"/>
-      <c r="H339" t="n">
-        <v>3229375.285355001</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3229375.285355001</v>
-      </c>
-      <c r="J339" t="n">
-        <v>0</v>
-      </c>
-      <c r="K339" t="n">
-        <v>0</v>
-      </c>
-      <c r="L339" t="n">
-        <v>0</v>
-      </c>
-      <c r="M339" t="n">
-        <v>3250072.266649399</v>
-      </c>
-      <c r="N339" t="n">
-        <v>0</v>
-      </c>
-      <c r="O339" t="s"/>
-      <c r="P339" t="s"/>
-      <c r="Q339" t="n">
-        <v>0</v>
-      </c>
-      <c r="R339" t="n">
-        <v>9787349</v>
-      </c>
-      <c r="S339" t="n">
-        <v>20024435.17669093</v>
-      </c>
-      <c r="T339" t="n">
-        <v>19989468.28851486</v>
-      </c>
-      <c r="U339" t="n">
-        <v>0</v>
-      </c>
-      <c r="V339" t="n">
-        <v>38</v>
-      </c>
-      <c r="W339" t="n">
-        <v>0</v>
-      </c>
-      <c r="X339" t="s"/>
-      <c r="Y339" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z339" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA339" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB339" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC339" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:29">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="s">
-        <v>28</v>
-      </c>
-      <c r="C340" t="s">
-        <v>45</v>
-      </c>
-      <c r="D340" t="s">
-        <v>33</v>
-      </c>
-      <c r="E340" t="n">
-        <v>112241.4167795189</v>
-      </c>
-      <c r="F340" t="n">
-        <v>16188.04027584421</v>
-      </c>
-      <c r="G340" t="s"/>
-      <c r="H340" t="n">
-        <v>1111000</v>
-      </c>
-      <c r="I340" t="n">
-        <v>1111000</v>
-      </c>
-      <c r="J340" t="n">
-        <v>0</v>
-      </c>
-      <c r="K340" t="n">
-        <v>0</v>
-      </c>
-      <c r="L340" t="n">
-        <v>0</v>
-      </c>
-      <c r="M340" t="n">
-        <v>802926.7976818726</v>
-      </c>
-      <c r="N340" t="n">
-        <v>0</v>
-      </c>
-      <c r="O340" t="n">
-        <v>126998.4047359257</v>
-      </c>
-      <c r="P340" t="n">
-        <v>39534.6277334805</v>
-      </c>
-      <c r="Q340" t="n">
-        <v>0</v>
-      </c>
-      <c r="R340" t="n">
-        <v>136000</v>
-      </c>
-      <c r="S340" t="n">
-        <v>13961141.68599544</v>
-      </c>
-      <c r="T340" t="n">
-        <v>13348961.19816857</v>
-      </c>
-      <c r="U340" t="n">
-        <v>0</v>
-      </c>
-      <c r="V340" t="n">
-        <v>24</v>
-      </c>
-      <c r="W340" t="n">
-        <v>0</v>
-      </c>
-      <c r="X340" t="s"/>
-      <c r="Y340" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z340" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA340" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB340" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC340" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/all_in_one.xlsx
+++ b/data/all_in_one.xlsx
@@ -665,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC371"/>
+  <dimension ref="A1:AC381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25856,35 +25856,57 @@
         <v>92</v>
       </c>
       <c r="C307" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D307" t="s">
         <v>71</v>
       </c>
-      <c r="E307" t="s"/>
+      <c r="E307" t="n">
+        <v>17397811</v>
+      </c>
       <c r="F307" t="n">
         <v>0</v>
       </c>
       <c r="G307" t="n">
         <v>0</v>
       </c>
-      <c r="H307" t="s"/>
-      <c r="I307" t="s"/>
+      <c r="H307" t="n">
+        <v>548834610</v>
+      </c>
+      <c r="I307" t="n">
+        <v>548834610</v>
+      </c>
       <c r="J307" t="n">
         <v>0</v>
       </c>
-      <c r="K307" t="s"/>
-      <c r="L307" t="s"/>
-      <c r="M307" t="s"/>
-      <c r="N307" t="s"/>
-      <c r="O307" t="s"/>
-      <c r="P307" t="s"/>
-      <c r="Q307" t="s"/>
-      <c r="R307" t="s"/>
+      <c r="K307" t="n">
+        <v>17397811</v>
+      </c>
+      <c r="L307" t="n">
+        <v>548834610</v>
+      </c>
+      <c r="M307" t="n">
+        <v>548834610</v>
+      </c>
+      <c r="N307" t="n">
+        <v>34795622</v>
+      </c>
+      <c r="O307" t="n">
+        <v>509200227</v>
+      </c>
+      <c r="P307" t="n">
+        <v>259081311</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>5934193975</v>
+      </c>
+      <c r="R307" t="n">
+        <v>7968916977</v>
+      </c>
       <c r="S307" t="s"/>
       <c r="T307" t="s"/>
       <c r="U307" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V307" t="n">
         <v>0</v>
@@ -25892,16 +25914,24 @@
       <c r="W307" t="n">
         <v>0</v>
       </c>
-      <c r="X307" t="s"/>
-      <c r="Y307" t="s"/>
+      <c r="X307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>0</v>
+      </c>
       <c r="Z307" t="n">
         <v>0</v>
       </c>
-      <c r="AA307" t="s"/>
+      <c r="AA307" t="n">
+        <v>82842688084</v>
+      </c>
       <c r="AB307" t="n">
         <v>0</v>
       </c>
-      <c r="AC307" t="s"/>
+      <c r="AC307" t="n">
+        <v>114722494001</v>
+      </c>
     </row>
     <row r="308" spans="1:29">
       <c r="A308" s="1" t="n">
@@ -25911,57 +25941,35 @@
         <v>92</v>
       </c>
       <c r="C308" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D308" t="s">
         <v>71</v>
       </c>
-      <c r="E308" t="n">
-        <v>16298633</v>
-      </c>
+      <c r="E308" t="s"/>
       <c r="F308" t="n">
         <v>0</v>
       </c>
       <c r="G308" t="n">
         <v>0</v>
       </c>
-      <c r="H308" t="n">
-        <v>501092411</v>
-      </c>
-      <c r="I308" t="n">
-        <v>501092411</v>
-      </c>
+      <c r="H308" t="s"/>
+      <c r="I308" t="s"/>
       <c r="J308" t="n">
         <v>0</v>
       </c>
-      <c r="K308" t="n">
-        <v>16298633</v>
-      </c>
-      <c r="L308" t="n">
-        <v>501092411</v>
-      </c>
-      <c r="M308" t="n">
-        <v>501092411</v>
-      </c>
-      <c r="N308" t="n">
-        <v>32597266</v>
-      </c>
-      <c r="O308" t="n">
-        <v>477029410</v>
-      </c>
-      <c r="P308" t="n">
-        <v>320982927</v>
-      </c>
-      <c r="Q308" t="n">
-        <v>5106895151</v>
-      </c>
-      <c r="R308" t="n">
-        <v>6769175857</v>
-      </c>
+      <c r="K308" t="s"/>
+      <c r="L308" t="s"/>
+      <c r="M308" t="s"/>
+      <c r="N308" t="s"/>
+      <c r="O308" t="s"/>
+      <c r="P308" t="s"/>
+      <c r="Q308" t="s"/>
+      <c r="R308" t="s"/>
       <c r="S308" t="s"/>
       <c r="T308" t="s"/>
       <c r="U308" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V308" t="n">
         <v>0</v>
@@ -25969,24 +25977,16 @@
       <c r="W308" t="n">
         <v>0</v>
       </c>
-      <c r="X308" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y308" t="n">
-        <v>0</v>
-      </c>
+      <c r="X308" t="s"/>
+      <c r="Y308" t="s"/>
       <c r="Z308" t="n">
         <v>0</v>
       </c>
-      <c r="AA308" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA308" t="s"/>
       <c r="AB308" t="n">
         <v>0</v>
       </c>
-      <c r="AC308" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC308" t="s"/>
     </row>
     <row r="309" spans="1:29">
       <c r="A309" s="1" t="n">
@@ -25996,13 +25996,13 @@
         <v>92</v>
       </c>
       <c r="C309" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D309" t="s">
         <v>71</v>
       </c>
       <c r="E309" t="n">
-        <v>15754700</v>
+        <v>16298633</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
@@ -26011,46 +26011,42 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="I309" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="J309" t="n">
         <v>0</v>
       </c>
       <c r="K309" t="n">
-        <v>15754700</v>
+        <v>16298633</v>
       </c>
       <c r="L309" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="M309" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="N309" t="n">
-        <v>31509401</v>
+        <v>32597266</v>
       </c>
       <c r="O309" t="n">
-        <v>792283546</v>
+        <v>477029410</v>
       </c>
       <c r="P309" t="n">
-        <v>434200314</v>
+        <v>320982927</v>
       </c>
       <c r="Q309" t="n">
-        <v>5249599242</v>
+        <v>5106895151</v>
       </c>
       <c r="R309" t="n">
-        <v>6951276444</v>
-      </c>
-      <c r="S309" t="n">
-        <v>7554764555</v>
-      </c>
-      <c r="T309" t="n">
-        <v>7813153479</v>
-      </c>
+        <v>6769175857</v>
+      </c>
+      <c r="S309" t="s"/>
+      <c r="T309" t="s"/>
       <c r="U309" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V309" t="n">
         <v>0</v>
@@ -26058,19 +26054,23 @@
       <c r="W309" t="n">
         <v>0</v>
       </c>
-      <c r="X309" t="s"/>
-      <c r="Y309" t="s"/>
+      <c r="X309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>0</v>
+      </c>
       <c r="Z309" t="n">
         <v>0</v>
       </c>
       <c r="AA309" t="n">
-        <v>89000892968</v>
+        <v>0</v>
       </c>
       <c r="AB309" t="n">
         <v>0</v>
       </c>
       <c r="AC309" t="n">
-        <v>121172867607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -26081,13 +26081,13 @@
         <v>92</v>
       </c>
       <c r="C310" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D310" t="s">
         <v>71</v>
       </c>
       <c r="E310" t="n">
-        <v>16926540</v>
+        <v>16900890</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -26096,46 +26096,42 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="I310" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="J310" t="n">
         <v>0</v>
       </c>
       <c r="K310" t="n">
-        <v>16926540</v>
+        <v>16900890</v>
       </c>
       <c r="L310" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="M310" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="N310" t="n">
-        <v>33853080</v>
+        <v>33801781</v>
       </c>
       <c r="O310" t="n">
-        <v>947811829</v>
+        <v>546495304</v>
       </c>
       <c r="P310" t="n">
-        <v>565042549</v>
+        <v>147885783</v>
       </c>
       <c r="Q310" t="n">
-        <v>10597688829</v>
+        <v>4752528609</v>
       </c>
       <c r="R310" t="n">
-        <v>13939495039</v>
-      </c>
-      <c r="S310" t="n">
-        <v>8928166624</v>
-      </c>
-      <c r="T310" t="n">
-        <v>9240030043</v>
-      </c>
+        <v>6938905586</v>
+      </c>
+      <c r="S310" t="s"/>
+      <c r="T310" t="s"/>
       <c r="U310" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V310" t="n">
         <v>0</v>
@@ -26143,20 +26139,16 @@
       <c r="W310" t="n">
         <v>0</v>
       </c>
-      <c r="X310" t="s"/>
-      <c r="Y310" t="s"/>
-      <c r="Z310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA310" t="n">
-        <v>92396036206</v>
-      </c>
-      <c r="AB310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC310" t="n">
-        <v>131597503448</v>
-      </c>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z310" t="s"/>
+      <c r="AA310" t="s"/>
+      <c r="AB310" t="s"/>
+      <c r="AC310" t="s"/>
     </row>
     <row r="311" spans="1:29">
       <c r="A311" s="1" t="n">
@@ -26166,13 +26158,13 @@
         <v>92</v>
       </c>
       <c r="C311" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D311" t="s">
         <v>71</v>
       </c>
       <c r="E311" t="n">
-        <v>16475934</v>
+        <v>15754700</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -26181,43 +26173,43 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="I311" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="J311" t="n">
         <v>0</v>
       </c>
       <c r="K311" t="n">
-        <v>16475934</v>
+        <v>15754700</v>
       </c>
       <c r="L311" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="M311" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="N311" t="n">
-        <v>32951870</v>
+        <v>31509401</v>
       </c>
       <c r="O311" t="n">
-        <v>1042402527</v>
+        <v>792283546</v>
       </c>
       <c r="P311" t="n">
-        <v>668839783</v>
+        <v>434200314</v>
       </c>
       <c r="Q311" t="n">
-        <v>8875774272</v>
+        <v>5249599242</v>
       </c>
       <c r="R311" t="n">
-        <v>11877261285</v>
+        <v>6951276444</v>
       </c>
       <c r="S311" t="n">
-        <v>6810341011</v>
+        <v>7554764555</v>
       </c>
       <c r="T311" t="n">
-        <v>7043135994</v>
+        <v>7813153479</v>
       </c>
       <c r="U311" t="n">
         <v>55</v>
@@ -26234,13 +26226,13 @@
         <v>0</v>
       </c>
       <c r="AA311" t="n">
-        <v>110468864329</v>
+        <v>89000892968</v>
       </c>
       <c r="AB311" t="n">
         <v>0</v>
       </c>
       <c r="AC311" t="n">
-        <v>113296053427</v>
+        <v>121172867607</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -26248,16 +26240,16 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C312" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D312" t="s">
         <v>71</v>
       </c>
       <c r="E312" t="n">
-        <v>3846685</v>
+        <v>16926540</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -26266,70 +26258,66 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>242942916</v>
+        <v>977920506</v>
       </c>
       <c r="I312" t="n">
-        <v>287184772.92</v>
+        <v>977920506</v>
       </c>
       <c r="J312" t="n">
         <v>0</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>16926540</v>
       </c>
       <c r="L312" t="n">
-        <v>242942916</v>
+        <v>977920506</v>
       </c>
       <c r="M312" t="n">
-        <v>242942916</v>
+        <v>977920506</v>
       </c>
       <c r="N312" t="n">
-        <v>0</v>
+        <v>33853080</v>
       </c>
       <c r="O312" t="n">
-        <v>235220891</v>
+        <v>947811829</v>
       </c>
       <c r="P312" t="n">
-        <v>30313530</v>
+        <v>565042549</v>
       </c>
       <c r="Q312" t="n">
-        <v>239794537</v>
+        <v>10597688829</v>
       </c>
       <c r="R312" t="n">
-        <v>1047217339</v>
+        <v>13939495039</v>
       </c>
       <c r="S312" t="n">
-        <v>1836192948</v>
+        <v>8928166624</v>
       </c>
       <c r="T312" t="n">
-        <v>1778760605</v>
+        <v>9240030043</v>
       </c>
       <c r="U312" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="V312" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W312" t="n">
-        <v>2</v>
-      </c>
-      <c r="X312" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y312" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X312" t="s"/>
+      <c r="Y312" t="s"/>
       <c r="Z312" t="n">
         <v>0</v>
       </c>
       <c r="AA312" t="n">
-        <v>0</v>
+        <v>92396036206</v>
       </c>
       <c r="AB312" t="n">
         <v>0</v>
       </c>
       <c r="AC312" t="n">
-        <v>0</v>
+        <v>131597503448</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -26337,16 +26325,16 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D313" t="s">
         <v>71</v>
       </c>
       <c r="E313" t="n">
-        <v>3846685</v>
+        <v>17645384</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -26355,70 +26343,66 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>242942916</v>
+        <v>551485845</v>
       </c>
       <c r="I313" t="n">
-        <v>285194422.5499999</v>
+        <v>551485845</v>
       </c>
       <c r="J313" t="n">
         <v>0</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>17645384</v>
       </c>
       <c r="L313" t="n">
-        <v>242942916</v>
+        <v>551485845</v>
       </c>
       <c r="M313" t="n">
-        <v>242942916</v>
+        <v>551485845</v>
       </c>
       <c r="N313" t="n">
-        <v>0</v>
+        <v>35290769</v>
       </c>
       <c r="O313" t="n">
-        <v>235220891</v>
+        <v>516446222</v>
       </c>
       <c r="P313" t="n">
-        <v>14954318</v>
+        <v>164432948</v>
       </c>
       <c r="Q313" t="n">
-        <v>133556420</v>
+        <v>6163464010</v>
       </c>
       <c r="R313" t="n">
-        <v>675612227</v>
-      </c>
-      <c r="S313" t="n">
-        <v>1067298594</v>
-      </c>
-      <c r="T313" t="n">
-        <v>1038666375</v>
-      </c>
+        <v>8415735615</v>
+      </c>
+      <c r="S313" t="s"/>
+      <c r="T313" t="s"/>
       <c r="U313" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V313" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X313" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z313" t="n">
         <v>0</v>
       </c>
       <c r="AA313" t="n">
-        <v>0</v>
+        <v>82609454875</v>
       </c>
       <c r="AB313" t="n">
         <v>0</v>
       </c>
       <c r="AC313" t="n">
-        <v>0</v>
+        <v>116134430820</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -26426,16 +26410,16 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C314" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D314" t="s">
         <v>71</v>
       </c>
       <c r="E314" t="n">
-        <v>3846685</v>
+        <v>16485977</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -26444,70 +26428,66 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>242528553</v>
+        <v>365120597</v>
       </c>
       <c r="I314" t="n">
-        <v>270292992.6999999</v>
+        <v>365120597</v>
       </c>
       <c r="J314" t="n">
         <v>0</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>16485977</v>
       </c>
       <c r="L314" t="n">
-        <v>242528553</v>
+        <v>365120597</v>
       </c>
       <c r="M314" t="n">
-        <v>242528553</v>
+        <v>365120597</v>
       </c>
       <c r="N314" t="n">
-        <v>0</v>
+        <v>32971955</v>
       </c>
       <c r="O314" t="n">
-        <v>235220891</v>
+        <v>301324811</v>
       </c>
       <c r="P314" t="n">
-        <v>33325334</v>
+        <v>78399071</v>
       </c>
       <c r="Q314" t="n">
-        <v>178762698</v>
+        <v>5319094853</v>
       </c>
       <c r="R314" t="n">
-        <v>803769572</v>
-      </c>
-      <c r="S314" t="n">
-        <v>1063077923</v>
-      </c>
-      <c r="T314" t="n">
-        <v>1032831831</v>
-      </c>
+        <v>7036339113</v>
+      </c>
+      <c r="S314" t="s"/>
+      <c r="T314" t="s"/>
       <c r="U314" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V314" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X314" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z314" t="n">
         <v>0</v>
       </c>
       <c r="AA314" t="n">
-        <v>0</v>
+        <v>65415159603</v>
       </c>
       <c r="AB314" t="n">
         <v>0</v>
       </c>
       <c r="AC314" t="n">
-        <v>0</v>
+        <v>104909491918</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -26515,16 +26495,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C315" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D315" t="s">
         <v>71</v>
       </c>
       <c r="E315" t="n">
-        <v>4744190</v>
+        <v>16161616</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -26533,70 +26513,66 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>157964359</v>
+        <v>357096210</v>
       </c>
       <c r="I315" t="n">
-        <v>180481495</v>
+        <v>357096210</v>
       </c>
       <c r="J315" t="n">
         <v>0</v>
       </c>
       <c r="K315" t="n">
-        <v>0</v>
+        <v>16161616</v>
       </c>
       <c r="L315" t="n">
-        <v>157964359</v>
+        <v>357096210</v>
       </c>
       <c r="M315" t="n">
-        <v>157964359</v>
+        <v>357096210</v>
       </c>
       <c r="N315" t="n">
-        <v>0</v>
+        <v>32323232</v>
       </c>
       <c r="O315" t="n">
-        <v>269965560</v>
+        <v>522590635</v>
       </c>
       <c r="P315" t="n">
-        <v>29784055</v>
+        <v>97209359</v>
       </c>
       <c r="Q315" t="n">
-        <v>188108000</v>
+        <v>3264109832</v>
       </c>
       <c r="R315" t="n">
-        <v>850641528</v>
-      </c>
-      <c r="S315" t="n">
-        <v>1282568518</v>
-      </c>
-      <c r="T315" t="n">
-        <v>1254901781</v>
-      </c>
+        <v>6926202563</v>
+      </c>
+      <c r="S315" t="s"/>
+      <c r="T315" t="s"/>
       <c r="U315" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V315" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X315" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z315" t="n">
-        <v>2428575498</v>
+        <v>0</v>
       </c>
       <c r="AA315" t="n">
-        <v>36806755951</v>
+        <v>64641647449</v>
       </c>
       <c r="AB315" t="n">
-        <v>5675025323</v>
+        <v>0</v>
       </c>
       <c r="AC315" t="n">
-        <v>108073753298</v>
+        <v>90777407285</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -26604,16 +26580,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C316" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D316" t="s">
         <v>71</v>
       </c>
       <c r="E316" t="n">
-        <v>2769512</v>
+        <v>16573590</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -26622,78 +26598,66 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>244073947</v>
+        <v>366999353</v>
       </c>
       <c r="I316" t="n">
-        <v>262380673.5899999</v>
+        <v>366999353</v>
       </c>
       <c r="J316" t="n">
         <v>0</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>16573590</v>
       </c>
       <c r="L316" t="n">
-        <v>244073947</v>
+        <v>366999353</v>
       </c>
       <c r="M316" t="n">
-        <v>244073947</v>
+        <v>366999353</v>
       </c>
       <c r="N316" t="n">
-        <v>0</v>
+        <v>33147180</v>
       </c>
       <c r="O316" t="n">
-        <v>235220891</v>
+        <v>153584007</v>
       </c>
       <c r="P316" t="n">
-        <v>37541836</v>
+        <v>45943264</v>
       </c>
       <c r="Q316" t="n">
-        <v>83881525</v>
+        <v>4732106415</v>
       </c>
       <c r="R316" t="n">
-        <v>294857289</v>
-      </c>
-      <c r="S316" t="n">
-        <v>802068450</v>
-      </c>
-      <c r="T316" t="n">
-        <v>773035212</v>
-      </c>
+        <v>6636147149</v>
+      </c>
+      <c r="S316" t="s"/>
+      <c r="T316" t="s"/>
       <c r="U316" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V316" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X316" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y316" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z316" t="s"/>
+      <c r="AA316" t="s"/>
+      <c r="AB316" t="s"/>
+      <c r="AC316" t="s"/>
     </row>
     <row r="317" spans="1:29">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C317" t="s">
         <v>45</v>
@@ -26702,7 +26666,7 @@
         <v>71</v>
       </c>
       <c r="E317" t="n">
-        <v>4744190</v>
+        <v>16475934</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -26711,70 +26675,66 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>190462315</v>
+        <v>1148619746</v>
       </c>
       <c r="I317" t="n">
-        <v>213499824</v>
+        <v>1148619746</v>
       </c>
       <c r="J317" t="n">
         <v>0</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>16475934</v>
       </c>
       <c r="L317" t="n">
-        <v>190462315</v>
+        <v>1148619746</v>
       </c>
       <c r="M317" t="n">
-        <v>190462315</v>
+        <v>1148619746</v>
       </c>
       <c r="N317" t="n">
-        <v>0</v>
+        <v>32951870</v>
       </c>
       <c r="O317" t="n">
-        <v>213944351</v>
+        <v>1042402527</v>
       </c>
       <c r="P317" t="n">
-        <v>26535467</v>
+        <v>668839783</v>
       </c>
       <c r="Q317" t="n">
-        <v>208385879</v>
+        <v>8875774272</v>
       </c>
       <c r="R317" t="n">
-        <v>994014591</v>
+        <v>11877261285</v>
       </c>
       <c r="S317" t="n">
-        <v>844848721</v>
+        <v>6810341011</v>
       </c>
       <c r="T317" t="n">
-        <v>827460707</v>
+        <v>7043135994</v>
       </c>
       <c r="U317" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="V317" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W317" t="n">
-        <v>2</v>
-      </c>
-      <c r="X317" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y317" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X317" t="s"/>
+      <c r="Y317" t="s"/>
       <c r="Z317" t="n">
         <v>0</v>
       </c>
       <c r="AA317" t="n">
-        <v>0</v>
+        <v>110468864329</v>
       </c>
       <c r="AB317" t="n">
         <v>0</v>
       </c>
       <c r="AC317" t="n">
-        <v>0</v>
+        <v>113296053427</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -26785,13 +26745,13 @@
         <v>93</v>
       </c>
       <c r="C318" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D318" t="s">
         <v>71</v>
       </c>
       <c r="E318" t="n">
-        <v>4335767</v>
+        <v>3846685</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -26800,10 +26760,10 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>240284920</v>
+        <v>242942916</v>
       </c>
       <c r="I318" t="n">
-        <v>267909101</v>
+        <v>287184772.92</v>
       </c>
       <c r="J318" t="n">
         <v>0</v>
@@ -26812,34 +26772,34 @@
         <v>0</v>
       </c>
       <c r="L318" t="n">
-        <v>240284920</v>
+        <v>242942916</v>
       </c>
       <c r="M318" t="n">
-        <v>240284920</v>
+        <v>242942916</v>
       </c>
       <c r="N318" t="n">
         <v>0</v>
       </c>
       <c r="O318" t="n">
-        <v>370196170</v>
+        <v>235220891</v>
       </c>
       <c r="P318" t="n">
-        <v>19658432</v>
+        <v>30313530</v>
       </c>
       <c r="Q318" t="n">
-        <v>221339132</v>
+        <v>239794537</v>
       </c>
       <c r="R318" t="n">
-        <v>846097596</v>
+        <v>1047217339</v>
       </c>
       <c r="S318" t="n">
-        <v>1251467996</v>
+        <v>1836192948</v>
       </c>
       <c r="T318" t="n">
-        <v>1210872705</v>
+        <v>1778760605</v>
       </c>
       <c r="U318" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V318" t="n">
         <v>25</v>
@@ -26848,7 +26808,7 @@
         <v>2</v>
       </c>
       <c r="X318" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y318" t="n">
         <v>2</v>
@@ -26874,13 +26834,13 @@
         <v>93</v>
       </c>
       <c r="C319" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D319" t="s">
         <v>71</v>
       </c>
       <c r="E319" t="n">
-        <v>4335767</v>
+        <v>3846685</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -26889,10 +26849,10 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>240284920</v>
+        <v>242942916</v>
       </c>
       <c r="I319" t="n">
-        <v>256385208</v>
+        <v>285194422.5499999</v>
       </c>
       <c r="J319" t="n">
         <v>0</v>
@@ -26901,42 +26861,46 @@
         <v>0</v>
       </c>
       <c r="L319" t="n">
-        <v>240284920</v>
+        <v>242942916</v>
       </c>
       <c r="M319" t="n">
-        <v>240284920</v>
+        <v>242942916</v>
       </c>
       <c r="N319" t="n">
         <v>0</v>
       </c>
       <c r="O319" t="n">
-        <v>138707696</v>
+        <v>235220891</v>
       </c>
       <c r="P319" t="n">
-        <v>23382070</v>
-      </c>
-      <c r="Q319" t="s"/>
-      <c r="R319" t="s"/>
+        <v>14954318</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>133556420</v>
+      </c>
+      <c r="R319" t="n">
+        <v>675612227</v>
+      </c>
       <c r="S319" t="n">
-        <v>1058682135</v>
+        <v>1067298594</v>
       </c>
       <c r="T319" t="n">
-        <v>1034850145</v>
+        <v>1038666375</v>
       </c>
       <c r="U319" t="n">
         <v>21</v>
       </c>
       <c r="V319" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W319" t="n">
         <v>2</v>
       </c>
       <c r="X319" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z319" t="n">
         <v>0</v>
@@ -26959,13 +26923,13 @@
         <v>93</v>
       </c>
       <c r="C320" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D320" t="s">
         <v>71</v>
       </c>
       <c r="E320" t="n">
-        <v>4335767</v>
+        <v>3846685</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -26974,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>240284920</v>
+        <v>242528553</v>
       </c>
       <c r="I320" t="n">
-        <v>260067319</v>
+        <v>270292992.6999999</v>
       </c>
       <c r="J320" t="n">
         <v>0</v>
@@ -26986,46 +26950,46 @@
         <v>0</v>
       </c>
       <c r="L320" t="n">
-        <v>240284920</v>
+        <v>242528553</v>
       </c>
       <c r="M320" t="n">
-        <v>240284920</v>
+        <v>242528553</v>
       </c>
       <c r="N320" t="n">
         <v>0</v>
       </c>
       <c r="O320" t="n">
-        <v>138707696</v>
+        <v>235220891</v>
       </c>
       <c r="P320" t="n">
-        <v>22551188</v>
+        <v>33325334</v>
       </c>
       <c r="Q320" t="n">
-        <v>194780877</v>
+        <v>178762698</v>
       </c>
       <c r="R320" t="n">
-        <v>872847677</v>
+        <v>803769572</v>
       </c>
       <c r="S320" t="n">
-        <v>1625490516</v>
+        <v>1063077923</v>
       </c>
       <c r="T320" t="n">
-        <v>1603086851</v>
+        <v>1032831831</v>
       </c>
       <c r="U320" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V320" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W320" t="n">
         <v>2</v>
       </c>
       <c r="X320" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z320" t="n">
         <v>0</v>
@@ -27048,13 +27012,13 @@
         <v>93</v>
       </c>
       <c r="C321" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D321" t="s">
         <v>71</v>
       </c>
       <c r="E321" t="n">
-        <v>4335767</v>
+        <v>4744190</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
@@ -27063,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>240284920</v>
+        <v>157964359</v>
       </c>
       <c r="I321" t="n">
-        <v>264777735</v>
+        <v>180481495</v>
       </c>
       <c r="J321" t="n">
         <v>0</v>
@@ -27075,58 +27039,58 @@
         <v>0</v>
       </c>
       <c r="L321" t="n">
-        <v>240284920</v>
+        <v>157964359</v>
       </c>
       <c r="M321" t="n">
-        <v>240284920</v>
+        <v>157964359</v>
       </c>
       <c r="N321" t="n">
         <v>0</v>
       </c>
       <c r="O321" t="n">
-        <v>138707696</v>
+        <v>269965560</v>
       </c>
       <c r="P321" t="n">
-        <v>21070119</v>
+        <v>29784055</v>
       </c>
       <c r="Q321" t="n">
-        <v>182874460</v>
+        <v>188108000</v>
       </c>
       <c r="R321" t="n">
-        <v>946192578</v>
+        <v>850641528</v>
       </c>
       <c r="S321" t="n">
-        <v>1547953029</v>
+        <v>1282568518</v>
       </c>
       <c r="T321" t="n">
-        <v>1522798773</v>
+        <v>1254901781</v>
       </c>
       <c r="U321" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V321" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W321" t="n">
         <v>2</v>
       </c>
       <c r="X321" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z321" t="n">
-        <v>0</v>
+        <v>2428575498</v>
       </c>
       <c r="AA321" t="n">
-        <v>0</v>
+        <v>36806755951</v>
       </c>
       <c r="AB321" t="n">
-        <v>0</v>
+        <v>5675025323</v>
       </c>
       <c r="AC321" t="n">
-        <v>0</v>
+        <v>108073753298</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -27137,13 +27101,13 @@
         <v>93</v>
       </c>
       <c r="C322" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D322" t="s">
         <v>71</v>
       </c>
       <c r="E322" t="n">
-        <v>3846685</v>
+        <v>2769512</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
@@ -27152,10 +27116,10 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>177002315</v>
+        <v>244073947</v>
       </c>
       <c r="I322" t="n">
-        <v>222260469</v>
+        <v>262380673.5899999</v>
       </c>
       <c r="J322" t="n">
         <v>0</v>
@@ -27164,43 +27128,43 @@
         <v>0</v>
       </c>
       <c r="L322" t="n">
-        <v>177002315</v>
+        <v>244073947</v>
       </c>
       <c r="M322" t="n">
-        <v>177002315</v>
+        <v>244073947</v>
       </c>
       <c r="N322" t="n">
         <v>0</v>
       </c>
       <c r="O322" t="n">
-        <v>370196170</v>
+        <v>235220891</v>
       </c>
       <c r="P322" t="n">
-        <v>20892864</v>
+        <v>37541836</v>
       </c>
       <c r="Q322" t="n">
-        <v>93251388</v>
+        <v>83881525</v>
       </c>
       <c r="R322" t="n">
-        <v>373136740</v>
+        <v>294857289</v>
       </c>
       <c r="S322" t="n">
-        <v>812792061</v>
+        <v>802068450</v>
       </c>
       <c r="T322" t="n">
-        <v>784831013</v>
+        <v>773035212</v>
       </c>
       <c r="U322" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V322" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W322" t="n">
         <v>2</v>
       </c>
       <c r="X322" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y322" t="n">
         <v>2</v>
@@ -27223,80 +27187,88 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C323" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D323" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E323" t="n">
-        <v>3222184.32</v>
-      </c>
-      <c r="F323" t="s"/>
-      <c r="G323" t="s"/>
+        <v>4744190</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
       <c r="H323" t="n">
-        <v>1103002000</v>
+        <v>190462315</v>
       </c>
       <c r="I323" t="n">
-        <v>1103002000</v>
-      </c>
-      <c r="J323" t="s"/>
+        <v>213499824</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
       <c r="K323" t="n">
-        <v>3222184.32</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
-        <v>1103002000</v>
+        <v>190462315</v>
       </c>
       <c r="M323" t="n">
-        <v>1103002000</v>
-      </c>
-      <c r="N323" t="s"/>
+        <v>190462315</v>
+      </c>
+      <c r="N323" t="n">
+        <v>0</v>
+      </c>
       <c r="O323" t="n">
-        <v>1107757763</v>
+        <v>213944351</v>
       </c>
       <c r="P323" t="n">
-        <v>626276199</v>
+        <v>26535467</v>
       </c>
       <c r="Q323" t="n">
-        <v>1919462566.44</v>
+        <v>208385879</v>
       </c>
       <c r="R323" t="n">
-        <v>2811965914.36</v>
+        <v>994014591</v>
       </c>
       <c r="S323" t="n">
-        <v>0</v>
+        <v>844848721</v>
       </c>
       <c r="T323" t="n">
-        <v>0</v>
+        <v>827460707</v>
       </c>
       <c r="U323" t="n">
+        <v>20</v>
+      </c>
+      <c r="V323" t="n">
+        <v>27</v>
+      </c>
+      <c r="W323" t="n">
+        <v>2</v>
+      </c>
+      <c r="X323" t="n">
         <v>30</v>
       </c>
-      <c r="V323" t="n">
-        <v>18</v>
-      </c>
-      <c r="W323" t="n">
-        <v>0</v>
-      </c>
-      <c r="X323" t="n">
-        <v>57</v>
-      </c>
       <c r="Y323" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Z323" t="n">
         <v>0</v>
       </c>
       <c r="AA323" t="n">
-        <v>79858812500</v>
+        <v>0</v>
       </c>
       <c r="AB323" t="n">
         <v>0</v>
       </c>
       <c r="AC323" t="n">
-        <v>19632093418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -27304,80 +27276,88 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C324" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D324" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E324" t="n">
-        <v>13443302.56</v>
-      </c>
-      <c r="F324" t="s"/>
-      <c r="G324" t="s"/>
+        <v>4335767</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
       <c r="H324" t="n">
-        <v>4601844000</v>
+        <v>240284920</v>
       </c>
       <c r="I324" t="n">
-        <v>4601844000</v>
-      </c>
-      <c r="J324" t="s"/>
+        <v>267909101</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
       <c r="K324" t="n">
-        <v>13443302.56</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
-        <v>4601844000</v>
+        <v>240284920</v>
       </c>
       <c r="M324" t="n">
-        <v>4601844000</v>
-      </c>
-      <c r="N324" t="s"/>
+        <v>240284920</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
       <c r="O324" t="n">
-        <v>3029628157</v>
+        <v>370196170</v>
       </c>
       <c r="P324" t="n">
-        <v>1591376420</v>
+        <v>19658432</v>
       </c>
       <c r="Q324" t="n">
-        <v>184297784.32</v>
+        <v>221339132</v>
       </c>
       <c r="R324" t="n">
-        <v>7188593312.65</v>
+        <v>846097596</v>
       </c>
       <c r="S324" t="n">
-        <v>0</v>
+        <v>1251467996</v>
       </c>
       <c r="T324" t="n">
-        <v>0</v>
+        <v>1210872705</v>
       </c>
       <c r="U324" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V324" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="W324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X324" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y324" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Z324" t="n">
         <v>0</v>
       </c>
       <c r="AA324" t="n">
-        <v>2442422657</v>
+        <v>0</v>
       </c>
       <c r="AB324" t="n">
         <v>0</v>
       </c>
       <c r="AC324" t="n">
-        <v>561212312286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -27385,80 +27365,84 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C325" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D325" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E325" t="n">
-        <v>31871.23</v>
-      </c>
-      <c r="F325" t="s"/>
-      <c r="G325" t="s"/>
+        <v>4335767</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
       <c r="H325" t="n">
-        <v>10910000</v>
+        <v>240284920</v>
       </c>
       <c r="I325" t="n">
-        <v>10910000</v>
-      </c>
-      <c r="J325" t="s"/>
+        <v>256385208</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
       <c r="K325" t="n">
-        <v>31871.23</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
-        <v>10910000</v>
+        <v>240284920</v>
       </c>
       <c r="M325" t="n">
-        <v>10910000</v>
-      </c>
-      <c r="N325" t="s"/>
+        <v>240284920</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0</v>
+      </c>
       <c r="O325" t="n">
-        <v>8594119</v>
+        <v>138707696</v>
       </c>
       <c r="P325" t="n">
-        <v>3245537</v>
-      </c>
-      <c r="Q325" t="n">
-        <v>15081149.1</v>
-      </c>
-      <c r="R325" t="n">
-        <v>15298371.59</v>
-      </c>
+        <v>23382070</v>
+      </c>
+      <c r="Q325" t="s"/>
+      <c r="R325" t="s"/>
       <c r="S325" t="n">
-        <v>0</v>
+        <v>1058682135</v>
       </c>
       <c r="T325" t="n">
-        <v>0</v>
+        <v>1034850145</v>
       </c>
       <c r="U325" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="V325" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X325" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Y325" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z325" t="n">
         <v>0</v>
       </c>
       <c r="AA325" t="n">
-        <v>6538289139</v>
+        <v>0</v>
       </c>
       <c r="AB325" t="n">
         <v>0</v>
       </c>
       <c r="AC325" t="n">
-        <v>209601893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -27466,80 +27450,88 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C326" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D326" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E326" t="n">
-        <v>736.15</v>
-      </c>
-      <c r="F326" t="s"/>
-      <c r="G326" t="s"/>
+        <v>4335767</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0</v>
+      </c>
       <c r="H326" t="n">
-        <v>252000</v>
+        <v>240284920</v>
       </c>
       <c r="I326" t="n">
-        <v>252000</v>
-      </c>
-      <c r="J326" t="s"/>
+        <v>260067319</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
       <c r="K326" t="n">
-        <v>736.15</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
-        <v>252000</v>
+        <v>240284920</v>
       </c>
       <c r="M326" t="n">
-        <v>252000</v>
-      </c>
-      <c r="N326" t="s"/>
+        <v>240284920</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
       <c r="O326" t="n">
-        <v>1028000</v>
+        <v>138707696</v>
       </c>
       <c r="P326" t="n">
-        <v>570071</v>
+        <v>22551188</v>
       </c>
       <c r="Q326" t="n">
-        <v>274664.24</v>
+        <v>194780877</v>
       </c>
       <c r="R326" t="n">
-        <v>279956.24</v>
+        <v>872847677</v>
       </c>
       <c r="S326" t="n">
-        <v>0</v>
+        <v>1625490516</v>
       </c>
       <c r="T326" t="n">
-        <v>0</v>
+        <v>1603086851</v>
       </c>
       <c r="U326" t="n">
+        <v>21</v>
+      </c>
+      <c r="V326" t="n">
+        <v>27</v>
+      </c>
+      <c r="W326" t="n">
+        <v>2</v>
+      </c>
+      <c r="X326" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y326" t="n">
         <v>3</v>
       </c>
-      <c r="V326" t="n">
-        <v>0</v>
-      </c>
-      <c r="W326" t="n">
-        <v>0</v>
-      </c>
-      <c r="X326" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y326" t="n">
-        <v>1</v>
-      </c>
       <c r="Z326" t="n">
         <v>0</v>
       </c>
       <c r="AA326" t="n">
-        <v>3391229</v>
+        <v>0</v>
       </c>
       <c r="AB326" t="n">
         <v>0</v>
       </c>
       <c r="AC326" t="n">
-        <v>1777500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -27547,80 +27539,88 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C327" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D327" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E327" t="n">
-        <v>4085555.22</v>
-      </c>
-      <c r="F327" t="s"/>
-      <c r="G327" t="s"/>
+        <v>4335767</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
       <c r="H327" t="n">
-        <v>902409000</v>
+        <v>240284920</v>
       </c>
       <c r="I327" t="n">
-        <v>902409000</v>
-      </c>
-      <c r="J327" t="s"/>
+        <v>264777735</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
       <c r="K327" t="n">
-        <v>4085555.22</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
-        <v>1353613500</v>
+        <v>240284920</v>
       </c>
       <c r="M327" t="n">
-        <v>902409000</v>
-      </c>
-      <c r="N327" t="s"/>
+        <v>240284920</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
       <c r="O327" t="n">
-        <v>1254031199</v>
+        <v>138707696</v>
       </c>
       <c r="P327" t="n">
-        <v>567614642.09</v>
+        <v>21070119</v>
       </c>
       <c r="Q327" t="n">
-        <v>1404587249.99</v>
+        <v>182874460</v>
       </c>
       <c r="R327" t="n">
-        <v>1952558302.67</v>
+        <v>946192578</v>
       </c>
       <c r="S327" t="n">
-        <v>1757107772.4</v>
+        <v>1547953029</v>
       </c>
       <c r="T327" t="n">
-        <v>1737728310.19</v>
+        <v>1522798773</v>
       </c>
       <c r="U327" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="V327" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="W327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X327" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Y327" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Z327" t="n">
         <v>0</v>
       </c>
       <c r="AA327" t="n">
-        <v>69173053846</v>
+        <v>0</v>
       </c>
       <c r="AB327" t="n">
         <v>0</v>
       </c>
       <c r="AC327" t="n">
-        <v>22756699595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -27628,80 +27628,88 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C328" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D328" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E328" t="n">
-        <v>14951253.5</v>
-      </c>
-      <c r="F328" t="s"/>
-      <c r="G328" t="s"/>
+        <v>3846685</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0</v>
+      </c>
       <c r="H328" t="n">
-        <v>3302402000</v>
+        <v>177002315</v>
       </c>
       <c r="I328" t="n">
-        <v>3302402000</v>
-      </c>
-      <c r="J328" t="s"/>
+        <v>222260469</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
       <c r="K328" t="n">
-        <v>14951253.5</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
-        <v>4953603000</v>
+        <v>177002315</v>
       </c>
       <c r="M328" t="n">
-        <v>3302402000</v>
-      </c>
-      <c r="N328" t="s"/>
+        <v>177002315</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
       <c r="O328" t="n">
-        <v>3343743355</v>
+        <v>370196170</v>
       </c>
       <c r="P328" t="n">
-        <v>1940217957.61</v>
+        <v>20892864</v>
       </c>
       <c r="Q328" t="n">
-        <v>136757784.85</v>
+        <v>93251388</v>
       </c>
       <c r="R328" t="n">
-        <v>7013904887.44</v>
+        <v>373136740</v>
       </c>
       <c r="S328" t="n">
-        <v>6430206504.8</v>
+        <v>812792061</v>
       </c>
       <c r="T328" t="n">
-        <v>6359286584.04</v>
+        <v>784831013</v>
       </c>
       <c r="U328" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V328" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="W328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X328" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y328" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z328" t="n">
         <v>0</v>
       </c>
       <c r="AA328" t="n">
-        <v>1258155995</v>
+        <v>0</v>
       </c>
       <c r="AB328" t="n">
         <v>0</v>
       </c>
       <c r="AC328" t="n">
-        <v>547956314807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -27712,77 +27720,77 @@
         <v>94</v>
       </c>
       <c r="C329" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D329" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E329" t="n">
-        <v>42652.52</v>
+        <v>3222184.32</v>
       </c>
       <c r="F329" t="s"/>
       <c r="G329" t="s"/>
       <c r="H329" t="n">
-        <v>9421000</v>
+        <v>1103002000</v>
       </c>
       <c r="I329" t="n">
-        <v>9421000</v>
+        <v>1103002000</v>
       </c>
       <c r="J329" t="s"/>
       <c r="K329" t="n">
-        <v>42652.52</v>
+        <v>3222184.32</v>
       </c>
       <c r="L329" t="n">
-        <v>14131500</v>
+        <v>1103002000</v>
       </c>
       <c r="M329" t="n">
-        <v>9421000</v>
+        <v>1103002000</v>
       </c>
       <c r="N329" t="s"/>
       <c r="O329" t="n">
-        <v>10150219</v>
+        <v>1107757763</v>
       </c>
       <c r="P329" t="n">
-        <v>4501327.22</v>
+        <v>626276199</v>
       </c>
       <c r="Q329" t="n">
-        <v>8552118.640000001</v>
+        <v>1919462566.44</v>
       </c>
       <c r="R329" t="n">
-        <v>8584774.07</v>
+        <v>2811965914.36</v>
       </c>
       <c r="S329" t="n">
-        <v>18343913.15</v>
+        <v>0</v>
       </c>
       <c r="T329" t="n">
-        <v>18141594.79</v>
+        <v>0</v>
       </c>
       <c r="U329" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="V329" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W329" t="n">
         <v>0</v>
       </c>
       <c r="X329" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="Y329" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z329" t="n">
         <v>0</v>
       </c>
       <c r="AA329" t="n">
-        <v>5374051735</v>
+        <v>79858812500</v>
       </c>
       <c r="AB329" t="n">
         <v>0</v>
       </c>
       <c r="AC329" t="n">
-        <v>100310733</v>
+        <v>19632093418</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -27793,77 +27801,77 @@
         <v>94</v>
       </c>
       <c r="C330" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D330" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E330" t="n">
-        <v>1199.76</v>
+        <v>13443302.56</v>
       </c>
       <c r="F330" t="s"/>
       <c r="G330" t="s"/>
       <c r="H330" t="n">
-        <v>265000</v>
+        <v>4601844000</v>
       </c>
       <c r="I330" t="n">
-        <v>265000</v>
+        <v>4601844000</v>
       </c>
       <c r="J330" t="s"/>
       <c r="K330" t="n">
-        <v>1199.76</v>
+        <v>13443302.56</v>
       </c>
       <c r="L330" t="n">
-        <v>397500</v>
+        <v>4601844000</v>
       </c>
       <c r="M330" t="n">
-        <v>265000</v>
+        <v>4601844000</v>
       </c>
       <c r="N330" t="s"/>
       <c r="O330" t="n">
-        <v>141652.37</v>
+        <v>3029628157</v>
       </c>
       <c r="P330" t="n">
-        <v>28000.48</v>
+        <v>1591376420</v>
       </c>
       <c r="Q330" t="n">
-        <v>12346.12</v>
+        <v>184297784.32</v>
       </c>
       <c r="R330" t="n">
-        <v>12346.12</v>
+        <v>7188593312.65</v>
       </c>
       <c r="S330" t="n">
-        <v>515989.49</v>
+        <v>0</v>
       </c>
       <c r="T330" t="n">
-        <v>510298.55</v>
+        <v>0</v>
       </c>
       <c r="U330" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="V330" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X330" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="Y330" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z330" t="n">
         <v>0</v>
       </c>
       <c r="AA330" t="n">
-        <v>865728</v>
+        <v>2442422657</v>
       </c>
       <c r="AB330" t="n">
         <v>0</v>
       </c>
       <c r="AC330" t="n">
-        <v>67650</v>
+        <v>561212312286</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -27874,77 +27882,77 @@
         <v>94</v>
       </c>
       <c r="C331" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D331" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E331" t="n">
-        <v>4801123.36</v>
+        <v>31871.23</v>
       </c>
       <c r="F331" t="s"/>
       <c r="G331" t="s"/>
       <c r="H331" t="n">
-        <v>1302433000</v>
+        <v>10910000</v>
       </c>
       <c r="I331" t="n">
-        <v>1302433000</v>
+        <v>10910000</v>
       </c>
       <c r="J331" t="s"/>
       <c r="K331" t="n">
-        <v>4801123.36</v>
+        <v>31871.23</v>
       </c>
       <c r="L331" t="n">
-        <v>1953649500</v>
+        <v>10910000</v>
       </c>
       <c r="M331" t="n">
-        <v>1302433000</v>
+        <v>10910000</v>
       </c>
       <c r="N331" t="s"/>
       <c r="O331" t="n">
-        <v>141652.37</v>
+        <v>8594119</v>
       </c>
       <c r="P331" t="n">
-        <v>17906.56</v>
+        <v>3245537</v>
       </c>
       <c r="Q331" t="n">
-        <v>1513629392.48</v>
+        <v>15081149.1</v>
       </c>
       <c r="R331" t="n">
-        <v>2026555220.68</v>
+        <v>15298371.59</v>
       </c>
       <c r="S331" t="n">
-        <v>2157548736.87</v>
+        <v>0</v>
       </c>
       <c r="T331" t="n">
-        <v>1945862118.95</v>
+        <v>0</v>
       </c>
       <c r="U331" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="V331" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W331" t="n">
         <v>0</v>
       </c>
       <c r="X331" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Y331" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Z331" t="n">
         <v>0</v>
       </c>
       <c r="AA331" t="n">
-        <v>92012103174</v>
+        <v>6538289139</v>
       </c>
       <c r="AB331" t="n">
         <v>0</v>
       </c>
       <c r="AC331" t="n">
-        <v>20491291167</v>
+        <v>209601893</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -27955,73 +27963,77 @@
         <v>94</v>
       </c>
       <c r="C332" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D332" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E332" t="n">
-        <v>14015047.07</v>
+        <v>736.15</v>
       </c>
       <c r="F332" t="s"/>
       <c r="G332" t="s"/>
       <c r="H332" t="n">
-        <v>3801956000</v>
+        <v>252000</v>
       </c>
       <c r="I332" t="n">
-        <v>3801956000</v>
+        <v>252000</v>
       </c>
       <c r="J332" t="s"/>
       <c r="K332" t="n">
-        <v>14015047.07</v>
+        <v>736.15</v>
       </c>
       <c r="L332" t="n">
-        <v>5702934000</v>
+        <v>252000</v>
       </c>
       <c r="M332" t="n">
-        <v>3801956000</v>
+        <v>252000</v>
       </c>
       <c r="N332" t="s"/>
-      <c r="O332" t="s"/>
-      <c r="P332" t="s"/>
+      <c r="O332" t="n">
+        <v>1028000</v>
+      </c>
+      <c r="P332" t="n">
+        <v>570071</v>
+      </c>
       <c r="Q332" t="n">
-        <v>115114476.78</v>
+        <v>274664.24</v>
       </c>
       <c r="R332" t="n">
-        <v>7324403798.54</v>
+        <v>279956.24</v>
       </c>
       <c r="S332" t="n">
-        <v>6298139992.94</v>
+        <v>0</v>
       </c>
       <c r="T332" t="n">
-        <v>5680201713.5</v>
+        <v>0</v>
       </c>
       <c r="U332" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V332" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="W332" t="n">
         <v>0</v>
       </c>
       <c r="X332" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Y332" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z332" t="n">
         <v>0</v>
       </c>
       <c r="AA332" t="n">
-        <v>1561284611</v>
+        <v>3391229</v>
       </c>
       <c r="AB332" t="n">
         <v>0</v>
       </c>
       <c r="AC332" t="n">
-        <v>438697667062</v>
+        <v>1777500</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -28032,73 +28044,77 @@
         <v>94</v>
       </c>
       <c r="C333" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D333" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E333" t="n">
-        <v>42108.29</v>
+        <v>4085555.22</v>
       </c>
       <c r="F333" t="s"/>
       <c r="G333" t="s"/>
       <c r="H333" t="n">
-        <v>11423000</v>
+        <v>902409000</v>
       </c>
       <c r="I333" t="n">
-        <v>11423000</v>
+        <v>902409000</v>
       </c>
       <c r="J333" t="s"/>
       <c r="K333" t="n">
-        <v>42108.29</v>
+        <v>4085555.22</v>
       </c>
       <c r="L333" t="n">
-        <v>17134500</v>
+        <v>1353613500</v>
       </c>
       <c r="M333" t="n">
-        <v>11423000</v>
+        <v>902409000</v>
       </c>
       <c r="N333" t="s"/>
-      <c r="O333" t="s"/>
-      <c r="P333" t="s"/>
+      <c r="O333" t="n">
+        <v>1254031199</v>
+      </c>
+      <c r="P333" t="n">
+        <v>567614642.09</v>
+      </c>
       <c r="Q333" t="n">
-        <v>3736081.03</v>
+        <v>1404587249.99</v>
       </c>
       <c r="R333" t="n">
-        <v>3736081.03</v>
+        <v>1952558302.67</v>
       </c>
       <c r="S333" t="n">
-        <v>18922800.04</v>
+        <v>1757107772.4</v>
       </c>
       <c r="T333" t="n">
-        <v>17066200.71</v>
+        <v>1737728310.19</v>
       </c>
       <c r="U333" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V333" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W333" t="n">
         <v>0</v>
       </c>
       <c r="X333" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="Y333" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z333" t="n">
         <v>0</v>
       </c>
       <c r="AA333" t="n">
-        <v>6043214318</v>
+        <v>69173053846</v>
       </c>
       <c r="AB333" t="n">
         <v>0</v>
       </c>
       <c r="AC333" t="n">
-        <v>61550307</v>
+        <v>22756699595</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -28109,73 +28125,77 @@
         <v>94</v>
       </c>
       <c r="C334" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D334" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E334" t="n">
-        <v>976.86</v>
+        <v>14951253.5</v>
       </c>
       <c r="F334" t="s"/>
       <c r="G334" t="s"/>
       <c r="H334" t="n">
-        <v>265000</v>
+        <v>3302402000</v>
       </c>
       <c r="I334" t="n">
-        <v>265000</v>
+        <v>3302402000</v>
       </c>
       <c r="J334" t="s"/>
       <c r="K334" t="n">
-        <v>976.86</v>
+        <v>14951253.5</v>
       </c>
       <c r="L334" t="n">
-        <v>397500</v>
+        <v>4953603000</v>
       </c>
       <c r="M334" t="n">
-        <v>265000</v>
+        <v>3302402000</v>
       </c>
       <c r="N334" t="s"/>
-      <c r="O334" t="s"/>
-      <c r="P334" t="s"/>
+      <c r="O334" t="n">
+        <v>3343743355</v>
+      </c>
+      <c r="P334" t="n">
+        <v>1940217957.61</v>
+      </c>
       <c r="Q334" t="n">
-        <v>0</v>
+        <v>136757784.85</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>7013904887.44</v>
       </c>
       <c r="S334" t="n">
-        <v>438986.43</v>
+        <v>6430206504.8</v>
       </c>
       <c r="T334" t="n">
-        <v>395915.54</v>
+        <v>6359286584.04</v>
       </c>
       <c r="U334" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="V334" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="W334" t="n">
         <v>0</v>
       </c>
       <c r="X334" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Y334" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z334" t="n">
         <v>0</v>
       </c>
       <c r="AA334" t="n">
-        <v>667858</v>
+        <v>1258155995</v>
       </c>
       <c r="AB334" t="n">
         <v>0</v>
       </c>
       <c r="AC334" t="n">
-        <v>0</v>
+        <v>547956314807</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -28186,77 +28206,77 @@
         <v>94</v>
       </c>
       <c r="C335" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D335" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E335" t="n">
-        <v>4759052.62</v>
+        <v>42652.52</v>
       </c>
       <c r="F335" t="s"/>
       <c r="G335" t="s"/>
       <c r="H335" t="n">
-        <v>1203730000</v>
+        <v>9421000</v>
       </c>
       <c r="I335" t="n">
-        <v>1203730000</v>
+        <v>9421000</v>
       </c>
       <c r="J335" t="s"/>
       <c r="K335" t="n">
-        <v>4759052.62</v>
+        <v>42652.52</v>
       </c>
       <c r="L335" t="n">
-        <v>1805595000</v>
+        <v>14131500</v>
       </c>
       <c r="M335" t="n">
-        <v>1203730000</v>
+        <v>9421000</v>
       </c>
       <c r="N335" t="s"/>
       <c r="O335" t="n">
-        <v>1028000</v>
+        <v>10150219</v>
       </c>
       <c r="P335" t="n">
-        <v>570071</v>
+        <v>4501327.22</v>
       </c>
       <c r="Q335" t="n">
-        <v>1864365820.53</v>
+        <v>8552118.640000001</v>
       </c>
       <c r="R335" t="n">
-        <v>2378324348.48</v>
+        <v>8584774.07</v>
       </c>
       <c r="S335" t="n">
-        <v>2136424227.14</v>
+        <v>18343913.15</v>
       </c>
       <c r="T335" t="n">
-        <v>2112421483.57</v>
+        <v>18141594.79</v>
       </c>
       <c r="U335" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="V335" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W335" t="n">
         <v>0</v>
       </c>
       <c r="X335" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Y335" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z335" t="n">
         <v>0</v>
       </c>
       <c r="AA335" t="n">
-        <v>76127595238</v>
+        <v>5374051735</v>
       </c>
       <c r="AB335" t="n">
         <v>0</v>
       </c>
       <c r="AC335" t="n">
-        <v>42604406308</v>
+        <v>100310733</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -28267,73 +28287,77 @@
         <v>94</v>
       </c>
       <c r="C336" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D336" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E336" t="n">
-        <v>14242093.48</v>
+        <v>1199.76</v>
       </c>
       <c r="F336" t="s"/>
       <c r="G336" t="s"/>
       <c r="H336" t="n">
-        <v>3602321000</v>
+        <v>265000</v>
       </c>
       <c r="I336" t="n">
-        <v>3602321000</v>
+        <v>265000</v>
       </c>
       <c r="J336" t="s"/>
       <c r="K336" t="n">
-        <v>14242093.48</v>
+        <v>1199.76</v>
       </c>
       <c r="L336" t="n">
-        <v>5403481500</v>
+        <v>397500</v>
       </c>
       <c r="M336" t="n">
-        <v>3602321000</v>
+        <v>265000</v>
       </c>
       <c r="N336" t="s"/>
-      <c r="O336" t="s"/>
-      <c r="P336" t="s"/>
+      <c r="O336" t="n">
+        <v>141652.37</v>
+      </c>
+      <c r="P336" t="n">
+        <v>28000.48</v>
+      </c>
       <c r="Q336" t="n">
-        <v>118239388.52</v>
+        <v>12346.12</v>
       </c>
       <c r="R336" t="n">
-        <v>7432024809.71</v>
+        <v>12346.12</v>
       </c>
       <c r="S336" t="n">
-        <v>6393531654.39</v>
+        <v>515989.49</v>
       </c>
       <c r="T336" t="n">
-        <v>6321700274.23</v>
+        <v>510298.55</v>
       </c>
       <c r="U336" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V336" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="W336" t="n">
         <v>0</v>
       </c>
       <c r="X336" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Y336" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z336" t="n">
         <v>0</v>
       </c>
       <c r="AA336" t="n">
-        <v>1367640278</v>
+        <v>865728</v>
       </c>
       <c r="AB336" t="n">
         <v>0</v>
       </c>
       <c r="AC336" t="n">
-        <v>847654325704</v>
+        <v>67650</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -28344,73 +28368,77 @@
         <v>94</v>
       </c>
       <c r="C337" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D337" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E337" t="n">
-        <v>9883.969999999999</v>
+        <v>4801123.36</v>
       </c>
       <c r="F337" t="s"/>
       <c r="G337" t="s"/>
       <c r="H337" t="n">
-        <v>2500000</v>
+        <v>1302433000</v>
       </c>
       <c r="I337" t="n">
-        <v>2500000</v>
+        <v>1302433000</v>
       </c>
       <c r="J337" t="s"/>
       <c r="K337" t="n">
-        <v>9883.969999999999</v>
+        <v>4801123.36</v>
       </c>
       <c r="L337" t="n">
-        <v>3750000</v>
+        <v>1953649500</v>
       </c>
       <c r="M337" t="n">
-        <v>2500000</v>
+        <v>1302433000</v>
       </c>
       <c r="N337" t="s"/>
-      <c r="O337" t="s"/>
-      <c r="P337" t="s"/>
+      <c r="O337" t="n">
+        <v>141652.37</v>
+      </c>
+      <c r="P337" t="n">
+        <v>17906.56</v>
+      </c>
       <c r="Q337" t="n">
-        <v>1476931.63</v>
+        <v>1513629392.48</v>
       </c>
       <c r="R337" t="n">
-        <v>1476931.63</v>
+        <v>2026555220.68</v>
       </c>
       <c r="S337" t="n">
-        <v>4437091.85</v>
+        <v>2157548736.87</v>
       </c>
       <c r="T337" t="n">
-        <v>4387241.08</v>
+        <v>1945862118.95</v>
       </c>
       <c r="U337" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V337" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W337" t="n">
         <v>0</v>
       </c>
       <c r="X337" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="Y337" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z337" t="n">
         <v>0</v>
       </c>
       <c r="AA337" t="n">
-        <v>7681008325</v>
+        <v>92012103174</v>
       </c>
       <c r="AB337" t="n">
         <v>0</v>
       </c>
       <c r="AC337" t="n">
-        <v>31216535</v>
+        <v>20491291167</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -28421,73 +28449,73 @@
         <v>94</v>
       </c>
       <c r="C338" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D338" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E338" t="n">
-        <v>790.72</v>
+        <v>14015047.07</v>
       </c>
       <c r="F338" t="s"/>
       <c r="G338" t="s"/>
       <c r="H338" t="n">
-        <v>200000</v>
+        <v>3801956000</v>
       </c>
       <c r="I338" t="n">
-        <v>200000</v>
+        <v>3801956000</v>
       </c>
       <c r="J338" t="s"/>
       <c r="K338" t="n">
-        <v>790.72</v>
+        <v>14015047.07</v>
       </c>
       <c r="L338" t="n">
-        <v>300000</v>
+        <v>5702934000</v>
       </c>
       <c r="M338" t="n">
-        <v>200000</v>
+        <v>3801956000</v>
       </c>
       <c r="N338" t="s"/>
       <c r="O338" t="s"/>
       <c r="P338" t="s"/>
       <c r="Q338" t="n">
-        <v>0</v>
+        <v>115114476.78</v>
       </c>
       <c r="R338" t="n">
-        <v>0</v>
+        <v>7324403798.54</v>
       </c>
       <c r="S338" t="n">
-        <v>354967.35</v>
+        <v>6298139992.94</v>
       </c>
       <c r="T338" t="n">
-        <v>350979.29</v>
+        <v>5680201713.5</v>
       </c>
       <c r="U338" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="V338" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="W338" t="n">
         <v>0</v>
       </c>
       <c r="X338" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Y338" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z338" t="n">
         <v>0</v>
       </c>
       <c r="AA338" t="n">
-        <v>157140</v>
+        <v>1561284611</v>
       </c>
       <c r="AB338" t="n">
         <v>0</v>
       </c>
       <c r="AC338" t="n">
-        <v>0</v>
+        <v>438697667062</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -28498,77 +28526,73 @@
         <v>94</v>
       </c>
       <c r="C339" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D339" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E339" t="n">
-        <v>3332823.04</v>
+        <v>42108.29</v>
       </c>
       <c r="F339" t="s"/>
       <c r="G339" t="s"/>
       <c r="H339" t="n">
-        <v>1102443000</v>
+        <v>11423000</v>
       </c>
       <c r="I339" t="n">
-        <v>1102443000</v>
+        <v>11423000</v>
       </c>
       <c r="J339" t="s"/>
       <c r="K339" t="n">
-        <v>3332823.04</v>
+        <v>42108.29</v>
       </c>
       <c r="L339" t="n">
-        <v>1653664500</v>
+        <v>17134500</v>
       </c>
       <c r="M339" t="n">
-        <v>1102443000</v>
+        <v>11423000</v>
       </c>
       <c r="N339" t="s"/>
-      <c r="O339" t="n">
-        <v>1107757763</v>
-      </c>
-      <c r="P339" t="n">
-        <v>578267306</v>
-      </c>
+      <c r="O339" t="s"/>
+      <c r="P339" t="s"/>
       <c r="Q339" t="n">
-        <v>1717789449.85</v>
+        <v>3736081.03</v>
       </c>
       <c r="R339" t="n">
-        <v>2450456369.41</v>
+        <v>3736081.03</v>
       </c>
       <c r="S339" t="n">
-        <v>0</v>
+        <v>18922800.04</v>
       </c>
       <c r="T339" t="n">
-        <v>0</v>
+        <v>17066200.71</v>
       </c>
       <c r="U339" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="V339" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W339" t="n">
         <v>0</v>
       </c>
       <c r="X339" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="Y339" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Z339" t="n">
         <v>0</v>
       </c>
       <c r="AA339" t="n">
-        <v>80009923076</v>
+        <v>6043214318</v>
       </c>
       <c r="AB339" t="n">
         <v>0</v>
       </c>
       <c r="AC339" t="n">
-        <v>33751531154</v>
+        <v>61550307</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -28579,77 +28603,73 @@
         <v>94</v>
       </c>
       <c r="C340" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D340" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E340" t="n">
-        <v>13308367.81</v>
+        <v>976.86</v>
       </c>
       <c r="F340" t="s"/>
       <c r="G340" t="s"/>
       <c r="H340" t="n">
-        <v>4402189000</v>
+        <v>265000</v>
       </c>
       <c r="I340" t="n">
-        <v>4402189000</v>
+        <v>265000</v>
       </c>
       <c r="J340" t="s"/>
       <c r="K340" t="n">
-        <v>13308367.81</v>
+        <v>976.86</v>
       </c>
       <c r="L340" t="n">
-        <v>6603283500</v>
+        <v>397500</v>
       </c>
       <c r="M340" t="n">
-        <v>4402189000</v>
+        <v>265000</v>
       </c>
       <c r="N340" t="s"/>
-      <c r="O340" t="n">
-        <v>3343743355</v>
-      </c>
-      <c r="P340" t="n">
-        <v>1693337765</v>
-      </c>
+      <c r="O340" t="s"/>
+      <c r="P340" t="s"/>
       <c r="Q340" t="n">
-        <v>148339061.79</v>
+        <v>0</v>
       </c>
       <c r="R340" t="n">
-        <v>6393349709.55</v>
+        <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>0</v>
+        <v>438986.43</v>
       </c>
       <c r="T340" t="n">
-        <v>0</v>
+        <v>395915.54</v>
       </c>
       <c r="U340" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V340" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="W340" t="n">
+        <v>0</v>
+      </c>
+      <c r="X340" t="n">
         <v>1</v>
       </c>
-      <c r="X340" t="n">
-        <v>32</v>
-      </c>
       <c r="Y340" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z340" t="n">
         <v>0</v>
       </c>
       <c r="AA340" t="n">
-        <v>2147479381</v>
+        <v>667858</v>
       </c>
       <c r="AB340" t="n">
         <v>0</v>
       </c>
       <c r="AC340" t="n">
-        <v>753150847869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -28660,77 +28680,77 @@
         <v>94</v>
       </c>
       <c r="C341" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D341" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E341" t="n">
-        <v>37622.78</v>
+        <v>4759052.62</v>
       </c>
       <c r="F341" t="s"/>
       <c r="G341" t="s"/>
       <c r="H341" t="n">
-        <v>12445000</v>
+        <v>1203730000</v>
       </c>
       <c r="I341" t="n">
-        <v>12445000</v>
+        <v>1203730000</v>
       </c>
       <c r="J341" t="s"/>
       <c r="K341" t="n">
-        <v>37622.78</v>
+        <v>4759052.62</v>
       </c>
       <c r="L341" t="n">
-        <v>18667500</v>
+        <v>1805595000</v>
       </c>
       <c r="M341" t="n">
-        <v>12445000</v>
+        <v>1203730000</v>
       </c>
       <c r="N341" t="s"/>
       <c r="O341" t="n">
-        <v>10150219</v>
+        <v>1028000</v>
       </c>
       <c r="P341" t="n">
-        <v>3714859</v>
+        <v>570071</v>
       </c>
       <c r="Q341" t="n">
-        <v>12207577.14</v>
+        <v>1864365820.53</v>
       </c>
       <c r="R341" t="n">
-        <v>12263820.4</v>
+        <v>2378324348.48</v>
       </c>
       <c r="S341" t="n">
-        <v>0</v>
+        <v>2136424227.14</v>
       </c>
       <c r="T341" t="n">
-        <v>0</v>
+        <v>2112421483.57</v>
       </c>
       <c r="U341" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="V341" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W341" t="n">
         <v>0</v>
       </c>
       <c r="X341" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Y341" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Z341" t="n">
         <v>0</v>
       </c>
       <c r="AA341" t="n">
-        <v>6305862669</v>
+        <v>76127595238</v>
       </c>
       <c r="AB341" t="n">
         <v>0</v>
       </c>
       <c r="AC341" t="n">
-        <v>140388271</v>
+        <v>42604406308</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -28741,77 +28761,73 @@
         <v>94</v>
       </c>
       <c r="C342" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D342" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E342" t="n">
-        <v>825.3200000000001</v>
+        <v>14242093.48</v>
       </c>
       <c r="F342" t="s"/>
       <c r="G342" t="s"/>
       <c r="H342" t="n">
-        <v>273000</v>
+        <v>3602321000</v>
       </c>
       <c r="I342" t="n">
-        <v>273000</v>
+        <v>3602321000</v>
       </c>
       <c r="J342" t="s"/>
       <c r="K342" t="n">
-        <v>825.3200000000001</v>
+        <v>14242093.48</v>
       </c>
       <c r="L342" t="n">
-        <v>409500</v>
+        <v>5403481500</v>
       </c>
       <c r="M342" t="n">
-        <v>273000</v>
+        <v>3602321000</v>
       </c>
       <c r="N342" t="s"/>
-      <c r="O342" t="n">
-        <v>1028000</v>
-      </c>
-      <c r="P342" t="n">
-        <v>570071</v>
-      </c>
+      <c r="O342" t="s"/>
+      <c r="P342" t="s"/>
       <c r="Q342" t="n">
-        <v>232469.98</v>
+        <v>118239388.52</v>
       </c>
       <c r="R342" t="n">
-        <v>232469.98</v>
+        <v>7432024809.71</v>
       </c>
       <c r="S342" t="n">
-        <v>0</v>
+        <v>6393531654.39</v>
       </c>
       <c r="T342" t="n">
-        <v>0</v>
+        <v>6321700274.23</v>
       </c>
       <c r="U342" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="V342" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="W342" t="n">
         <v>0</v>
       </c>
       <c r="X342" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Y342" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z342" t="n">
         <v>0</v>
       </c>
       <c r="AA342" t="n">
-        <v>822497</v>
+        <v>1367640278</v>
       </c>
       <c r="AB342" t="n">
         <v>0</v>
       </c>
       <c r="AC342" t="n">
-        <v>1509000</v>
+        <v>847654325704</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -28822,77 +28838,73 @@
         <v>94</v>
       </c>
       <c r="C343" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D343" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E343" t="n">
-        <v>5417882.97</v>
+        <v>9883.969999999999</v>
       </c>
       <c r="F343" t="s"/>
       <c r="G343" t="s"/>
       <c r="H343" t="n">
-        <v>1802448000</v>
+        <v>2500000</v>
       </c>
       <c r="I343" t="n">
-        <v>1802448000</v>
+        <v>2500000</v>
       </c>
       <c r="J343" t="s"/>
       <c r="K343" t="n">
-        <v>5417882.97</v>
+        <v>9883.969999999999</v>
       </c>
       <c r="L343" t="n">
-        <v>2703672000</v>
+        <v>3750000</v>
       </c>
       <c r="M343" t="n">
-        <v>1802448000</v>
+        <v>2500000</v>
       </c>
       <c r="N343" t="s"/>
-      <c r="O343" t="n">
-        <v>1254031199</v>
-      </c>
-      <c r="P343" t="n">
-        <v>567611984</v>
-      </c>
+      <c r="O343" t="s"/>
+      <c r="P343" t="s"/>
       <c r="Q343" t="n">
-        <v>1623302406.65</v>
+        <v>1476931.63</v>
       </c>
       <c r="R343" t="n">
-        <v>2347411273.74</v>
+        <v>1476931.63</v>
       </c>
       <c r="S343" t="n">
-        <v>3136614890.72</v>
+        <v>4437091.85</v>
       </c>
       <c r="T343" t="n">
-        <v>3102554609.24</v>
+        <v>4387241.08</v>
       </c>
       <c r="U343" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="V343" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W343" t="n">
         <v>0</v>
       </c>
       <c r="X343" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="Y343" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Z343" t="n">
         <v>0</v>
       </c>
       <c r="AA343" t="n">
-        <v>75115072580</v>
+        <v>7681008325</v>
       </c>
       <c r="AB343" t="n">
         <v>0</v>
       </c>
       <c r="AC343" t="n">
-        <v>28117183880</v>
+        <v>31216535</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -28903,77 +28915,73 @@
         <v>94</v>
       </c>
       <c r="C344" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D344" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E344" t="n">
-        <v>13222922.53</v>
+        <v>790.72</v>
       </c>
       <c r="F344" t="s"/>
       <c r="G344" t="s"/>
       <c r="H344" t="n">
-        <v>4399067000</v>
+        <v>200000</v>
       </c>
       <c r="I344" t="n">
-        <v>4399067000</v>
+        <v>200000</v>
       </c>
       <c r="J344" t="s"/>
       <c r="K344" t="n">
-        <v>13222922.53</v>
+        <v>790.72</v>
       </c>
       <c r="L344" t="n">
-        <v>6598600500</v>
+        <v>300000</v>
       </c>
       <c r="M344" t="n">
-        <v>4399067000</v>
+        <v>200000</v>
       </c>
       <c r="N344" t="s"/>
-      <c r="O344" t="n">
-        <v>3343743355</v>
-      </c>
-      <c r="P344" t="n">
-        <v>1880087101</v>
-      </c>
+      <c r="O344" t="s"/>
+      <c r="P344" t="s"/>
       <c r="Q344" t="n">
-        <v>166118480.76</v>
+        <v>0</v>
       </c>
       <c r="R344" t="n">
-        <v>9147125789.540001</v>
+        <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>7655243900.22</v>
+        <v>354967.35</v>
       </c>
       <c r="T344" t="n">
-        <v>7572116142.72</v>
+        <v>350979.29</v>
       </c>
       <c r="U344" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V344" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="W344" t="n">
         <v>0</v>
       </c>
       <c r="X344" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Y344" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z344" t="n">
         <v>0</v>
       </c>
       <c r="AA344" t="n">
-        <v>1837503922</v>
+        <v>157140</v>
       </c>
       <c r="AB344" t="n">
         <v>0</v>
       </c>
       <c r="AC344" t="n">
-        <v>511740559695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -28984,77 +28992,77 @@
         <v>94</v>
       </c>
       <c r="C345" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D345" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E345" t="n">
-        <v>38919.7</v>
+        <v>3332823.04</v>
       </c>
       <c r="F345" t="s"/>
       <c r="G345" t="s"/>
       <c r="H345" t="n">
-        <v>12948000</v>
+        <v>1102443000</v>
       </c>
       <c r="I345" t="n">
-        <v>12948000</v>
+        <v>1102443000</v>
       </c>
       <c r="J345" t="s"/>
       <c r="K345" t="n">
-        <v>38919.7</v>
+        <v>3332823.04</v>
       </c>
       <c r="L345" t="n">
-        <v>19422000</v>
+        <v>1653664500</v>
       </c>
       <c r="M345" t="n">
-        <v>12948000</v>
+        <v>1102443000</v>
       </c>
       <c r="N345" t="s"/>
       <c r="O345" t="n">
-        <v>10150219</v>
+        <v>1107757763</v>
       </c>
       <c r="P345" t="n">
-        <v>4012673</v>
+        <v>578267306</v>
       </c>
       <c r="Q345" t="n">
-        <v>10854633.38</v>
+        <v>1717789449.85</v>
       </c>
       <c r="R345" t="n">
-        <v>10901185.58</v>
+        <v>2450456369.41</v>
       </c>
       <c r="S345" t="n">
-        <v>22532072.83</v>
+        <v>0</v>
       </c>
       <c r="T345" t="n">
-        <v>22287398.63</v>
+        <v>0</v>
       </c>
       <c r="U345" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="V345" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W345" t="n">
         <v>0</v>
       </c>
       <c r="X345" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Y345" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Z345" t="n">
         <v>0</v>
       </c>
       <c r="AA345" t="n">
-        <v>6816990863</v>
+        <v>80009923076</v>
       </c>
       <c r="AB345" t="n">
         <v>0</v>
       </c>
       <c r="AC345" t="n">
-        <v>133534968</v>
+        <v>33751531154</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -29065,77 +29073,77 @@
         <v>94</v>
       </c>
       <c r="C346" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D346" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E346" t="n">
-        <v>751.46</v>
+        <v>13308367.81</v>
       </c>
       <c r="F346" t="s"/>
       <c r="G346" t="s"/>
       <c r="H346" t="n">
-        <v>250000</v>
+        <v>4402189000</v>
       </c>
       <c r="I346" t="n">
-        <v>250000</v>
+        <v>4402189000</v>
       </c>
       <c r="J346" t="s"/>
       <c r="K346" t="n">
-        <v>751.46</v>
+        <v>13308367.81</v>
       </c>
       <c r="L346" t="n">
-        <v>375000</v>
+        <v>6603283500</v>
       </c>
       <c r="M346" t="n">
-        <v>250000</v>
+        <v>4402189000</v>
       </c>
       <c r="N346" t="s"/>
       <c r="O346" t="n">
-        <v>265437</v>
+        <v>3343743355</v>
       </c>
       <c r="P346" t="n">
-        <v>68884</v>
+        <v>1693337765</v>
       </c>
       <c r="Q346" t="n">
-        <v>190023.72</v>
+        <v>148339061.79</v>
       </c>
       <c r="R346" t="n">
-        <v>190023.72</v>
+        <v>6393349709.55</v>
       </c>
       <c r="S346" t="n">
-        <v>435049.29</v>
+        <v>0</v>
       </c>
       <c r="T346" t="n">
-        <v>430325.12</v>
+        <v>0</v>
       </c>
       <c r="U346" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="V346" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="W346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X346" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Y346" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z346" t="n">
         <v>0</v>
       </c>
       <c r="AA346" t="n">
-        <v>994152</v>
+        <v>2147479381</v>
       </c>
       <c r="AB346" t="n">
         <v>0</v>
       </c>
       <c r="AC346" t="n">
-        <v>1206500</v>
+        <v>753150847869</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -29146,77 +29154,77 @@
         <v>94</v>
       </c>
       <c r="C347" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D347" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E347" t="n">
-        <v>6297295</v>
+        <v>37622.78</v>
       </c>
       <c r="F347" t="s"/>
       <c r="G347" t="s"/>
       <c r="H347" t="n">
-        <v>2103507000</v>
+        <v>12445000</v>
       </c>
       <c r="I347" t="n">
-        <v>2103507000</v>
+        <v>12445000</v>
       </c>
       <c r="J347" t="s"/>
       <c r="K347" t="n">
-        <v>6297295</v>
+        <v>37622.78</v>
       </c>
       <c r="L347" t="n">
-        <v>3155260500</v>
+        <v>18667500</v>
       </c>
       <c r="M347" t="n">
-        <v>2103507000</v>
+        <v>12445000</v>
       </c>
       <c r="N347" t="s"/>
       <c r="O347" t="n">
-        <v>1623357537</v>
+        <v>10150219</v>
       </c>
       <c r="P347" t="n">
-        <v>623862187</v>
+        <v>3714859</v>
       </c>
       <c r="Q347" t="n">
-        <v>1729419191.77</v>
+        <v>12207577.14</v>
       </c>
       <c r="R347" t="n">
-        <v>2264452704.68</v>
+        <v>12263820.4</v>
       </c>
       <c r="S347" t="n">
-        <v>2535803818.47</v>
+        <v>0</v>
       </c>
       <c r="T347" t="n">
-        <v>2492438137.62</v>
+        <v>0</v>
       </c>
       <c r="U347" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="V347" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W347" t="n">
         <v>0</v>
       </c>
       <c r="X347" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Y347" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z347" t="n">
         <v>0</v>
       </c>
       <c r="AA347" t="n">
-        <v>81244412698</v>
+        <v>6305862669</v>
       </c>
       <c r="AB347" t="n">
         <v>0</v>
       </c>
       <c r="AC347" t="n">
-        <v>27248545597</v>
+        <v>140388271</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -29227,77 +29235,77 @@
         <v>94</v>
       </c>
       <c r="C348" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D348" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E348" t="n">
-        <v>12877592</v>
+        <v>825.3200000000001</v>
       </c>
       <c r="F348" t="s"/>
       <c r="G348" t="s"/>
       <c r="H348" t="n">
-        <v>4301551000</v>
+        <v>273000</v>
       </c>
       <c r="I348" t="n">
-        <v>4301551000</v>
+        <v>273000</v>
       </c>
       <c r="J348" t="s"/>
       <c r="K348" t="n">
-        <v>12877592</v>
+        <v>825.3200000000001</v>
       </c>
       <c r="L348" t="n">
-        <v>6452326500</v>
+        <v>409500</v>
       </c>
       <c r="M348" t="n">
-        <v>4301551000</v>
+        <v>273000</v>
       </c>
       <c r="N348" t="s"/>
       <c r="O348" t="n">
-        <v>3273633809</v>
+        <v>1028000</v>
       </c>
       <c r="P348" t="n">
-        <v>1687997522</v>
+        <v>570071</v>
       </c>
       <c r="Q348" t="n">
-        <v>338879022.72</v>
+        <v>232469.98</v>
       </c>
       <c r="R348" t="n">
-        <v>8925595799.9</v>
+        <v>232469.98</v>
       </c>
       <c r="S348" t="n">
-        <v>5185573164.79</v>
+        <v>0</v>
       </c>
       <c r="T348" t="n">
-        <v>5096892838.16</v>
+        <v>0</v>
       </c>
       <c r="U348" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V348" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W348" t="n">
         <v>0</v>
       </c>
       <c r="X348" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Y348" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z348" t="n">
         <v>0</v>
       </c>
       <c r="AA348" t="n">
-        <v>1474852443</v>
+        <v>822497</v>
       </c>
       <c r="AB348" t="n">
         <v>0</v>
       </c>
       <c r="AC348" t="n">
-        <v>580354322053</v>
+        <v>1509000</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -29308,77 +29316,77 @@
         <v>94</v>
       </c>
       <c r="C349" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D349" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E349" t="n">
-        <v>8674</v>
+        <v>3276799.54</v>
       </c>
       <c r="F349" t="s"/>
       <c r="G349" t="s"/>
       <c r="H349" t="n">
-        <v>2899000</v>
+        <v>1002954000</v>
       </c>
       <c r="I349" t="n">
-        <v>2899000</v>
+        <v>1002954000</v>
       </c>
       <c r="J349" t="s"/>
       <c r="K349" t="n">
-        <v>8674</v>
+        <v>3276799.54</v>
       </c>
       <c r="L349" t="n">
-        <v>4348500</v>
+        <v>1002954000</v>
       </c>
       <c r="M349" t="n">
-        <v>2899000</v>
+        <v>1002954000</v>
       </c>
       <c r="N349" t="s"/>
       <c r="O349" t="n">
-        <v>9328880</v>
+        <v>1375410255</v>
       </c>
       <c r="P349" t="n">
-        <v>2740661</v>
+        <v>728102072</v>
       </c>
       <c r="Q349" t="n">
-        <v>1843043.55</v>
+        <v>2346630813.52</v>
       </c>
       <c r="R349" t="n">
-        <v>1843043.55</v>
+        <v>3246139953.67</v>
       </c>
       <c r="S349" t="n">
-        <v>3494780.51</v>
+        <v>0</v>
       </c>
       <c r="T349" t="n">
-        <v>3435015.03</v>
+        <v>0</v>
       </c>
       <c r="U349" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="V349" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W349" t="n">
         <v>0</v>
       </c>
       <c r="X349" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="Y349" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Z349" t="n">
         <v>0</v>
       </c>
       <c r="AA349" t="n">
-        <v>8052868016</v>
+        <v>69413628787</v>
       </c>
       <c r="AB349" t="n">
         <v>0</v>
       </c>
       <c r="AC349" t="n">
-        <v>27299396</v>
+        <v>25443022185</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -29389,77 +29397,77 @@
         <v>94</v>
       </c>
       <c r="C350" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D350" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E350" t="n">
-        <v>602</v>
+        <v>12748795.24</v>
       </c>
       <c r="F350" t="s"/>
       <c r="G350" t="s"/>
       <c r="H350" t="n">
-        <v>200000</v>
+        <v>3902117000</v>
       </c>
       <c r="I350" t="n">
-        <v>200000</v>
+        <v>3902117000</v>
       </c>
       <c r="J350" t="s"/>
       <c r="K350" t="n">
-        <v>602</v>
+        <v>12748795.24</v>
       </c>
       <c r="L350" t="n">
-        <v>300000</v>
+        <v>3902117000</v>
       </c>
       <c r="M350" t="n">
-        <v>200000</v>
+        <v>3902117000</v>
       </c>
       <c r="N350" t="s"/>
       <c r="O350" t="n">
-        <v>122444</v>
+        <v>2498434108</v>
       </c>
       <c r="P350" t="n">
-        <v>10122</v>
+        <v>1468026740</v>
       </c>
       <c r="Q350" t="n">
-        <v>0</v>
+        <v>296471386.97</v>
       </c>
       <c r="R350" t="n">
-        <v>0</v>
+        <v>5832388330.5</v>
       </c>
       <c r="S350" t="n">
-        <v>241102.48</v>
+        <v>0</v>
       </c>
       <c r="T350" t="n">
-        <v>236979.31</v>
+        <v>0</v>
       </c>
       <c r="U350" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="V350" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="W350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X350" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Y350" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z350" t="n">
         <v>0</v>
       </c>
       <c r="AA350" t="n">
-        <v>295374</v>
+        <v>2535772067</v>
       </c>
       <c r="AB350" t="n">
         <v>0</v>
       </c>
       <c r="AC350" t="n">
-        <v>0</v>
+        <v>583142967534</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -29467,86 +29475,80 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C351" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D351" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E351" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F351" t="n">
-        <v>0</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0</v>
-      </c>
+        <v>18028.11</v>
+      </c>
+      <c r="F351" t="s"/>
+      <c r="G351" t="s"/>
       <c r="H351" t="n">
-        <v>21650667.24</v>
+        <v>5518000</v>
       </c>
       <c r="I351" t="n">
-        <v>21650667.24</v>
-      </c>
-      <c r="J351" t="n">
-        <v>0</v>
-      </c>
+        <v>5518000</v>
+      </c>
+      <c r="J351" t="s"/>
       <c r="K351" t="n">
-        <v>1875000</v>
+        <v>18028.11</v>
       </c>
       <c r="L351" t="n">
-        <v>108253336.2</v>
+        <v>5518000</v>
       </c>
       <c r="M351" t="n">
-        <v>108253336.2</v>
-      </c>
-      <c r="N351" t="n">
-        <v>0</v>
-      </c>
+        <v>5518000</v>
+      </c>
+      <c r="N351" t="s"/>
       <c r="O351" t="n">
-        <v>25348650.79</v>
+        <v>13067571</v>
       </c>
       <c r="P351" t="n">
-        <v>12969762.1525</v>
+        <v>4531181</v>
       </c>
       <c r="Q351" t="n">
-        <v>23047576.48</v>
+        <v>11681583.51</v>
       </c>
       <c r="R351" t="n">
-        <v>37988503.98</v>
+        <v>11808938.51</v>
       </c>
       <c r="S351" t="n">
-        <v>183311194.54</v>
+        <v>0</v>
       </c>
       <c r="T351" t="n">
-        <v>173071499.59</v>
+        <v>0</v>
       </c>
       <c r="U351" t="n">
         <v>7</v>
       </c>
       <c r="V351" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="W351" t="n">
         <v>0</v>
       </c>
-      <c r="X351" t="s"/>
+      <c r="X351" t="n">
+        <v>16</v>
+      </c>
       <c r="Y351" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="Z351" t="n">
         <v>0</v>
       </c>
       <c r="AA351" t="n">
-        <v>263238884.5363547</v>
+        <v>5577396316</v>
       </c>
       <c r="AB351" t="n">
         <v>0</v>
       </c>
       <c r="AC351" t="n">
-        <v>254496634.7211508</v>
+        <v>196638647</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -29554,86 +29556,80 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C352" t="s">
         <v>35</v>
       </c>
       <c r="D352" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E352" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F352" t="n">
-        <v>0</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0</v>
-      </c>
+        <v>1241.51</v>
+      </c>
+      <c r="F352" t="s"/>
+      <c r="G352" t="s"/>
       <c r="H352" t="n">
-        <v>23458566.22</v>
+        <v>380000</v>
       </c>
       <c r="I352" t="n">
-        <v>23458566.22</v>
-      </c>
-      <c r="J352" t="n">
-        <v>0</v>
-      </c>
+        <v>380000</v>
+      </c>
+      <c r="J352" t="s"/>
       <c r="K352" t="n">
-        <v>1875000</v>
+        <v>1241.51</v>
       </c>
       <c r="L352" t="n">
-        <v>117292831.1</v>
+        <v>380000</v>
       </c>
       <c r="M352" t="n">
-        <v>117292831.1</v>
-      </c>
-      <c r="N352" t="n">
-        <v>0</v>
-      </c>
+        <v>380000</v>
+      </c>
+      <c r="N352" t="s"/>
       <c r="O352" t="n">
-        <v>18031293.57</v>
+        <v>1028000</v>
       </c>
       <c r="P352" t="n">
-        <v>12828474.6675</v>
+        <v>570071</v>
       </c>
       <c r="Q352" t="n">
-        <v>18822457.85</v>
+        <v>292487.99</v>
       </c>
       <c r="R352" t="n">
-        <v>31828495.24</v>
+        <v>312794.98</v>
       </c>
       <c r="S352" t="n">
-        <v>196332438.2257972</v>
+        <v>0</v>
       </c>
       <c r="T352" t="n">
-        <v>182953807.55</v>
+        <v>0</v>
       </c>
       <c r="U352" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V352" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="W352" t="n">
         <v>0</v>
       </c>
-      <c r="X352" t="s"/>
+      <c r="X352" t="n">
+        <v>2</v>
+      </c>
       <c r="Y352" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="Z352" t="n">
         <v>0</v>
       </c>
       <c r="AA352" t="n">
-        <v>200713720.7930645</v>
+        <v>2466796</v>
       </c>
       <c r="AB352" t="n">
         <v>0</v>
       </c>
       <c r="AC352" t="n">
-        <v>193403295.8109105</v>
+        <v>2979000</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -29641,86 +29637,80 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C353" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D353" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E353" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F353" t="n">
-        <v>0</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0</v>
-      </c>
+        <v>5417882.97</v>
+      </c>
+      <c r="F353" t="s"/>
+      <c r="G353" t="s"/>
       <c r="H353" t="n">
-        <v>19210385.39</v>
+        <v>1802448000</v>
       </c>
       <c r="I353" t="n">
-        <v>19210385.39</v>
-      </c>
-      <c r="J353" t="n">
-        <v>0</v>
-      </c>
+        <v>1802448000</v>
+      </c>
+      <c r="J353" t="s"/>
       <c r="K353" t="n">
-        <v>1875000</v>
+        <v>5417882.97</v>
       </c>
       <c r="L353" t="n">
-        <v>96051926.95</v>
+        <v>2703672000</v>
       </c>
       <c r="M353" t="n">
-        <v>96051926.95</v>
-      </c>
-      <c r="N353" t="n">
-        <v>0</v>
-      </c>
+        <v>1802448000</v>
+      </c>
+      <c r="N353" t="s"/>
       <c r="O353" t="n">
-        <v>17239024.27</v>
+        <v>1254031199</v>
       </c>
       <c r="P353" t="n">
-        <v>11707342.7191667</v>
+        <v>567611984</v>
       </c>
       <c r="Q353" t="n">
-        <v>10969033.04</v>
+        <v>1623302406.65</v>
       </c>
       <c r="R353" t="n">
-        <v>21412764.39</v>
+        <v>2347411273.74</v>
       </c>
       <c r="S353" t="n">
-        <v>169018812.3</v>
+        <v>3136614890.72</v>
       </c>
       <c r="T353" t="n">
-        <v>158665102.15</v>
+        <v>3102554609.24</v>
       </c>
       <c r="U353" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="V353" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="W353" t="n">
         <v>0</v>
       </c>
-      <c r="X353" t="s"/>
+      <c r="X353" t="n">
+        <v>55</v>
+      </c>
       <c r="Y353" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Z353" t="n">
         <v>0</v>
       </c>
       <c r="AA353" t="n">
-        <v>232476040.2583704</v>
+        <v>75115072580</v>
       </c>
       <c r="AB353" t="n">
         <v>0</v>
       </c>
       <c r="AC353" t="n">
-        <v>229510816.4980687</v>
+        <v>28117183880</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -29728,86 +29718,80 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C354" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D354" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E354" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F354" t="n">
-        <v>0</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0</v>
-      </c>
+        <v>13222922.53</v>
+      </c>
+      <c r="F354" t="s"/>
+      <c r="G354" t="s"/>
       <c r="H354" t="n">
-        <v>33083722.25</v>
+        <v>4399067000</v>
       </c>
       <c r="I354" t="n">
-        <v>33083722.25</v>
-      </c>
-      <c r="J354" t="n">
-        <v>0</v>
-      </c>
+        <v>4399067000</v>
+      </c>
+      <c r="J354" t="s"/>
       <c r="K354" t="n">
-        <v>1875000</v>
+        <v>13222922.53</v>
       </c>
       <c r="L354" t="n">
-        <v>165418611.25</v>
+        <v>6598600500</v>
       </c>
       <c r="M354" t="n">
-        <v>165418611.25</v>
-      </c>
-      <c r="N354" t="n">
-        <v>0</v>
-      </c>
+        <v>4399067000</v>
+      </c>
+      <c r="N354" t="s"/>
       <c r="O354" t="n">
-        <v>26548196.36</v>
+        <v>3343743355</v>
       </c>
       <c r="P354" t="n">
-        <v>15881865.06</v>
+        <v>1880087101</v>
       </c>
       <c r="Q354" t="n">
-        <v>20528345.13</v>
+        <v>166118480.76</v>
       </c>
       <c r="R354" t="n">
-        <v>34900994.1</v>
+        <v>9147125789.540001</v>
       </c>
       <c r="S354" t="n">
-        <v>203284176.9</v>
+        <v>7655243900.22</v>
       </c>
       <c r="T354" t="n">
-        <v>194117486.3</v>
+        <v>7572116142.72</v>
       </c>
       <c r="U354" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="V354" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="W354" t="n">
         <v>0</v>
       </c>
-      <c r="X354" t="s"/>
+      <c r="X354" t="n">
+        <v>31</v>
+      </c>
       <c r="Y354" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="Z354" t="n">
         <v>0</v>
       </c>
       <c r="AA354" t="n">
-        <v>285782352.3838115</v>
+        <v>1837503922</v>
       </c>
       <c r="AB354" t="n">
         <v>0</v>
       </c>
       <c r="AC354" t="n">
-        <v>280427493.3746177</v>
+        <v>511740559695</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -29815,86 +29799,80 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C355" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D355" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E355" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F355" t="n">
-        <v>0</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0</v>
-      </c>
+        <v>38919.7</v>
+      </c>
+      <c r="F355" t="s"/>
+      <c r="G355" t="s"/>
       <c r="H355" t="n">
-        <v>18994506.4</v>
+        <v>12948000</v>
       </c>
       <c r="I355" t="n">
-        <v>18994506.4</v>
-      </c>
-      <c r="J355" t="n">
-        <v>0</v>
-      </c>
+        <v>12948000</v>
+      </c>
+      <c r="J355" t="s"/>
       <c r="K355" t="n">
-        <v>1875000</v>
+        <v>38919.7</v>
       </c>
       <c r="L355" t="n">
-        <v>94972532</v>
+        <v>19422000</v>
       </c>
       <c r="M355" t="n">
-        <v>94972532</v>
-      </c>
-      <c r="N355" t="n">
-        <v>0</v>
-      </c>
+        <v>12948000</v>
+      </c>
+      <c r="N355" t="s"/>
       <c r="O355" t="n">
-        <v>23227329.98</v>
+        <v>10150219</v>
       </c>
       <c r="P355" t="n">
-        <v>15961395.1716667</v>
+        <v>4012673</v>
       </c>
       <c r="Q355" t="n">
-        <v>24228592.17</v>
+        <v>10854633.38</v>
       </c>
       <c r="R355" t="n">
-        <v>40788880</v>
+        <v>10901185.58</v>
       </c>
       <c r="S355" t="n">
-        <v>194043127.8071014</v>
+        <v>22532072.83</v>
       </c>
       <c r="T355" t="n">
-        <v>180760110.13</v>
+        <v>22287398.63</v>
       </c>
       <c r="U355" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V355" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="W355" t="n">
         <v>0</v>
       </c>
-      <c r="X355" t="s"/>
+      <c r="X355" t="n">
+        <v>11</v>
+      </c>
       <c r="Y355" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="Z355" t="n">
         <v>0</v>
       </c>
       <c r="AA355" t="n">
-        <v>219687830.9519128</v>
+        <v>6816990863</v>
       </c>
       <c r="AB355" t="n">
         <v>0</v>
       </c>
       <c r="AC355" t="n">
-        <v>211478642.7168253</v>
+        <v>133534968</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -29902,86 +29880,80 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C356" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D356" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E356" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F356" t="n">
-        <v>0</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0</v>
-      </c>
+        <v>751.46</v>
+      </c>
+      <c r="F356" t="s"/>
+      <c r="G356" t="s"/>
       <c r="H356" t="n">
-        <v>17814642.27</v>
+        <v>250000</v>
       </c>
       <c r="I356" t="n">
-        <v>17814642.27</v>
-      </c>
-      <c r="J356" t="n">
-        <v>0</v>
-      </c>
+        <v>250000</v>
+      </c>
+      <c r="J356" t="s"/>
       <c r="K356" t="n">
-        <v>1875000</v>
+        <v>751.46</v>
       </c>
       <c r="L356" t="n">
-        <v>89073211.34999999</v>
+        <v>375000</v>
       </c>
       <c r="M356" t="n">
-        <v>89073211.34999999</v>
-      </c>
-      <c r="N356" t="n">
-        <v>0</v>
-      </c>
+        <v>250000</v>
+      </c>
+      <c r="N356" t="s"/>
       <c r="O356" t="n">
-        <v>23227329.98</v>
+        <v>265437</v>
       </c>
       <c r="P356" t="n">
-        <v>13243102.02166667</v>
+        <v>68884</v>
       </c>
       <c r="Q356" t="n">
-        <v>14059968.69</v>
+        <v>190023.72</v>
       </c>
       <c r="R356" t="n">
-        <v>25476280.43</v>
+        <v>190023.72</v>
       </c>
       <c r="S356" t="n">
-        <v>178047430.0657971</v>
+        <v>435049.29</v>
       </c>
       <c r="T356" t="n">
-        <v>165167004.31</v>
+        <v>430325.12</v>
       </c>
       <c r="U356" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V356" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="W356" t="n">
         <v>0</v>
       </c>
-      <c r="X356" t="s"/>
+      <c r="X356" t="n">
+        <v>2</v>
+      </c>
       <c r="Y356" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="Z356" t="n">
         <v>0</v>
       </c>
       <c r="AA356" t="n">
-        <v>260635519.6888984</v>
+        <v>994152</v>
       </c>
       <c r="AB356" t="n">
         <v>0</v>
       </c>
       <c r="AC356" t="n">
-        <v>225877286.3225412</v>
+        <v>1206500</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -29989,86 +29961,80 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C357" t="s">
         <v>38</v>
       </c>
       <c r="D357" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E357" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F357" t="n">
-        <v>0</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0</v>
-      </c>
+        <v>6297295</v>
+      </c>
+      <c r="F357" t="s"/>
+      <c r="G357" t="s"/>
       <c r="H357" t="n">
-        <v>32320318.92</v>
+        <v>2103507000</v>
       </c>
       <c r="I357" t="n">
-        <v>32320318.92</v>
-      </c>
-      <c r="J357" t="n">
-        <v>0</v>
-      </c>
+        <v>2103507000</v>
+      </c>
+      <c r="J357" t="s"/>
       <c r="K357" t="n">
-        <v>1875000</v>
+        <v>6297295</v>
       </c>
       <c r="L357" t="n">
-        <v>161601594.6</v>
+        <v>3155260500</v>
       </c>
       <c r="M357" t="n">
-        <v>161601594.6</v>
-      </c>
-      <c r="N357" t="n">
-        <v>0</v>
-      </c>
+        <v>2103507000</v>
+      </c>
+      <c r="N357" t="s"/>
       <c r="O357" t="n">
-        <v>29409721.82</v>
+        <v>1623357537</v>
       </c>
       <c r="P357" t="n">
-        <v>16584295.16666667</v>
+        <v>623862187</v>
       </c>
       <c r="Q357" t="n">
-        <v>21989354.48</v>
+        <v>1729419191.77</v>
       </c>
       <c r="R357" t="n">
-        <v>35029651.69</v>
+        <v>2264452704.68</v>
       </c>
       <c r="S357" t="n">
-        <v>165422357.5455556</v>
+        <v>2535803818.47</v>
       </c>
       <c r="T357" t="n">
-        <v>156016497.14</v>
+        <v>2492438137.62</v>
       </c>
       <c r="U357" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="V357" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="W357" t="n">
         <v>0</v>
       </c>
-      <c r="X357" t="s"/>
+      <c r="X357" t="n">
+        <v>62</v>
+      </c>
       <c r="Y357" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="Z357" t="n">
         <v>0</v>
       </c>
       <c r="AA357" t="n">
-        <v>304194280.0406666</v>
+        <v>81244412698</v>
       </c>
       <c r="AB357" t="n">
         <v>0</v>
       </c>
       <c r="AC357" t="n">
-        <v>303837131.8813962</v>
+        <v>27248545597</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -30076,86 +30042,80 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C358" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D358" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E358" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F358" t="n">
-        <v>0</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0</v>
-      </c>
+        <v>12877592</v>
+      </c>
+      <c r="F358" t="s"/>
+      <c r="G358" t="s"/>
       <c r="H358" t="n">
-        <v>33517140.78</v>
+        <v>4301551000</v>
       </c>
       <c r="I358" t="n">
-        <v>33517140.78</v>
-      </c>
-      <c r="J358" t="n">
-        <v>0</v>
-      </c>
+        <v>4301551000</v>
+      </c>
+      <c r="J358" t="s"/>
       <c r="K358" t="n">
-        <v>1875000</v>
+        <v>12877592</v>
       </c>
       <c r="L358" t="n">
-        <v>167585703.9</v>
+        <v>6452326500</v>
       </c>
       <c r="M358" t="n">
-        <v>167585703.9</v>
-      </c>
-      <c r="N358" t="n">
-        <v>0</v>
-      </c>
+        <v>4301551000</v>
+      </c>
+      <c r="N358" t="s"/>
       <c r="O358" t="n">
-        <v>26442157.41</v>
+        <v>3273633809</v>
       </c>
       <c r="P358" t="n">
-        <v>14108862.33916667</v>
+        <v>1687997522</v>
       </c>
       <c r="Q358" t="n">
-        <v>20888406.47</v>
+        <v>338879022.72</v>
       </c>
       <c r="R358" t="n">
-        <v>33784545.92</v>
+        <v>8925595799.9</v>
       </c>
       <c r="S358" t="n">
-        <v>162236357.5455556</v>
+        <v>5185573164.79</v>
       </c>
       <c r="T358" t="n">
-        <v>153149097.14</v>
+        <v>5096892838.16</v>
       </c>
       <c r="U358" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="V358" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="W358" t="n">
         <v>0</v>
       </c>
-      <c r="X358" t="s"/>
+      <c r="X358" t="n">
+        <v>30</v>
+      </c>
       <c r="Y358" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="Z358" t="n">
         <v>0</v>
       </c>
       <c r="AA358" t="n">
-        <v>261003167.4926096</v>
+        <v>1474852443</v>
       </c>
       <c r="AB358" t="n">
         <v>0</v>
       </c>
       <c r="AC358" t="n">
-        <v>248470704.3946885</v>
+        <v>580354322053</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -30163,86 +30123,80 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C359" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D359" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E359" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F359" t="n">
-        <v>0</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0</v>
-      </c>
+        <v>8674</v>
+      </c>
+      <c r="F359" t="s"/>
+      <c r="G359" t="s"/>
       <c r="H359" t="n">
-        <v>23340001.84</v>
+        <v>2899000</v>
       </c>
       <c r="I359" t="n">
-        <v>23340001.84</v>
-      </c>
-      <c r="J359" t="n">
-        <v>0</v>
-      </c>
+        <v>2899000</v>
+      </c>
+      <c r="J359" t="s"/>
       <c r="K359" t="n">
-        <v>1875000</v>
+        <v>8674</v>
       </c>
       <c r="L359" t="n">
-        <v>116700009.2</v>
+        <v>4348500</v>
       </c>
       <c r="M359" t="n">
-        <v>116700009.2</v>
-      </c>
-      <c r="N359" t="n">
-        <v>0</v>
-      </c>
+        <v>2899000</v>
+      </c>
+      <c r="N359" t="s"/>
       <c r="O359" t="n">
-        <v>26548196.36</v>
+        <v>9328880</v>
       </c>
       <c r="P359" t="n">
-        <v>16337938.71666667</v>
+        <v>2740661</v>
       </c>
       <c r="Q359" t="n">
-        <v>15623080.56</v>
+        <v>1843043.55</v>
       </c>
       <c r="R359" t="n">
-        <v>24986861.88</v>
+        <v>1843043.55</v>
       </c>
       <c r="S359" t="n">
-        <v>196928749.49</v>
+        <v>3494780.51</v>
       </c>
       <c r="T359" t="n">
-        <v>187702356.49</v>
+        <v>3435015.03</v>
       </c>
       <c r="U359" t="n">
+        <v>6</v>
+      </c>
+      <c r="V359" t="n">
+        <v>0</v>
+      </c>
+      <c r="W359" t="n">
+        <v>0</v>
+      </c>
+      <c r="X359" t="n">
         <v>7</v>
       </c>
-      <c r="V359" t="n">
-        <v>42</v>
-      </c>
-      <c r="W359" t="n">
-        <v>0</v>
-      </c>
-      <c r="X359" t="s"/>
       <c r="Y359" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="Z359" t="n">
         <v>0</v>
       </c>
       <c r="AA359" t="n">
-        <v>284087172.238683</v>
+        <v>8052868016</v>
       </c>
       <c r="AB359" t="n">
         <v>0</v>
       </c>
       <c r="AC359" t="n">
-        <v>296971841.5033337</v>
+        <v>27299396</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -30250,86 +30204,80 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C360" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D360" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E360" t="n">
-        <v>1875000</v>
-      </c>
-      <c r="F360" t="n">
-        <v>0</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="F360" t="s"/>
+      <c r="G360" t="s"/>
       <c r="H360" t="n">
-        <v>38013849.85</v>
+        <v>200000</v>
       </c>
       <c r="I360" t="n">
-        <v>38013849.85</v>
-      </c>
-      <c r="J360" t="n">
-        <v>0</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="J360" t="s"/>
       <c r="K360" t="n">
-        <v>1875000</v>
+        <v>602</v>
       </c>
       <c r="L360" t="n">
-        <v>190069249.25</v>
+        <v>300000</v>
       </c>
       <c r="M360" t="n">
-        <v>190069249.25</v>
-      </c>
-      <c r="N360" t="n">
-        <v>0</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="N360" t="s"/>
       <c r="O360" t="n">
-        <v>26442157.41</v>
+        <v>122444</v>
       </c>
       <c r="P360" t="n">
-        <v>13845926.89333333</v>
+        <v>10122</v>
       </c>
       <c r="Q360" t="n">
-        <v>18672606.67</v>
+        <v>0</v>
       </c>
       <c r="R360" t="n">
-        <v>32903711.29</v>
+        <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>190506119.84</v>
+        <v>241102.48</v>
       </c>
       <c r="T360" t="n">
-        <v>180350486.59</v>
+        <v>236979.31</v>
       </c>
       <c r="U360" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V360" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="W360" t="n">
         <v>0</v>
       </c>
-      <c r="X360" t="s"/>
+      <c r="X360" t="n">
+        <v>1</v>
+      </c>
       <c r="Y360" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="Z360" t="n">
         <v>0</v>
       </c>
       <c r="AA360" t="n">
-        <v>254594364.5686091</v>
+        <v>295374</v>
       </c>
       <c r="AB360" t="n">
         <v>0</v>
       </c>
       <c r="AC360" t="n">
-        <v>242479825.0472724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -30337,722 +30285,870 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C361" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D361" t="s">
         <v>71</v>
       </c>
       <c r="E361" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="F361" t="s"/>
-      <c r="G361" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0</v>
+      </c>
       <c r="H361" t="n">
-        <v>3608240387</v>
+        <v>21650667.24</v>
       </c>
       <c r="I361" t="n">
-        <v>4360009190.22</v>
-      </c>
-      <c r="J361" t="s"/>
+        <v>21650667.24</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
       <c r="K361" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L361" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L361" t="n">
+        <v>108253336.2</v>
+      </c>
       <c r="M361" t="n">
-        <v>7216480774</v>
+        <v>108253336.2</v>
       </c>
       <c r="N361" t="n">
-        <v>265000000</v>
+        <v>0</v>
       </c>
       <c r="O361" t="n">
-        <v>3827019277.61</v>
+        <v>25348650.79</v>
       </c>
       <c r="P361" t="n">
-        <v>2168355681.78</v>
+        <v>12969762.1525</v>
       </c>
       <c r="Q361" t="n">
-        <v>22314705478.57</v>
+        <v>23047576.48</v>
       </c>
       <c r="R361" t="n">
-        <v>39048209109.25</v>
+        <v>37988503.98</v>
       </c>
       <c r="S361" t="n">
-        <v>59143708808.05</v>
+        <v>183311194.54</v>
       </c>
       <c r="T361" t="n">
-        <v>55631325441.16</v>
+        <v>173071499.59</v>
       </c>
       <c r="U361" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="V361" t="n">
-        <v>151</v>
-      </c>
-      <c r="W361" t="s"/>
-      <c r="X361" t="n">
-        <v>545</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="W361" t="n">
+        <v>0</v>
+      </c>
+      <c r="X361" t="s"/>
       <c r="Y361" t="n">
-        <v>195</v>
-      </c>
-      <c r="Z361" t="s"/>
-      <c r="AA361" t="s"/>
-      <c r="AB361" t="s"/>
-      <c r="AC361" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>263238884.5363547</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>254496634.7211508</v>
+      </c>
     </row>
     <row r="362" spans="1:29">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C362" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D362" t="s">
         <v>71</v>
       </c>
       <c r="E362" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="F362" t="s"/>
-      <c r="G362" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0</v>
+      </c>
       <c r="H362" t="n">
-        <v>3147579153</v>
+        <v>23458566.22</v>
       </c>
       <c r="I362" t="n">
-        <v>4008404969.36</v>
-      </c>
-      <c r="J362" t="s"/>
+        <v>23458566.22</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
       <c r="K362" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L362" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L362" t="n">
+        <v>117292831.1</v>
+      </c>
       <c r="M362" t="n">
-        <v>6295158306</v>
+        <v>117292831.1</v>
       </c>
       <c r="N362" t="n">
-        <v>315000000</v>
+        <v>0</v>
       </c>
       <c r="O362" t="n">
-        <v>3493142700.79</v>
+        <v>18031293.57</v>
       </c>
       <c r="P362" t="n">
-        <v>2863011770.94</v>
+        <v>12828474.6675</v>
       </c>
       <c r="Q362" t="n">
-        <v>23161250968.49</v>
+        <v>18822457.85</v>
       </c>
       <c r="R362" t="n">
-        <v>38258913474.55</v>
+        <v>31828495.24</v>
       </c>
       <c r="S362" t="n">
-        <v>52351554815.49</v>
+        <v>196332438.2257972</v>
       </c>
       <c r="T362" t="n">
-        <v>48951941453.30999</v>
+        <v>182953807.55</v>
       </c>
       <c r="U362" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="V362" t="n">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="W362" t="n">
         <v>0</v>
       </c>
-      <c r="X362" t="n">
-        <v>531</v>
-      </c>
+      <c r="X362" t="s"/>
       <c r="Y362" t="n">
-        <v>189</v>
-      </c>
-      <c r="Z362" t="s"/>
-      <c r="AA362" t="s"/>
-      <c r="AB362" t="s"/>
-      <c r="AC362" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>200713720.7930645</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>193403295.8109105</v>
+      </c>
     </row>
     <row r="363" spans="1:29">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C363" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D363" t="s">
         <v>71</v>
       </c>
       <c r="E363" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="F363" t="s"/>
-      <c r="G363" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0</v>
+      </c>
       <c r="H363" t="n">
-        <v>2872556533</v>
+        <v>19210385.39</v>
       </c>
       <c r="I363" t="n">
-        <v>3834887570.62</v>
-      </c>
-      <c r="J363" t="s"/>
+        <v>19210385.39</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
       <c r="K363" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L363" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L363" t="n">
+        <v>96051926.95</v>
+      </c>
       <c r="M363" t="n">
-        <v>5745113066</v>
+        <v>96051926.95</v>
       </c>
       <c r="N363" t="n">
-        <v>315000000</v>
+        <v>0</v>
       </c>
       <c r="O363" t="n">
-        <v>2877953679.04</v>
+        <v>17239024.27</v>
       </c>
       <c r="P363" t="n">
-        <v>1962855221.61</v>
+        <v>11707342.7191667</v>
       </c>
       <c r="Q363" t="n">
-        <v>31375878562.53</v>
+        <v>10969033.04</v>
       </c>
       <c r="R363" t="n">
-        <v>46584259975.73</v>
+        <v>21412764.39</v>
       </c>
       <c r="S363" t="n">
-        <v>60964737810.37796</v>
+        <v>169018812.3</v>
       </c>
       <c r="T363" t="n">
-        <v>57976720730.29408</v>
+        <v>158665102.15</v>
       </c>
       <c r="U363" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="V363" t="n">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="W363" t="n">
         <v>0</v>
       </c>
-      <c r="X363" t="n">
-        <v>544</v>
-      </c>
+      <c r="X363" t="s"/>
       <c r="Y363" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z363" t="s"/>
-      <c r="AA363" t="s"/>
-      <c r="AB363" t="s"/>
-      <c r="AC363" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>232476040.2583704</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>229510816.4980687</v>
+      </c>
     </row>
     <row r="364" spans="1:29">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C364" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D364" t="s">
         <v>71</v>
       </c>
       <c r="E364" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="F364" t="s"/>
-      <c r="G364" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0</v>
+      </c>
       <c r="H364" t="n">
-        <v>3516994538</v>
+        <v>33083722.25</v>
       </c>
       <c r="I364" t="n">
-        <v>4367791953.67</v>
-      </c>
-      <c r="J364" t="s"/>
+        <v>33083722.25</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
       <c r="K364" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L364" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L364" t="n">
+        <v>165418611.25</v>
+      </c>
       <c r="M364" t="n">
-        <v>7033989076</v>
+        <v>165418611.25</v>
       </c>
       <c r="N364" t="n">
-        <v>365000000</v>
+        <v>0</v>
       </c>
       <c r="O364" t="n">
-        <v>3368275132.72</v>
+        <v>26548196.36</v>
       </c>
       <c r="P364" t="n">
-        <v>2806522890.19</v>
+        <v>15881865.06</v>
       </c>
       <c r="Q364" t="n">
-        <v>24442260281.57</v>
+        <v>20528345.13</v>
       </c>
       <c r="R364" t="n">
-        <v>37266422351.8</v>
+        <v>34900994.1</v>
       </c>
       <c r="S364" t="n">
-        <v>52094277622.7</v>
+        <v>203284176.9</v>
       </c>
       <c r="T364" t="n">
-        <v>48544508202.82999</v>
+        <v>194117486.3</v>
       </c>
       <c r="U364" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="V364" t="n">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="W364" t="n">
         <v>0</v>
       </c>
-      <c r="X364" t="n">
-        <v>546</v>
-      </c>
+      <c r="X364" t="s"/>
       <c r="Y364" t="n">
-        <v>193</v>
-      </c>
-      <c r="Z364" t="s"/>
-      <c r="AA364" t="s"/>
-      <c r="AB364" t="s"/>
-      <c r="AC364" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>285782352.3838115</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>280427493.3746177</v>
+      </c>
     </row>
     <row r="365" spans="1:29">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C365" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D365" t="s">
         <v>71</v>
       </c>
       <c r="E365" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="F365" t="s"/>
-      <c r="G365" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
       <c r="H365" t="n">
-        <v>3661855523</v>
+        <v>18994506.4</v>
       </c>
       <c r="I365" t="n">
-        <v>4343644916.66</v>
-      </c>
-      <c r="J365" t="s"/>
+        <v>18994506.4</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
       <c r="K365" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L365" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L365" t="n">
+        <v>94972532</v>
+      </c>
       <c r="M365" t="n">
-        <v>7323711046</v>
+        <v>94972532</v>
       </c>
       <c r="N365" t="n">
-        <v>315000000</v>
+        <v>0</v>
       </c>
       <c r="O365" t="n">
-        <v>3493142700.79</v>
+        <v>23227329.98</v>
       </c>
       <c r="P365" t="n">
-        <v>2522900642.03</v>
+        <v>15961395.1716667</v>
       </c>
       <c r="Q365" t="n">
-        <v>24485362969.27</v>
+        <v>24228592.17</v>
       </c>
       <c r="R365" t="n">
-        <v>38849095700.82</v>
+        <v>40788880</v>
       </c>
       <c r="S365" t="n">
-        <v>52123546433.46</v>
+        <v>194043127.8071014</v>
       </c>
       <c r="T365" t="n">
-        <v>48655346961.9</v>
+        <v>180760110.13</v>
       </c>
       <c r="U365" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="V365" t="n">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="W365" t="n">
         <v>0</v>
       </c>
-      <c r="X365" t="n">
-        <v>547</v>
-      </c>
+      <c r="X365" t="s"/>
       <c r="Y365" t="n">
-        <v>198</v>
-      </c>
-      <c r="Z365" t="s"/>
-      <c r="AA365" t="s"/>
-      <c r="AB365" t="s"/>
-      <c r="AC365" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>219687830.9519128</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>211478642.7168253</v>
+      </c>
     </row>
     <row r="366" spans="1:29">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C366" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D366" t="s">
         <v>71</v>
       </c>
       <c r="E366" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="F366" t="s"/>
-      <c r="G366" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
       <c r="H366" t="n">
-        <v>3035824196</v>
+        <v>17814642.27</v>
       </c>
       <c r="I366" t="n">
-        <v>4147136594.8</v>
-      </c>
-      <c r="J366" t="s"/>
+        <v>17814642.27</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
       <c r="K366" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L366" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L366" t="n">
+        <v>89073211.34999999</v>
+      </c>
       <c r="M366" t="n">
-        <v>6071648392</v>
+        <v>89073211.34999999</v>
       </c>
       <c r="N366" t="n">
-        <v>315000000</v>
+        <v>0</v>
       </c>
       <c r="O366" t="n">
-        <v>3493142700.79</v>
+        <v>23227329.98</v>
       </c>
       <c r="P366" t="n">
-        <v>2819264645.73</v>
+        <v>13243102.02166667</v>
       </c>
       <c r="Q366" t="n">
-        <v>24914363927.25</v>
+        <v>14059968.69</v>
       </c>
       <c r="R366" t="n">
-        <v>38840102862.73</v>
+        <v>25476280.43</v>
       </c>
       <c r="S366" t="n">
-        <v>49993999738.71999</v>
+        <v>178047430.0657971</v>
       </c>
       <c r="T366" t="n">
-        <v>46709190447.25999</v>
+        <v>165167004.31</v>
       </c>
       <c r="U366" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="V366" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="W366" t="n">
         <v>0</v>
       </c>
-      <c r="X366" t="n">
-        <v>550</v>
-      </c>
+      <c r="X366" t="s"/>
       <c r="Y366" t="n">
-        <v>196</v>
-      </c>
-      <c r="Z366" t="s"/>
-      <c r="AA366" t="s"/>
-      <c r="AB366" t="s"/>
-      <c r="AC366" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>260635519.6888984</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>225877286.3225412</v>
+      </c>
     </row>
     <row r="367" spans="1:29">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C367" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D367" t="s">
         <v>71</v>
       </c>
       <c r="E367" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="F367" t="s"/>
-      <c r="G367" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0</v>
+      </c>
       <c r="H367" t="n">
-        <v>3706328983</v>
+        <v>32320318.92</v>
       </c>
       <c r="I367" t="n">
-        <v>4338012805.44</v>
-      </c>
-      <c r="J367" t="s"/>
+        <v>32320318.92</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
       <c r="K367" t="n">
-        <v>700000000</v>
-      </c>
-      <c r="L367" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L367" t="n">
+        <v>161601594.6</v>
+      </c>
       <c r="M367" t="n">
-        <v>7412657966</v>
+        <v>161601594.6</v>
       </c>
       <c r="N367" t="n">
-        <v>265000000</v>
+        <v>0</v>
       </c>
       <c r="O367" t="n">
-        <v>3827019277.61</v>
+        <v>29409721.82</v>
       </c>
       <c r="P367" t="n">
-        <v>2495777393.5</v>
+        <v>16584295.16666667</v>
       </c>
       <c r="Q367" t="n">
-        <v>20652766422.7</v>
+        <v>21989354.48</v>
       </c>
       <c r="R367" t="n">
-        <v>37436486079.47</v>
+        <v>35029651.69</v>
       </c>
       <c r="S367" t="n">
-        <v>57744238249.52</v>
+        <v>165422357.5455556</v>
       </c>
       <c r="T367" t="n">
-        <v>54191325565.14</v>
+        <v>156016497.14</v>
       </c>
       <c r="U367" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="V367" t="n">
-        <v>149</v>
-      </c>
-      <c r="W367" t="s"/>
-      <c r="X367" t="n">
-        <v>526</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="W367" t="n">
+        <v>0</v>
+      </c>
+      <c r="X367" t="s"/>
       <c r="Y367" t="n">
-        <v>193</v>
-      </c>
-      <c r="Z367" t="s"/>
-      <c r="AA367" t="s"/>
-      <c r="AB367" t="s"/>
-      <c r="AC367" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>304194280.0406666</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>303837131.8813962</v>
+      </c>
     </row>
     <row r="368" spans="1:29">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C368" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D368" t="s">
         <v>71</v>
       </c>
       <c r="E368" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="F368" t="s"/>
-      <c r="G368" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0</v>
+      </c>
       <c r="H368" t="n">
-        <v>3265194953</v>
+        <v>33517140.78</v>
       </c>
       <c r="I368" t="n">
-        <v>4230653974.719864</v>
-      </c>
-      <c r="J368" t="s"/>
+        <v>33517140.78</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
       <c r="K368" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L368" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L368" t="n">
+        <v>167585703.9</v>
+      </c>
       <c r="M368" t="n">
-        <v>6530389906</v>
+        <v>167585703.9</v>
       </c>
       <c r="N368" t="n">
-        <v>265000000</v>
+        <v>0</v>
       </c>
       <c r="O368" t="n">
-        <v>3414286407.02626</v>
+        <v>26442157.41</v>
       </c>
       <c r="P368" t="n">
-        <v>1876189936.468167</v>
+        <v>14108862.33916667</v>
       </c>
       <c r="Q368" t="n">
-        <v>20501782217.9687</v>
+        <v>20888406.47</v>
       </c>
       <c r="R368" t="n">
-        <v>34456021519.95277</v>
+        <v>33784545.92</v>
       </c>
       <c r="S368" t="n">
-        <v>52630200639.20496</v>
+        <v>162236357.5455556</v>
       </c>
       <c r="T368" t="n">
-        <v>49743960954.11151</v>
+        <v>153149097.14</v>
       </c>
       <c r="U368" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="V368" t="n">
-        <v>153</v>
-      </c>
-      <c r="W368" t="s"/>
-      <c r="X368" t="n">
-        <v>543</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="W368" t="n">
+        <v>0</v>
+      </c>
+      <c r="X368" t="s"/>
       <c r="Y368" t="n">
-        <v>196</v>
-      </c>
-      <c r="Z368" t="s"/>
-      <c r="AA368" t="s"/>
-      <c r="AB368" t="s"/>
-      <c r="AC368" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>261003167.4926096</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>248470704.3946885</v>
+      </c>
     </row>
     <row r="369" spans="1:29">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C369" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D369" t="s">
         <v>71</v>
       </c>
       <c r="E369" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="F369" t="s"/>
-      <c r="G369" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0</v>
+      </c>
       <c r="H369" t="n">
-        <v>3809168471</v>
+        <v>23340001.84</v>
       </c>
       <c r="I369" t="n">
-        <v>4361769277.97279</v>
-      </c>
-      <c r="J369" t="s"/>
+        <v>23340001.84</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
       <c r="K369" t="n">
-        <v>700000000</v>
-      </c>
-      <c r="L369" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L369" t="n">
+        <v>116700009.2</v>
+      </c>
       <c r="M369" t="n">
-        <v>7618336942</v>
+        <v>116700009.2</v>
       </c>
       <c r="N369" t="n">
-        <v>265000000</v>
+        <v>0</v>
       </c>
       <c r="O369" t="n">
-        <v>3827019277.61</v>
+        <v>26548196.36</v>
       </c>
       <c r="P369" t="n">
-        <v>2679489814</v>
+        <v>16337938.71666667</v>
       </c>
       <c r="Q369" t="n">
-        <v>25036172858.43</v>
+        <v>15623080.56</v>
       </c>
       <c r="R369" t="n">
-        <v>43091677165.47</v>
+        <v>24986861.88</v>
       </c>
       <c r="S369" t="n">
-        <v>60486664577.06</v>
+        <v>196928749.49</v>
       </c>
       <c r="T369" t="n">
-        <v>56550412553.27</v>
+        <v>187702356.49</v>
       </c>
       <c r="U369" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="V369" t="n">
-        <v>143</v>
-      </c>
-      <c r="W369" t="s"/>
-      <c r="X369" t="n">
-        <v>526</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="W369" t="n">
+        <v>0</v>
+      </c>
+      <c r="X369" t="s"/>
       <c r="Y369" t="n">
-        <v>186</v>
-      </c>
-      <c r="Z369" t="s"/>
-      <c r="AA369" t="s"/>
-      <c r="AB369" t="s"/>
-      <c r="AC369" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>284087172.238683</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>296971841.5033337</v>
+      </c>
     </row>
     <row r="370" spans="1:29">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C370" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D370" t="s">
         <v>71</v>
       </c>
       <c r="E370" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="F370" t="s"/>
-      <c r="G370" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0</v>
+      </c>
       <c r="H370" t="n">
-        <v>3193111839</v>
+        <v>38013849.85</v>
       </c>
       <c r="I370" t="n">
-        <v>4177965990.93</v>
-      </c>
-      <c r="J370" t="s"/>
+        <v>38013849.85</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
       <c r="K370" t="n">
-        <v>600000000</v>
-      </c>
-      <c r="L370" t="s"/>
+        <v>1875000</v>
+      </c>
+      <c r="L370" t="n">
+        <v>190069249.25</v>
+      </c>
       <c r="M370" t="n">
-        <v>6386223678</v>
+        <v>190069249.25</v>
       </c>
       <c r="N370" t="n">
-        <v>315000000</v>
+        <v>0</v>
       </c>
       <c r="O370" t="n">
-        <v>3493142700.79</v>
+        <v>26442157.41</v>
       </c>
       <c r="P370" t="n">
-        <v>2837838777.09</v>
+        <v>13845926.89333333</v>
       </c>
       <c r="Q370" t="n">
-        <v>24293581475.42</v>
+        <v>18672606.67</v>
       </c>
       <c r="R370" t="n">
-        <v>38211023503.4</v>
+        <v>32903711.29</v>
       </c>
       <c r="S370" t="n">
-        <v>51337642350.48</v>
+        <v>190506119.84</v>
       </c>
       <c r="T370" t="n">
-        <v>47912943184.09</v>
+        <v>180350486.59</v>
       </c>
       <c r="U370" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="V370" t="n">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="W370" t="n">
         <v>0</v>
       </c>
-      <c r="X370" t="n">
-        <v>535</v>
-      </c>
+      <c r="X370" t="s"/>
       <c r="Y370" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z370" t="s"/>
-      <c r="AA370" t="s"/>
-      <c r="AB370" t="s"/>
-      <c r="AC370" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>254594364.5686091</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>242479825.0472724</v>
+      </c>
     </row>
     <row r="371" spans="1:29">
       <c r="A371" s="1" t="n">
@@ -31062,7 +31158,7 @@
         <v>99</v>
       </c>
       <c r="C371" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D371" t="s">
         <v>71</v>
@@ -31073,10 +31169,10 @@
       <c r="F371" t="s"/>
       <c r="G371" t="s"/>
       <c r="H371" t="n">
-        <v>3002661730</v>
+        <v>3608240387</v>
       </c>
       <c r="I371" t="n">
-        <v>3963368182.677832</v>
+        <v>4360009190.22</v>
       </c>
       <c r="J371" t="s"/>
       <c r="K371" t="n">
@@ -31084,49 +31180,771 @@
       </c>
       <c r="L371" t="s"/>
       <c r="M371" t="n">
-        <v>6005323460</v>
+        <v>7216480774</v>
       </c>
       <c r="N371" t="n">
         <v>265000000</v>
       </c>
       <c r="O371" t="n">
-        <v>3164468008.93385</v>
+        <v>3827019277.61</v>
       </c>
       <c r="P371" t="n">
-        <v>1928253541.579052</v>
+        <v>2168355681.78</v>
       </c>
       <c r="Q371" t="n">
-        <v>22206580943.66835</v>
+        <v>22314705478.57</v>
       </c>
       <c r="R371" t="n">
-        <v>35787455944.14075</v>
+        <v>39048209109.25</v>
       </c>
       <c r="S371" t="n">
-        <v>52158038588.12729</v>
+        <v>59143708808.05</v>
       </c>
       <c r="T371" t="n">
-        <v>49431598313.8801</v>
+        <v>55631325441.16</v>
       </c>
       <c r="U371" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V371" t="n">
-        <v>154</v>
-      </c>
-      <c r="W371" t="n">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="W371" t="s"/>
       <c r="X371" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Y371" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Z371" t="s"/>
       <c r="AA371" t="s"/>
       <c r="AB371" t="s"/>
       <c r="AC371" t="s"/>
     </row>
+    <row r="372" spans="1:29">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>99</v>
+      </c>
+      <c r="C372" t="s">
+        <v>45</v>
+      </c>
+      <c r="D372" t="s">
+        <v>71</v>
+      </c>
+      <c r="E372" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="F372" t="s"/>
+      <c r="G372" t="s"/>
+      <c r="H372" t="n">
+        <v>3147579153</v>
+      </c>
+      <c r="I372" t="n">
+        <v>4008404969.36</v>
+      </c>
+      <c r="J372" t="s"/>
+      <c r="K372" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L372" t="s"/>
+      <c r="M372" t="n">
+        <v>6295158306</v>
+      </c>
+      <c r="N372" t="n">
+        <v>315000000</v>
+      </c>
+      <c r="O372" t="n">
+        <v>3493142700.79</v>
+      </c>
+      <c r="P372" t="n">
+        <v>2863011770.94</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>23161250968.49</v>
+      </c>
+      <c r="R372" t="n">
+        <v>38258913474.55</v>
+      </c>
+      <c r="S372" t="n">
+        <v>52351554815.49</v>
+      </c>
+      <c r="T372" t="n">
+        <v>48951941453.30999</v>
+      </c>
+      <c r="U372" t="n">
+        <v>84</v>
+      </c>
+      <c r="V372" t="n">
+        <v>144</v>
+      </c>
+      <c r="W372" t="n">
+        <v>0</v>
+      </c>
+      <c r="X372" t="n">
+        <v>531</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>189</v>
+      </c>
+      <c r="Z372" t="s"/>
+      <c r="AA372" t="s"/>
+      <c r="AB372" t="s"/>
+      <c r="AC372" t="s"/>
+    </row>
+    <row r="373" spans="1:29">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>99</v>
+      </c>
+      <c r="C373" t="s">
+        <v>44</v>
+      </c>
+      <c r="D373" t="s">
+        <v>71</v>
+      </c>
+      <c r="E373" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="F373" t="s"/>
+      <c r="G373" t="s"/>
+      <c r="H373" t="n">
+        <v>2872556533</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3834887570.62</v>
+      </c>
+      <c r="J373" t="s"/>
+      <c r="K373" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L373" t="s"/>
+      <c r="M373" t="n">
+        <v>5745113066</v>
+      </c>
+      <c r="N373" t="n">
+        <v>315000000</v>
+      </c>
+      <c r="O373" t="n">
+        <v>2877953679.04</v>
+      </c>
+      <c r="P373" t="n">
+        <v>1962855221.61</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>31375878562.53</v>
+      </c>
+      <c r="R373" t="n">
+        <v>46584259975.73</v>
+      </c>
+      <c r="S373" t="n">
+        <v>60964737810.37796</v>
+      </c>
+      <c r="T373" t="n">
+        <v>57976720730.29408</v>
+      </c>
+      <c r="U373" t="n">
+        <v>87</v>
+      </c>
+      <c r="V373" t="n">
+        <v>154</v>
+      </c>
+      <c r="W373" t="n">
+        <v>0</v>
+      </c>
+      <c r="X373" t="n">
+        <v>544</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z373" t="s"/>
+      <c r="AA373" t="s"/>
+      <c r="AB373" t="s"/>
+      <c r="AC373" t="s"/>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>99</v>
+      </c>
+      <c r="C374" t="s">
+        <v>38</v>
+      </c>
+      <c r="D374" t="s">
+        <v>71</v>
+      </c>
+      <c r="E374" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="F374" t="s"/>
+      <c r="G374" t="s"/>
+      <c r="H374" t="n">
+        <v>3516994538</v>
+      </c>
+      <c r="I374" t="n">
+        <v>4367791953.67</v>
+      </c>
+      <c r="J374" t="s"/>
+      <c r="K374" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L374" t="s"/>
+      <c r="M374" t="n">
+        <v>7033989076</v>
+      </c>
+      <c r="N374" t="n">
+        <v>365000000</v>
+      </c>
+      <c r="O374" t="n">
+        <v>3368275132.72</v>
+      </c>
+      <c r="P374" t="n">
+        <v>2806522890.19</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>24442260281.57</v>
+      </c>
+      <c r="R374" t="n">
+        <v>37266422351.8</v>
+      </c>
+      <c r="S374" t="n">
+        <v>52094277622.7</v>
+      </c>
+      <c r="T374" t="n">
+        <v>48544508202.82999</v>
+      </c>
+      <c r="U374" t="n">
+        <v>85</v>
+      </c>
+      <c r="V374" t="n">
+        <v>147</v>
+      </c>
+      <c r="W374" t="n">
+        <v>0</v>
+      </c>
+      <c r="X374" t="n">
+        <v>546</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>193</v>
+      </c>
+      <c r="Z374" t="s"/>
+      <c r="AA374" t="s"/>
+      <c r="AB374" t="s"/>
+      <c r="AC374" t="s"/>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>99</v>
+      </c>
+      <c r="C375" t="s">
+        <v>29</v>
+      </c>
+      <c r="D375" t="s">
+        <v>71</v>
+      </c>
+      <c r="E375" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="F375" t="s"/>
+      <c r="G375" t="s"/>
+      <c r="H375" t="n">
+        <v>3661855523</v>
+      </c>
+      <c r="I375" t="n">
+        <v>4343644916.66</v>
+      </c>
+      <c r="J375" t="s"/>
+      <c r="K375" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L375" t="s"/>
+      <c r="M375" t="n">
+        <v>7323711046</v>
+      </c>
+      <c r="N375" t="n">
+        <v>315000000</v>
+      </c>
+      <c r="O375" t="n">
+        <v>3493142700.79</v>
+      </c>
+      <c r="P375" t="n">
+        <v>2522900642.03</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>24485362969.27</v>
+      </c>
+      <c r="R375" t="n">
+        <v>38849095700.82</v>
+      </c>
+      <c r="S375" t="n">
+        <v>52123546433.46</v>
+      </c>
+      <c r="T375" t="n">
+        <v>48655346961.9</v>
+      </c>
+      <c r="U375" t="n">
+        <v>85</v>
+      </c>
+      <c r="V375" t="n">
+        <v>151</v>
+      </c>
+      <c r="W375" t="n">
+        <v>0</v>
+      </c>
+      <c r="X375" t="n">
+        <v>547</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>198</v>
+      </c>
+      <c r="Z375" t="s"/>
+      <c r="AA375" t="s"/>
+      <c r="AB375" t="s"/>
+      <c r="AC375" t="s"/>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>99</v>
+      </c>
+      <c r="C376" t="s">
+        <v>43</v>
+      </c>
+      <c r="D376" t="s">
+        <v>71</v>
+      </c>
+      <c r="E376" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="F376" t="s"/>
+      <c r="G376" t="s"/>
+      <c r="H376" t="n">
+        <v>3035824196</v>
+      </c>
+      <c r="I376" t="n">
+        <v>4147136594.8</v>
+      </c>
+      <c r="J376" t="s"/>
+      <c r="K376" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L376" t="s"/>
+      <c r="M376" t="n">
+        <v>6071648392</v>
+      </c>
+      <c r="N376" t="n">
+        <v>315000000</v>
+      </c>
+      <c r="O376" t="n">
+        <v>3493142700.79</v>
+      </c>
+      <c r="P376" t="n">
+        <v>2819264645.73</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>24914363927.25</v>
+      </c>
+      <c r="R376" t="n">
+        <v>38840102862.73</v>
+      </c>
+      <c r="S376" t="n">
+        <v>49993999738.71999</v>
+      </c>
+      <c r="T376" t="n">
+        <v>46709190447.25999</v>
+      </c>
+      <c r="U376" t="n">
+        <v>85</v>
+      </c>
+      <c r="V376" t="n">
+        <v>150</v>
+      </c>
+      <c r="W376" t="n">
+        <v>0</v>
+      </c>
+      <c r="X376" t="n">
+        <v>550</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>196</v>
+      </c>
+      <c r="Z376" t="s"/>
+      <c r="AA376" t="s"/>
+      <c r="AB376" t="s"/>
+      <c r="AC376" t="s"/>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>99</v>
+      </c>
+      <c r="C377" t="s">
+        <v>53</v>
+      </c>
+      <c r="D377" t="s">
+        <v>71</v>
+      </c>
+      <c r="E377" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="F377" t="s"/>
+      <c r="G377" t="s"/>
+      <c r="H377" t="n">
+        <v>3706328983</v>
+      </c>
+      <c r="I377" t="n">
+        <v>4338012805.44</v>
+      </c>
+      <c r="J377" t="s"/>
+      <c r="K377" t="n">
+        <v>700000000</v>
+      </c>
+      <c r="L377" t="s"/>
+      <c r="M377" t="n">
+        <v>7412657966</v>
+      </c>
+      <c r="N377" t="n">
+        <v>265000000</v>
+      </c>
+      <c r="O377" t="n">
+        <v>3827019277.61</v>
+      </c>
+      <c r="P377" t="n">
+        <v>2495777393.5</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>20652766422.7</v>
+      </c>
+      <c r="R377" t="n">
+        <v>37436486079.47</v>
+      </c>
+      <c r="S377" t="n">
+        <v>57744238249.52</v>
+      </c>
+      <c r="T377" t="n">
+        <v>54191325565.14</v>
+      </c>
+      <c r="U377" t="n">
+        <v>81</v>
+      </c>
+      <c r="V377" t="n">
+        <v>149</v>
+      </c>
+      <c r="W377" t="s"/>
+      <c r="X377" t="n">
+        <v>526</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>193</v>
+      </c>
+      <c r="Z377" t="s"/>
+      <c r="AA377" t="s"/>
+      <c r="AB377" t="s"/>
+      <c r="AC377" t="s"/>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>99</v>
+      </c>
+      <c r="C378" t="s">
+        <v>35</v>
+      </c>
+      <c r="D378" t="s">
+        <v>71</v>
+      </c>
+      <c r="E378" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="F378" t="s"/>
+      <c r="G378" t="s"/>
+      <c r="H378" t="n">
+        <v>3265194953</v>
+      </c>
+      <c r="I378" t="n">
+        <v>4230653974.719864</v>
+      </c>
+      <c r="J378" t="s"/>
+      <c r="K378" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L378" t="s"/>
+      <c r="M378" t="n">
+        <v>6530389906</v>
+      </c>
+      <c r="N378" t="n">
+        <v>265000000</v>
+      </c>
+      <c r="O378" t="n">
+        <v>3414286407.02626</v>
+      </c>
+      <c r="P378" t="n">
+        <v>1876189936.468167</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>20501782217.9687</v>
+      </c>
+      <c r="R378" t="n">
+        <v>34456021519.95277</v>
+      </c>
+      <c r="S378" t="n">
+        <v>52630200639.20496</v>
+      </c>
+      <c r="T378" t="n">
+        <v>49743960954.11151</v>
+      </c>
+      <c r="U378" t="n">
+        <v>85</v>
+      </c>
+      <c r="V378" t="n">
+        <v>153</v>
+      </c>
+      <c r="W378" t="s"/>
+      <c r="X378" t="n">
+        <v>543</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>196</v>
+      </c>
+      <c r="Z378" t="s"/>
+      <c r="AA378" t="s"/>
+      <c r="AB378" t="s"/>
+      <c r="AC378" t="s"/>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>99</v>
+      </c>
+      <c r="C379" t="s">
+        <v>54</v>
+      </c>
+      <c r="D379" t="s">
+        <v>71</v>
+      </c>
+      <c r="E379" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="F379" t="s"/>
+      <c r="G379" t="s"/>
+      <c r="H379" t="n">
+        <v>3809168471</v>
+      </c>
+      <c r="I379" t="n">
+        <v>4361769277.97279</v>
+      </c>
+      <c r="J379" t="s"/>
+      <c r="K379" t="n">
+        <v>700000000</v>
+      </c>
+      <c r="L379" t="s"/>
+      <c r="M379" t="n">
+        <v>7618336942</v>
+      </c>
+      <c r="N379" t="n">
+        <v>265000000</v>
+      </c>
+      <c r="O379" t="n">
+        <v>3827019277.61</v>
+      </c>
+      <c r="P379" t="n">
+        <v>2679489814</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>25036172858.43</v>
+      </c>
+      <c r="R379" t="n">
+        <v>43091677165.47</v>
+      </c>
+      <c r="S379" t="n">
+        <v>60486664577.06</v>
+      </c>
+      <c r="T379" t="n">
+        <v>56550412553.27</v>
+      </c>
+      <c r="U379" t="n">
+        <v>78</v>
+      </c>
+      <c r="V379" t="n">
+        <v>143</v>
+      </c>
+      <c r="W379" t="s"/>
+      <c r="X379" t="n">
+        <v>526</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>186</v>
+      </c>
+      <c r="Z379" t="s"/>
+      <c r="AA379" t="s"/>
+      <c r="AB379" t="s"/>
+      <c r="AC379" t="s"/>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>99</v>
+      </c>
+      <c r="C380" t="s">
+        <v>34</v>
+      </c>
+      <c r="D380" t="s">
+        <v>71</v>
+      </c>
+      <c r="E380" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="F380" t="s"/>
+      <c r="G380" t="s"/>
+      <c r="H380" t="n">
+        <v>3193111839</v>
+      </c>
+      <c r="I380" t="n">
+        <v>4177965990.93</v>
+      </c>
+      <c r="J380" t="s"/>
+      <c r="K380" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L380" t="s"/>
+      <c r="M380" t="n">
+        <v>6386223678</v>
+      </c>
+      <c r="N380" t="n">
+        <v>315000000</v>
+      </c>
+      <c r="O380" t="n">
+        <v>3493142700.79</v>
+      </c>
+      <c r="P380" t="n">
+        <v>2837838777.09</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>24293581475.42</v>
+      </c>
+      <c r="R380" t="n">
+        <v>38211023503.4</v>
+      </c>
+      <c r="S380" t="n">
+        <v>51337642350.48</v>
+      </c>
+      <c r="T380" t="n">
+        <v>47912943184.09</v>
+      </c>
+      <c r="U380" t="n">
+        <v>84</v>
+      </c>
+      <c r="V380" t="n">
+        <v>145</v>
+      </c>
+      <c r="W380" t="n">
+        <v>0</v>
+      </c>
+      <c r="X380" t="n">
+        <v>535</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>190</v>
+      </c>
+      <c r="Z380" t="s"/>
+      <c r="AA380" t="s"/>
+      <c r="AB380" t="s"/>
+      <c r="AC380" t="s"/>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>99</v>
+      </c>
+      <c r="C381" t="s">
+        <v>36</v>
+      </c>
+      <c r="D381" t="s">
+        <v>71</v>
+      </c>
+      <c r="E381" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="F381" t="s"/>
+      <c r="G381" t="s"/>
+      <c r="H381" t="n">
+        <v>3002661730</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3963368182.677832</v>
+      </c>
+      <c r="J381" t="s"/>
+      <c r="K381" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="L381" t="s"/>
+      <c r="M381" t="n">
+        <v>6005323460</v>
+      </c>
+      <c r="N381" t="n">
+        <v>265000000</v>
+      </c>
+      <c r="O381" t="n">
+        <v>3164468008.93385</v>
+      </c>
+      <c r="P381" t="n">
+        <v>1928253541.579052</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>22206580943.66835</v>
+      </c>
+      <c r="R381" t="n">
+        <v>35787455944.14075</v>
+      </c>
+      <c r="S381" t="n">
+        <v>52158038588.12729</v>
+      </c>
+      <c r="T381" t="n">
+        <v>49431598313.8801</v>
+      </c>
+      <c r="U381" t="n">
+        <v>87</v>
+      </c>
+      <c r="V381" t="n">
+        <v>154</v>
+      </c>
+      <c r="W381" t="n">
+        <v>0</v>
+      </c>
+      <c r="X381" t="n">
+        <v>553</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z381" t="s"/>
+      <c r="AA381" t="s"/>
+      <c r="AB381" t="s"/>
+      <c r="AC381" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
